--- a/Bases_de_Dados_(2022-2024)/Chile Primera División_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Chile Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="132">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -771,7 +771,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP38"/>
+  <dimension ref="A1:BP39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3995,7 +3995,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AR16">
         <v>1.44</v>
@@ -5022,7 +5022,7 @@
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AQ21">
         <v>3</v>
@@ -6876,7 +6876,7 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AQ30">
         <v>1.5</v>
@@ -8603,6 +8603,212 @@
       </c>
       <c r="BP38">
         <v>1.32</v>
+      </c>
+    </row>
+    <row r="39" spans="1:68">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>7321614</v>
+      </c>
+      <c r="C39" t="s">
+        <v>68</v>
+      </c>
+      <c r="D39" t="s">
+        <v>69</v>
+      </c>
+      <c r="E39" s="2">
+        <v>45373.79166666666</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39" t="s">
+        <v>84</v>
+      </c>
+      <c r="H39" t="s">
+        <v>75</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39" t="s">
+        <v>86</v>
+      </c>
+      <c r="P39" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q39">
+        <v>3</v>
+      </c>
+      <c r="R39">
+        <v>2.2</v>
+      </c>
+      <c r="S39">
+        <v>3.5</v>
+      </c>
+      <c r="T39">
+        <v>1.4</v>
+      </c>
+      <c r="U39">
+        <v>2.75</v>
+      </c>
+      <c r="V39">
+        <v>2.75</v>
+      </c>
+      <c r="W39">
+        <v>1.4</v>
+      </c>
+      <c r="X39">
+        <v>8</v>
+      </c>
+      <c r="Y39">
+        <v>1.08</v>
+      </c>
+      <c r="Z39">
+        <v>2.25</v>
+      </c>
+      <c r="AA39">
+        <v>3.3</v>
+      </c>
+      <c r="AB39">
+        <v>3.1</v>
+      </c>
+      <c r="AC39">
+        <v>1.01</v>
+      </c>
+      <c r="AD39">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AE39">
+        <v>1.25</v>
+      </c>
+      <c r="AF39">
+        <v>3.65</v>
+      </c>
+      <c r="AG39">
+        <v>1.93</v>
+      </c>
+      <c r="AH39">
+        <v>1.8</v>
+      </c>
+      <c r="AI39">
+        <v>1.73</v>
+      </c>
+      <c r="AJ39">
+        <v>2</v>
+      </c>
+      <c r="AK39">
+        <v>1.4</v>
+      </c>
+      <c r="AL39">
+        <v>1.26</v>
+      </c>
+      <c r="AM39">
+        <v>1.52</v>
+      </c>
+      <c r="AN39">
+        <v>0</v>
+      </c>
+      <c r="AO39">
+        <v>3</v>
+      </c>
+      <c r="AP39">
+        <v>0.33</v>
+      </c>
+      <c r="AQ39">
+        <v>2</v>
+      </c>
+      <c r="AR39">
+        <v>1.45</v>
+      </c>
+      <c r="AS39">
+        <v>0.83</v>
+      </c>
+      <c r="AT39">
+        <v>2.28</v>
+      </c>
+      <c r="AU39">
+        <v>3</v>
+      </c>
+      <c r="AV39">
+        <v>3</v>
+      </c>
+      <c r="AW39">
+        <v>8</v>
+      </c>
+      <c r="AX39">
+        <v>5</v>
+      </c>
+      <c r="AY39">
+        <v>11</v>
+      </c>
+      <c r="AZ39">
+        <v>8</v>
+      </c>
+      <c r="BA39">
+        <v>7</v>
+      </c>
+      <c r="BB39">
+        <v>10</v>
+      </c>
+      <c r="BC39">
+        <v>17</v>
+      </c>
+      <c r="BD39">
+        <v>1.85</v>
+      </c>
+      <c r="BE39">
+        <v>8</v>
+      </c>
+      <c r="BF39">
+        <v>2.28</v>
+      </c>
+      <c r="BG39">
+        <v>1.22</v>
+      </c>
+      <c r="BH39">
+        <v>3.65</v>
+      </c>
+      <c r="BI39">
+        <v>1.46</v>
+      </c>
+      <c r="BJ39">
+        <v>2.52</v>
+      </c>
+      <c r="BK39">
+        <v>1.85</v>
+      </c>
+      <c r="BL39">
+        <v>1.85</v>
+      </c>
+      <c r="BM39">
+        <v>2.37</v>
+      </c>
+      <c r="BN39">
+        <v>1.51</v>
+      </c>
+      <c r="BO39">
+        <v>3.2</v>
+      </c>
+      <c r="BP39">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Chile Primera División_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Chile Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="132">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -771,7 +771,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP39"/>
+  <dimension ref="A1:BP40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5849,7 +5849,7 @@
         <v>2</v>
       </c>
       <c r="AQ25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AR25">
         <v>1.54</v>
@@ -7288,7 +7288,7 @@
         <v>3</v>
       </c>
       <c r="AP32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ32">
         <v>1.5</v>
@@ -8808,6 +8808,212 @@
         <v>3.2</v>
       </c>
       <c r="BP39">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:68">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>7321618</v>
+      </c>
+      <c r="C40" t="s">
+        <v>68</v>
+      </c>
+      <c r="D40" t="s">
+        <v>69</v>
+      </c>
+      <c r="E40" s="2">
+        <v>45374.75</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40" t="s">
+        <v>85</v>
+      </c>
+      <c r="H40" t="s">
+        <v>77</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="O40" t="s">
+        <v>86</v>
+      </c>
+      <c r="P40" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q40">
+        <v>3</v>
+      </c>
+      <c r="R40">
+        <v>2.2</v>
+      </c>
+      <c r="S40">
+        <v>3.4</v>
+      </c>
+      <c r="T40">
+        <v>1.36</v>
+      </c>
+      <c r="U40">
+        <v>3</v>
+      </c>
+      <c r="V40">
+        <v>2.75</v>
+      </c>
+      <c r="W40">
+        <v>1.4</v>
+      </c>
+      <c r="X40">
+        <v>7</v>
+      </c>
+      <c r="Y40">
+        <v>1.1</v>
+      </c>
+      <c r="Z40">
+        <v>2.38</v>
+      </c>
+      <c r="AA40">
+        <v>3.25</v>
+      </c>
+      <c r="AB40">
+        <v>2.85</v>
+      </c>
+      <c r="AC40">
+        <v>1.05</v>
+      </c>
+      <c r="AD40">
+        <v>8.5</v>
+      </c>
+      <c r="AE40">
+        <v>1.26</v>
+      </c>
+      <c r="AF40">
+        <v>3.89</v>
+      </c>
+      <c r="AG40">
+        <v>1.91</v>
+      </c>
+      <c r="AH40">
+        <v>1.81</v>
+      </c>
+      <c r="AI40">
+        <v>1.67</v>
+      </c>
+      <c r="AJ40">
+        <v>2.1</v>
+      </c>
+      <c r="AK40">
+        <v>1.34</v>
+      </c>
+      <c r="AL40">
+        <v>1.25</v>
+      </c>
+      <c r="AM40">
+        <v>1.44</v>
+      </c>
+      <c r="AN40">
+        <v>3</v>
+      </c>
+      <c r="AO40">
+        <v>3</v>
+      </c>
+      <c r="AP40">
+        <v>2</v>
+      </c>
+      <c r="AQ40">
+        <v>2</v>
+      </c>
+      <c r="AR40">
+        <v>2.2</v>
+      </c>
+      <c r="AS40">
+        <v>1.31</v>
+      </c>
+      <c r="AT40">
+        <v>3.51</v>
+      </c>
+      <c r="AU40">
+        <v>3</v>
+      </c>
+      <c r="AV40">
+        <v>6</v>
+      </c>
+      <c r="AW40">
+        <v>7</v>
+      </c>
+      <c r="AX40">
+        <v>9</v>
+      </c>
+      <c r="AY40">
+        <v>10</v>
+      </c>
+      <c r="AZ40">
+        <v>15</v>
+      </c>
+      <c r="BA40">
+        <v>2</v>
+      </c>
+      <c r="BB40">
+        <v>6</v>
+      </c>
+      <c r="BC40">
+        <v>8</v>
+      </c>
+      <c r="BD40">
+        <v>2</v>
+      </c>
+      <c r="BE40">
+        <v>8</v>
+      </c>
+      <c r="BF40">
+        <v>2</v>
+      </c>
+      <c r="BG40">
+        <v>1.22</v>
+      </c>
+      <c r="BH40">
+        <v>3.65</v>
+      </c>
+      <c r="BI40">
+        <v>1.5</v>
+      </c>
+      <c r="BJ40">
+        <v>2.4</v>
+      </c>
+      <c r="BK40">
+        <v>1.9</v>
+      </c>
+      <c r="BL40">
+        <v>1.9</v>
+      </c>
+      <c r="BM40">
+        <v>2.4</v>
+      </c>
+      <c r="BN40">
+        <v>1.5</v>
+      </c>
+      <c r="BO40">
+        <v>3.2</v>
+      </c>
+      <c r="BP40">
         <v>1.3</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2024)/Chile Primera División_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Chile Primera División_2024.xlsx
@@ -247,18 +247,18 @@
     <t>Coquimbo Unido</t>
   </si>
   <si>
+    <t>Universidad Chile</t>
+  </si>
+  <si>
     <t>Palestino</t>
   </si>
   <si>
-    <t>Universidad Chile</t>
+    <t>Deportes Iquique</t>
   </si>
   <si>
     <t>Huachipato</t>
   </si>
   <si>
-    <t>Deportes Iquique</t>
-  </si>
-  <si>
     <t>O'Higgins</t>
   </si>
   <si>
@@ -289,12 +289,12 @@
     <t>['38', '71', '90+6']</t>
   </si>
   <si>
+    <t>['69']</t>
+  </si>
+  <si>
     <t>['19', '23', '28', '48', '59']</t>
   </si>
   <si>
-    <t>['69']</t>
-  </si>
-  <si>
     <t>['45+1']</t>
   </si>
   <si>
@@ -310,12 +310,12 @@
     <t>['45+5', '59']</t>
   </si>
   <si>
+    <t>['90+3']</t>
+  </si>
+  <si>
     <t>['29']</t>
   </si>
   <si>
-    <t>['90+3']</t>
-  </si>
-  <si>
     <t>['47', '81']</t>
   </si>
   <si>
@@ -370,10 +370,10 @@
     <t>['13']</t>
   </si>
   <si>
+    <t>['26']</t>
+  </si>
+  <si>
     <t>['84']</t>
-  </si>
-  <si>
-    <t>['26']</t>
   </si>
   <si>
     <t>['38', '54']</t>
@@ -1624,7 +1624,7 @@
         <v>73</v>
       </c>
       <c r="H5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -1830,7 +1830,7 @@
         <v>74</v>
       </c>
       <c r="H6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -2430,7 +2430,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>7321622</v>
+        <v>7321626</v>
       </c>
       <c r="C9" t="s">
         <v>68</v>
@@ -2448,25 +2448,25 @@
         <v>77</v>
       </c>
       <c r="H9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O9" t="s">
         <v>91</v>
@@ -2475,73 +2475,73 @@
         <v>86</v>
       </c>
       <c r="Q9">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="R9">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S9">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="T9">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="U9">
-        <v>2.95</v>
+        <v>2.86</v>
       </c>
       <c r="V9">
-        <v>2.74</v>
+        <v>2.82</v>
       </c>
       <c r="W9">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="X9">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="Y9">
         <v>1.08</v>
       </c>
       <c r="Z9">
-        <v>1.73</v>
+        <v>1.92</v>
       </c>
       <c r="AA9">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="AB9">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="AC9">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="AD9">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AE9">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="AF9">
-        <v>3.42</v>
+        <v>3.28</v>
       </c>
       <c r="AG9">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="AH9">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="AI9">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="AJ9">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="AK9">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="AL9">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="AM9">
-        <v>2.18</v>
+        <v>2.02</v>
       </c>
       <c r="AN9">
         <v>0</v>
@@ -2550,10 +2550,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.33</v>
+        <v>3</v>
       </c>
       <c r="AQ9">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2565,40 +2565,40 @@
         <v>0</v>
       </c>
       <c r="AU9">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AV9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AW9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX9">
+        <v>5</v>
+      </c>
+      <c r="AY9">
         <v>6</v>
       </c>
-      <c r="AY9">
-        <v>11</v>
-      </c>
       <c r="AZ9">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BB9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BC9">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BD9">
-        <v>1.59</v>
+        <v>1.41</v>
       </c>
       <c r="BE9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BF9">
-        <v>2.8</v>
+        <v>3.58</v>
       </c>
       <c r="BG9">
         <v>1.27</v>
@@ -2607,10 +2607,10 @@
         <v>3.55</v>
       </c>
       <c r="BI9">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="BJ9">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="BK9">
         <v>1.85</v>
@@ -2636,7 +2636,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>7321626</v>
+        <v>7321622</v>
       </c>
       <c r="C10" t="s">
         <v>68</v>
@@ -2654,25 +2654,25 @@
         <v>78</v>
       </c>
       <c r="H10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O10" t="s">
         <v>92</v>
@@ -2681,73 +2681,73 @@
         <v>86</v>
       </c>
       <c r="Q10">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="R10">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S10">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="T10">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="U10">
-        <v>2.86</v>
+        <v>2.95</v>
       </c>
       <c r="V10">
-        <v>2.82</v>
+        <v>2.74</v>
       </c>
       <c r="W10">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="X10">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="Y10">
         <v>1.08</v>
       </c>
       <c r="Z10">
-        <v>1.92</v>
+        <v>1.73</v>
       </c>
       <c r="AA10">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="AB10">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="AC10">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="AD10">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AE10">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AF10">
-        <v>3.28</v>
+        <v>3.42</v>
       </c>
       <c r="AG10">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="AH10">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="AI10">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="AJ10">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="AK10">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="AL10">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="AM10">
-        <v>2.02</v>
+        <v>2.18</v>
       </c>
       <c r="AN10">
         <v>0</v>
@@ -2756,10 +2756,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>3</v>
+        <v>1.33</v>
       </c>
       <c r="AQ10">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -2771,40 +2771,40 @@
         <v>0</v>
       </c>
       <c r="AU10">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AV10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AW10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX10">
+        <v>6</v>
+      </c>
+      <c r="AY10">
+        <v>11</v>
+      </c>
+      <c r="AZ10">
+        <v>6</v>
+      </c>
+      <c r="BA10">
+        <v>1</v>
+      </c>
+      <c r="BB10">
         <v>5</v>
       </c>
-      <c r="AY10">
+      <c r="BC10">
         <v>6</v>
       </c>
-      <c r="AZ10">
-        <v>7</v>
-      </c>
-      <c r="BA10">
-        <v>4</v>
-      </c>
-      <c r="BB10">
-        <v>3</v>
-      </c>
-      <c r="BC10">
-        <v>7</v>
-      </c>
       <c r="BD10">
-        <v>1.41</v>
+        <v>1.59</v>
       </c>
       <c r="BE10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BF10">
-        <v>3.58</v>
+        <v>2.8</v>
       </c>
       <c r="BG10">
         <v>1.27</v>
@@ -2813,10 +2813,10 @@
         <v>3.55</v>
       </c>
       <c r="BI10">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="BJ10">
-        <v>2.5</v>
+        <v>2.47</v>
       </c>
       <c r="BK10">
         <v>1.85</v>
@@ -2842,7 +2842,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>7321624</v>
+        <v>7321625</v>
       </c>
       <c r="C11" t="s">
         <v>68</v>
@@ -2860,46 +2860,46 @@
         <v>79</v>
       </c>
       <c r="H11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11">
         <v>1</v>
       </c>
       <c r="N11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O11" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="P11" t="s">
         <v>118</v>
       </c>
       <c r="Q11">
-        <v>2.5</v>
+        <v>3.6</v>
       </c>
       <c r="R11">
         <v>2.2</v>
       </c>
       <c r="S11">
-        <v>4.33</v>
+        <v>3</v>
       </c>
       <c r="T11">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="U11">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V11">
         <v>2.75</v>
@@ -2908,19 +2908,19 @@
         <v>1.4</v>
       </c>
       <c r="X11">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Y11">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="Z11">
-        <v>1.9</v>
+        <v>3.05</v>
       </c>
       <c r="AA11">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="AB11">
-        <v>3.9</v>
+        <v>2.25</v>
       </c>
       <c r="AC11">
         <v>1.05</v>
@@ -2932,13 +2932,13 @@
         <v>1.3</v>
       </c>
       <c r="AF11">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AG11">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="AH11">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="AI11">
         <v>1.73</v>
@@ -2947,13 +2947,13 @@
         <v>2</v>
       </c>
       <c r="AK11">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AL11">
         <v>1.25</v>
       </c>
       <c r="AM11">
-        <v>1.9</v>
+        <v>1.42</v>
       </c>
       <c r="AN11">
         <v>0</v>
@@ -2962,10 +2962,10 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.5</v>
+        <v>2.33</v>
       </c>
       <c r="AQ11">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -2977,70 +2977,70 @@
         <v>0</v>
       </c>
       <c r="AU11">
+        <v>5</v>
+      </c>
+      <c r="AV11">
         <v>4</v>
       </c>
-      <c r="AV11">
-        <v>2</v>
-      </c>
       <c r="AW11">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AX11">
         <v>2</v>
       </c>
       <c r="AY11">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AZ11">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BA11">
         <v>7</v>
       </c>
       <c r="BB11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BC11">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD11">
-        <v>1.41</v>
+        <v>2.1</v>
       </c>
       <c r="BE11">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BF11">
-        <v>3.58</v>
+        <v>1.91</v>
       </c>
       <c r="BG11">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="BH11">
-        <v>4.25</v>
+        <v>3.7</v>
       </c>
       <c r="BI11">
-        <v>1.37</v>
+        <v>1.48</v>
       </c>
       <c r="BJ11">
-        <v>2.85</v>
+        <v>2.47</v>
       </c>
       <c r="BK11">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="BL11">
-        <v>2.07</v>
+        <v>1.9</v>
       </c>
       <c r="BM11">
-        <v>2.1</v>
+        <v>2.33</v>
       </c>
       <c r="BN11">
-        <v>1.65</v>
+        <v>1.53</v>
       </c>
       <c r="BO11">
-        <v>2.77</v>
+        <v>3.1</v>
       </c>
       <c r="BP11">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="12" spans="1:68">
@@ -3048,7 +3048,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>7321625</v>
+        <v>7321624</v>
       </c>
       <c r="C12" t="s">
         <v>68</v>
@@ -3066,46 +3066,46 @@
         <v>80</v>
       </c>
       <c r="H12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>1</v>
       </c>
       <c r="N12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O12" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="P12" t="s">
         <v>119</v>
       </c>
       <c r="Q12">
-        <v>3.6</v>
+        <v>2.5</v>
       </c>
       <c r="R12">
         <v>2.2</v>
       </c>
       <c r="S12">
-        <v>3</v>
+        <v>4.33</v>
       </c>
       <c r="T12">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="U12">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V12">
         <v>2.75</v>
@@ -3114,19 +3114,19 @@
         <v>1.4</v>
       </c>
       <c r="X12">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Y12">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="Z12">
-        <v>3.05</v>
+        <v>1.9</v>
       </c>
       <c r="AA12">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="AB12">
-        <v>2.25</v>
+        <v>3.9</v>
       </c>
       <c r="AC12">
         <v>1.05</v>
@@ -3138,13 +3138,13 @@
         <v>1.3</v>
       </c>
       <c r="AF12">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AG12">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="AH12">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="AI12">
         <v>1.73</v>
@@ -3153,13 +3153,13 @@
         <v>2</v>
       </c>
       <c r="AK12">
-        <v>1.6</v>
+        <v>1.25</v>
       </c>
       <c r="AL12">
         <v>1.25</v>
       </c>
       <c r="AM12">
-        <v>1.42</v>
+        <v>1.9</v>
       </c>
       <c r="AN12">
         <v>0</v>
@@ -3168,10 +3168,10 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>2.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ12">
-        <v>1.33</v>
+        <v>2</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3183,70 +3183,70 @@
         <v>0</v>
       </c>
       <c r="AU12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV12">
+        <v>2</v>
+      </c>
+      <c r="AW12">
+        <v>9</v>
+      </c>
+      <c r="AX12">
+        <v>2</v>
+      </c>
+      <c r="AY12">
+        <v>13</v>
+      </c>
+      <c r="AZ12">
         <v>4</v>
-      </c>
-      <c r="AW12">
-        <v>6</v>
-      </c>
-      <c r="AX12">
-        <v>2</v>
-      </c>
-      <c r="AY12">
-        <v>11</v>
-      </c>
-      <c r="AZ12">
-        <v>6</v>
       </c>
       <c r="BA12">
         <v>7</v>
       </c>
       <c r="BB12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BC12">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BD12">
+        <v>1.41</v>
+      </c>
+      <c r="BE12">
+        <v>9</v>
+      </c>
+      <c r="BF12">
+        <v>3.58</v>
+      </c>
+      <c r="BG12">
+        <v>1.2</v>
+      </c>
+      <c r="BH12">
+        <v>4.25</v>
+      </c>
+      <c r="BI12">
+        <v>1.37</v>
+      </c>
+      <c r="BJ12">
+        <v>2.85</v>
+      </c>
+      <c r="BK12">
+        <v>1.67</v>
+      </c>
+      <c r="BL12">
+        <v>2.07</v>
+      </c>
+      <c r="BM12">
         <v>2.1</v>
       </c>
-      <c r="BE12">
-        <v>8</v>
-      </c>
-      <c r="BF12">
-        <v>1.91</v>
-      </c>
-      <c r="BG12">
-        <v>1.25</v>
-      </c>
-      <c r="BH12">
-        <v>3.7</v>
-      </c>
-      <c r="BI12">
-        <v>1.48</v>
-      </c>
-      <c r="BJ12">
-        <v>2.47</v>
-      </c>
-      <c r="BK12">
-        <v>1.8</v>
-      </c>
-      <c r="BL12">
-        <v>1.9</v>
-      </c>
-      <c r="BM12">
-        <v>2.33</v>
-      </c>
       <c r="BN12">
-        <v>1.53</v>
+        <v>1.65</v>
       </c>
       <c r="BO12">
-        <v>3.1</v>
+        <v>2.77</v>
       </c>
       <c r="BP12">
-        <v>1.32</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="13" spans="1:68">
@@ -3872,7 +3872,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>7321630</v>
+        <v>7321755</v>
       </c>
       <c r="C16" t="s">
         <v>68</v>
@@ -3887,190 +3887,190 @@
         <v>3</v>
       </c>
       <c r="G16" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="H16" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16">
         <v>1</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O16" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="P16" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="Q16">
-        <v>2.54</v>
+        <v>3.75</v>
       </c>
       <c r="R16">
+        <v>2</v>
+      </c>
+      <c r="S16">
+        <v>3.1</v>
+      </c>
+      <c r="T16">
+        <v>1.44</v>
+      </c>
+      <c r="U16">
+        <v>2.6</v>
+      </c>
+      <c r="V16">
+        <v>3.2</v>
+      </c>
+      <c r="W16">
+        <v>1.31</v>
+      </c>
+      <c r="X16">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="Y16">
+        <v>1.04</v>
+      </c>
+      <c r="Z16">
+        <v>3</v>
+      </c>
+      <c r="AA16">
+        <v>3.2</v>
+      </c>
+      <c r="AB16">
         <v>2.2</v>
       </c>
-      <c r="S16">
-        <v>3.9</v>
-      </c>
-      <c r="T16">
-        <v>1.35</v>
-      </c>
-      <c r="U16">
-        <v>3.04</v>
-      </c>
-      <c r="V16">
-        <v>2.6</v>
-      </c>
-      <c r="W16">
-        <v>1.46</v>
-      </c>
-      <c r="X16">
-        <v>6.35</v>
-      </c>
-      <c r="Y16">
-        <v>1.1</v>
-      </c>
-      <c r="Z16">
-        <v>1.91</v>
-      </c>
-      <c r="AA16">
-        <v>3.6</v>
-      </c>
-      <c r="AB16">
-        <v>3.15</v>
-      </c>
       <c r="AC16">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="AD16">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AE16">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AF16">
-        <v>3.65</v>
+        <v>2.95</v>
       </c>
       <c r="AG16">
-        <v>1.75</v>
+        <v>2.09</v>
       </c>
       <c r="AH16">
-        <v>1.95</v>
+        <v>1.63</v>
       </c>
       <c r="AI16">
-        <v>1.65</v>
+        <v>1.9</v>
       </c>
       <c r="AJ16">
-        <v>2.11</v>
+        <v>1.85</v>
       </c>
       <c r="AK16">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="AL16">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="AM16">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AN16">
         <v>3</v>
       </c>
       <c r="AO16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP16">
+        <v>2</v>
+      </c>
+      <c r="AQ16">
         <v>1.33</v>
       </c>
-      <c r="AQ16">
-        <v>2</v>
-      </c>
       <c r="AR16">
-        <v>1.44</v>
+        <v>1.64</v>
       </c>
       <c r="AS16">
-        <v>0</v>
+        <v>0.84</v>
       </c>
       <c r="AT16">
-        <v>1.44</v>
+        <v>2.48</v>
       </c>
       <c r="AU16">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AV16">
         <v>4</v>
       </c>
       <c r="AW16">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AX16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AY16">
+        <v>11</v>
+      </c>
+      <c r="AZ16">
+        <v>7</v>
+      </c>
+      <c r="BA16">
+        <v>4</v>
+      </c>
+      <c r="BB16">
+        <v>9</v>
+      </c>
+      <c r="BC16">
         <v>13</v>
       </c>
-      <c r="AZ16">
-        <v>5</v>
-      </c>
-      <c r="BA16">
-        <v>6</v>
-      </c>
-      <c r="BB16">
-        <v>5</v>
-      </c>
-      <c r="BC16">
-        <v>11</v>
-      </c>
       <c r="BD16">
-        <v>1.59</v>
+        <v>2</v>
       </c>
       <c r="BE16">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="BF16">
-        <v>2.78</v>
+        <v>2.05</v>
       </c>
       <c r="BG16">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="BH16">
-        <v>4.25</v>
+        <v>4</v>
       </c>
       <c r="BI16">
-        <v>1.37</v>
+        <v>1.42</v>
       </c>
       <c r="BJ16">
-        <v>2.85</v>
+        <v>2.75</v>
       </c>
       <c r="BK16">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="BL16">
-        <v>2.07</v>
+        <v>2.02</v>
       </c>
       <c r="BM16">
-        <v>2.1</v>
+        <v>2.23</v>
       </c>
       <c r="BN16">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="BO16">
-        <v>2.77</v>
+        <v>3</v>
       </c>
       <c r="BP16">
-        <v>1.39</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="17" spans="1:68">
@@ -4078,7 +4078,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>7321755</v>
+        <v>7321630</v>
       </c>
       <c r="C17" t="s">
         <v>68</v>
@@ -4093,190 +4093,190 @@
         <v>3</v>
       </c>
       <c r="G17" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H17" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>1</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O17" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="P17" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="Q17">
-        <v>3.75</v>
+        <v>2.54</v>
       </c>
       <c r="R17">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="S17">
-        <v>3.1</v>
+        <v>3.9</v>
       </c>
       <c r="T17">
+        <v>1.35</v>
+      </c>
+      <c r="U17">
+        <v>3.04</v>
+      </c>
+      <c r="V17">
+        <v>2.6</v>
+      </c>
+      <c r="W17">
+        <v>1.46</v>
+      </c>
+      <c r="X17">
+        <v>6.35</v>
+      </c>
+      <c r="Y17">
+        <v>1.1</v>
+      </c>
+      <c r="Z17">
+        <v>1.91</v>
+      </c>
+      <c r="AA17">
+        <v>3.6</v>
+      </c>
+      <c r="AB17">
+        <v>3.15</v>
+      </c>
+      <c r="AC17">
+        <v>1.01</v>
+      </c>
+      <c r="AD17">
+        <v>10</v>
+      </c>
+      <c r="AE17">
+        <v>1.22</v>
+      </c>
+      <c r="AF17">
+        <v>3.65</v>
+      </c>
+      <c r="AG17">
+        <v>1.75</v>
+      </c>
+      <c r="AH17">
+        <v>1.95</v>
+      </c>
+      <c r="AI17">
+        <v>1.65</v>
+      </c>
+      <c r="AJ17">
+        <v>2.11</v>
+      </c>
+      <c r="AK17">
+        <v>1.3</v>
+      </c>
+      <c r="AL17">
+        <v>1.27</v>
+      </c>
+      <c r="AM17">
+        <v>1.75</v>
+      </c>
+      <c r="AN17">
+        <v>3</v>
+      </c>
+      <c r="AO17">
+        <v>0</v>
+      </c>
+      <c r="AP17">
+        <v>1.33</v>
+      </c>
+      <c r="AQ17">
+        <v>2</v>
+      </c>
+      <c r="AR17">
         <v>1.44</v>
       </c>
-      <c r="U17">
-        <v>2.6</v>
-      </c>
-      <c r="V17">
-        <v>3.2</v>
-      </c>
-      <c r="W17">
-        <v>1.31</v>
-      </c>
-      <c r="X17">
-        <v>8.449999999999999</v>
-      </c>
-      <c r="Y17">
-        <v>1.04</v>
-      </c>
-      <c r="Z17">
-        <v>3</v>
-      </c>
-      <c r="AA17">
-        <v>3.2</v>
-      </c>
-      <c r="AB17">
-        <v>2.2</v>
-      </c>
-      <c r="AC17">
-        <v>1.07</v>
-      </c>
-      <c r="AD17">
-        <v>9</v>
-      </c>
-      <c r="AE17">
-        <v>1.4</v>
-      </c>
-      <c r="AF17">
-        <v>2.95</v>
-      </c>
-      <c r="AG17">
-        <v>2.09</v>
-      </c>
-      <c r="AH17">
-        <v>1.63</v>
-      </c>
-      <c r="AI17">
-        <v>1.9</v>
-      </c>
-      <c r="AJ17">
-        <v>1.85</v>
-      </c>
-      <c r="AK17">
-        <v>1.4</v>
-      </c>
-      <c r="AL17">
-        <v>1.28</v>
-      </c>
-      <c r="AM17">
-        <v>1.6</v>
-      </c>
-      <c r="AN17">
-        <v>3</v>
-      </c>
-      <c r="AO17">
-        <v>1</v>
-      </c>
-      <c r="AP17">
-        <v>2</v>
-      </c>
-      <c r="AQ17">
-        <v>1.33</v>
-      </c>
-      <c r="AR17">
-        <v>1.64</v>
-      </c>
       <c r="AS17">
-        <v>0.84</v>
+        <v>0</v>
       </c>
       <c r="AT17">
-        <v>2.48</v>
+        <v>1.44</v>
       </c>
       <c r="AU17">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AV17">
         <v>4</v>
       </c>
       <c r="AW17">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AX17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AY17">
+        <v>13</v>
+      </c>
+      <c r="AZ17">
+        <v>5</v>
+      </c>
+      <c r="BA17">
+        <v>6</v>
+      </c>
+      <c r="BB17">
+        <v>5</v>
+      </c>
+      <c r="BC17">
         <v>11</v>
       </c>
-      <c r="AZ17">
-        <v>7</v>
-      </c>
-      <c r="BA17">
-        <v>4</v>
-      </c>
-      <c r="BB17">
-        <v>9</v>
-      </c>
-      <c r="BC17">
-        <v>13</v>
-      </c>
       <c r="BD17">
-        <v>2</v>
+        <v>1.59</v>
       </c>
       <c r="BE17">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="BF17">
-        <v>2.05</v>
+        <v>2.78</v>
       </c>
       <c r="BG17">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="BH17">
-        <v>4</v>
+        <v>4.25</v>
       </c>
       <c r="BI17">
-        <v>1.42</v>
+        <v>1.37</v>
       </c>
       <c r="BJ17">
-        <v>2.75</v>
+        <v>2.85</v>
       </c>
       <c r="BK17">
-        <v>1.74</v>
+        <v>1.67</v>
       </c>
       <c r="BL17">
-        <v>2.02</v>
+        <v>2.07</v>
       </c>
       <c r="BM17">
-        <v>2.23</v>
+        <v>2.1</v>
       </c>
       <c r="BN17">
-        <v>1.61</v>
+        <v>1.65</v>
       </c>
       <c r="BO17">
-        <v>3</v>
+        <v>2.77</v>
       </c>
       <c r="BP17">
-        <v>1.35</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="18" spans="1:68">
@@ -4284,7 +4284,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>7321633</v>
+        <v>7321634</v>
       </c>
       <c r="C18" t="s">
         <v>68</v>
@@ -4299,16 +4299,16 @@
         <v>3</v>
       </c>
       <c r="G18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -4317,115 +4317,115 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O18" t="s">
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>86</v>
+        <v>123</v>
       </c>
       <c r="Q18">
-        <v>2.45</v>
+        <v>2.6</v>
       </c>
       <c r="R18">
-        <v>2.21</v>
+        <v>2.05</v>
       </c>
       <c r="S18">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="T18">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="U18">
-        <v>3.04</v>
+        <v>2.65</v>
       </c>
       <c r="V18">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="W18">
-        <v>1.46</v>
+        <v>1.34</v>
       </c>
       <c r="X18">
-        <v>6.35</v>
+        <v>8.1</v>
       </c>
       <c r="Y18">
-        <v>1.1</v>
+        <v>1.06</v>
       </c>
       <c r="Z18">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AA18">
-        <v>3.35</v>
+        <v>3.1</v>
       </c>
       <c r="AB18">
-        <v>3.1</v>
+        <v>3.45</v>
       </c>
       <c r="AC18">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AD18">
-        <v>10</v>
+        <v>7.9</v>
       </c>
       <c r="AE18">
-        <v>1.22</v>
+        <v>1.33</v>
       </c>
       <c r="AF18">
-        <v>3.65</v>
+        <v>2.91</v>
       </c>
       <c r="AG18">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="AH18">
-        <v>1.95</v>
+        <v>1.65</v>
       </c>
       <c r="AI18">
-        <v>1.67</v>
+        <v>1.88</v>
       </c>
       <c r="AJ18">
-        <v>2.08</v>
+        <v>1.82</v>
       </c>
       <c r="AK18">
         <v>1.27</v>
       </c>
       <c r="AL18">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="AM18">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AN18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP18">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AQ18">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AR18">
-        <v>0.64</v>
+        <v>1.33</v>
       </c>
       <c r="AS18">
-        <v>1.26</v>
+        <v>0.91</v>
       </c>
       <c r="AT18">
-        <v>1.9</v>
+        <v>2.24</v>
       </c>
       <c r="AU18">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV18">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AW18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AX18">
         <v>7</v>
@@ -4434,55 +4434,55 @@
         <v>10</v>
       </c>
       <c r="AZ18">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="BA18">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="BB18">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="BC18">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BD18">
-        <v>1.64</v>
+        <v>1.69</v>
       </c>
       <c r="BE18">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="BF18">
-        <v>2.66</v>
+        <v>2.65</v>
       </c>
       <c r="BG18">
-        <v>1.18</v>
+        <v>1.32</v>
       </c>
       <c r="BH18">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="BI18">
-        <v>1.32</v>
+        <v>1.61</v>
       </c>
       <c r="BJ18">
-        <v>3.1</v>
+        <v>2.17</v>
       </c>
       <c r="BK18">
-        <v>1.56</v>
+        <v>2.07</v>
       </c>
       <c r="BL18">
-        <v>2.27</v>
+        <v>1.67</v>
       </c>
       <c r="BM18">
-        <v>1.99</v>
+        <v>2.77</v>
       </c>
       <c r="BN18">
-        <v>1.73</v>
+        <v>1.39</v>
       </c>
       <c r="BO18">
-        <v>2.6</v>
+        <v>4.1</v>
       </c>
       <c r="BP18">
-        <v>1.44</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="19" spans="1:68">
@@ -4490,7 +4490,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>7321634</v>
+        <v>7321633</v>
       </c>
       <c r="C19" t="s">
         <v>68</v>
@@ -4505,16 +4505,16 @@
         <v>3</v>
       </c>
       <c r="G19" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H19" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -4523,115 +4523,115 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O19" t="s">
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>123</v>
+        <v>86</v>
       </c>
       <c r="Q19">
+        <v>2.45</v>
+      </c>
+      <c r="R19">
+        <v>2.21</v>
+      </c>
+      <c r="S19">
+        <v>4.1</v>
+      </c>
+      <c r="T19">
+        <v>1.35</v>
+      </c>
+      <c r="U19">
+        <v>3.04</v>
+      </c>
+      <c r="V19">
         <v>2.6</v>
       </c>
-      <c r="R19">
-        <v>2.05</v>
-      </c>
-      <c r="S19">
-        <v>4.3</v>
-      </c>
-      <c r="T19">
-        <v>1.44</v>
-      </c>
-      <c r="U19">
-        <v>2.65</v>
-      </c>
-      <c r="V19">
+      <c r="W19">
+        <v>1.46</v>
+      </c>
+      <c r="X19">
+        <v>6.35</v>
+      </c>
+      <c r="Y19">
+        <v>1.1</v>
+      </c>
+      <c r="Z19">
+        <v>2</v>
+      </c>
+      <c r="AA19">
+        <v>3.35</v>
+      </c>
+      <c r="AB19">
         <v>3.1</v>
       </c>
-      <c r="W19">
-        <v>1.34</v>
-      </c>
-      <c r="X19">
-        <v>8.1</v>
-      </c>
-      <c r="Y19">
-        <v>1.06</v>
-      </c>
-      <c r="Z19">
+      <c r="AC19">
+        <v>1.01</v>
+      </c>
+      <c r="AD19">
+        <v>10</v>
+      </c>
+      <c r="AE19">
+        <v>1.22</v>
+      </c>
+      <c r="AF19">
+        <v>3.65</v>
+      </c>
+      <c r="AG19">
+        <v>1.75</v>
+      </c>
+      <c r="AH19">
         <v>1.95</v>
       </c>
-      <c r="AA19">
-        <v>3.1</v>
-      </c>
-      <c r="AB19">
-        <v>3.45</v>
-      </c>
-      <c r="AC19">
-        <v>1.03</v>
-      </c>
-      <c r="AD19">
-        <v>7.9</v>
-      </c>
-      <c r="AE19">
-        <v>1.33</v>
-      </c>
-      <c r="AF19">
-        <v>2.91</v>
-      </c>
-      <c r="AG19">
-        <v>2.1</v>
-      </c>
-      <c r="AH19">
-        <v>1.65</v>
-      </c>
       <c r="AI19">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AJ19">
-        <v>1.82</v>
+        <v>2.08</v>
       </c>
       <c r="AK19">
         <v>1.27</v>
       </c>
       <c r="AL19">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AM19">
-        <v>1.76</v>
+        <v>1.81</v>
       </c>
       <c r="AN19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP19">
-        <v>1.33</v>
+        <v>2</v>
       </c>
       <c r="AQ19">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="AR19">
-        <v>1.33</v>
+        <v>0.64</v>
       </c>
       <c r="AS19">
-        <v>0.91</v>
+        <v>1.26</v>
       </c>
       <c r="AT19">
-        <v>2.24</v>
+        <v>1.9</v>
       </c>
       <c r="AU19">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AV19">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AW19">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX19">
         <v>7</v>
@@ -4640,55 +4640,55 @@
         <v>10</v>
       </c>
       <c r="AZ19">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="BA19">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="BB19">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="BC19">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BD19">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="BE19">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="BF19">
-        <v>2.65</v>
+        <v>2.66</v>
       </c>
       <c r="BG19">
+        <v>1.18</v>
+      </c>
+      <c r="BH19">
+        <v>4.5</v>
+      </c>
+      <c r="BI19">
         <v>1.32</v>
       </c>
-      <c r="BH19">
+      <c r="BJ19">
         <v>3.1</v>
       </c>
-      <c r="BI19">
-        <v>1.61</v>
-      </c>
-      <c r="BJ19">
-        <v>2.17</v>
-      </c>
       <c r="BK19">
-        <v>2.07</v>
+        <v>1.56</v>
       </c>
       <c r="BL19">
-        <v>1.67</v>
+        <v>2.27</v>
       </c>
       <c r="BM19">
-        <v>2.77</v>
+        <v>1.99</v>
       </c>
       <c r="BN19">
-        <v>1.39</v>
+        <v>1.73</v>
       </c>
       <c r="BO19">
-        <v>4.1</v>
+        <v>2.6</v>
       </c>
       <c r="BP19">
-        <v>1.22</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="20" spans="1:68">
@@ -4714,7 +4714,7 @@
         <v>83</v>
       </c>
       <c r="H20" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -4920,7 +4920,7 @@
         <v>84</v>
       </c>
       <c r="H21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -5126,7 +5126,7 @@
         <v>72</v>
       </c>
       <c r="H22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I22">
         <v>1</v>
@@ -5332,7 +5332,7 @@
         <v>82</v>
       </c>
       <c r="H23" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -5744,7 +5744,7 @@
         <v>81</v>
       </c>
       <c r="H25" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -5768,7 +5768,7 @@
         <v>86</v>
       </c>
       <c r="P25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Q25">
         <v>2.78</v>
@@ -5947,7 +5947,7 @@
         <v>4</v>
       </c>
       <c r="G26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H26" t="s">
         <v>76</v>
@@ -6156,7 +6156,7 @@
         <v>83</v>
       </c>
       <c r="H27" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -6977,7 +6977,7 @@
         <v>5</v>
       </c>
       <c r="G31" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H31" t="s">
         <v>82</v>
@@ -7389,7 +7389,7 @@
         <v>5</v>
       </c>
       <c r="G33" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H33" t="s">
         <v>81</v>
@@ -7786,7 +7786,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>7321646</v>
+        <v>7321645</v>
       </c>
       <c r="C35" t="s">
         <v>68</v>
@@ -7801,190 +7801,190 @@
         <v>5</v>
       </c>
       <c r="G35" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H35" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="I35">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K35">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L35">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N35">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O35" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="P35" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="Q35">
-        <v>2.05</v>
+        <v>4.1</v>
       </c>
       <c r="R35">
-        <v>2.35</v>
+        <v>2.26</v>
       </c>
       <c r="S35">
-        <v>5.2</v>
+        <v>2.39</v>
       </c>
       <c r="T35">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="U35">
-        <v>3.28</v>
+        <v>3.22</v>
       </c>
       <c r="V35">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="W35">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="X35">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="Y35">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="Z35">
-        <v>1.57</v>
+        <v>3.75</v>
       </c>
       <c r="AA35">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AB35">
-        <v>5.5</v>
+        <v>1.91</v>
       </c>
       <c r="AC35">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="AD35">
-        <v>15</v>
+        <v>10.5</v>
       </c>
       <c r="AE35">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="AF35">
-        <v>4.05</v>
+        <v>3.95</v>
       </c>
       <c r="AG35">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="AH35">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AI35">
-        <v>1.73</v>
+        <v>1.61</v>
       </c>
       <c r="AJ35">
-        <v>1.99</v>
+        <v>2.17</v>
       </c>
       <c r="AK35">
-        <v>1.13</v>
+        <v>1.86</v>
       </c>
       <c r="AL35">
-        <v>1.21</v>
+        <v>1.26</v>
       </c>
       <c r="AM35">
-        <v>2.38</v>
+        <v>1.26</v>
       </c>
       <c r="AN35">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO35">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AP35">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AQ35">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AR35">
-        <v>1.68</v>
+        <v>2.24</v>
       </c>
       <c r="AS35">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AT35">
-        <v>2.43</v>
+        <v>3.44</v>
       </c>
       <c r="AU35">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AV35">
+        <v>3</v>
+      </c>
+      <c r="AW35">
+        <v>3</v>
+      </c>
+      <c r="AX35">
+        <v>2</v>
+      </c>
+      <c r="AY35">
         <v>5</v>
       </c>
-      <c r="AW35">
+      <c r="AZ35">
         <v>5</v>
       </c>
-      <c r="AX35">
+      <c r="BA35">
         <v>5</v>
       </c>
-      <c r="AY35">
-        <v>12</v>
-      </c>
-      <c r="AZ35">
-        <v>10</v>
-      </c>
-      <c r="BA35">
-        <v>6</v>
-      </c>
       <c r="BB35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BC35">
         <v>8</v>
       </c>
       <c r="BD35">
-        <v>1.31</v>
+        <v>2.1</v>
       </c>
       <c r="BE35">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="BF35">
-        <v>4.13</v>
+        <v>1.91</v>
       </c>
       <c r="BG35">
-        <v>1.21</v>
+        <v>1.25</v>
       </c>
       <c r="BH35">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="BI35">
-        <v>1.4</v>
+        <v>1.48</v>
       </c>
       <c r="BJ35">
-        <v>2.6</v>
+        <v>2.38</v>
       </c>
       <c r="BK35">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="BL35">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="BM35">
-        <v>2.15</v>
+        <v>2.35</v>
       </c>
       <c r="BN35">
-        <v>1.58</v>
+        <v>1.49</v>
       </c>
       <c r="BO35">
-        <v>2.85</v>
+        <v>3.15</v>
       </c>
       <c r="BP35">
-        <v>1.34</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="36" spans="1:68">
@@ -7992,7 +7992,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>7321645</v>
+        <v>7321646</v>
       </c>
       <c r="C36" t="s">
         <v>68</v>
@@ -8007,190 +8007,190 @@
         <v>5</v>
       </c>
       <c r="G36" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H36" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K36">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L36">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N36">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O36" t="s">
-        <v>86</v>
+        <v>111</v>
       </c>
       <c r="P36" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="Q36">
-        <v>4.1</v>
+        <v>2.05</v>
       </c>
       <c r="R36">
-        <v>2.26</v>
+        <v>2.35</v>
       </c>
       <c r="S36">
-        <v>2.39</v>
+        <v>5.2</v>
       </c>
       <c r="T36">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="U36">
-        <v>3.22</v>
+        <v>3.28</v>
       </c>
       <c r="V36">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="W36">
+        <v>1.51</v>
+      </c>
+      <c r="X36">
+        <v>5.8</v>
+      </c>
+      <c r="Y36">
+        <v>1.12</v>
+      </c>
+      <c r="Z36">
+        <v>1.57</v>
+      </c>
+      <c r="AA36">
+        <v>4</v>
+      </c>
+      <c r="AB36">
+        <v>5.5</v>
+      </c>
+      <c r="AC36">
+        <v>1.02</v>
+      </c>
+      <c r="AD36">
+        <v>15</v>
+      </c>
+      <c r="AE36">
+        <v>1.18</v>
+      </c>
+      <c r="AF36">
+        <v>4.05</v>
+      </c>
+      <c r="AG36">
+        <v>1.65</v>
+      </c>
+      <c r="AH36">
+        <v>2.1</v>
+      </c>
+      <c r="AI36">
+        <v>1.73</v>
+      </c>
+      <c r="AJ36">
+        <v>1.99</v>
+      </c>
+      <c r="AK36">
+        <v>1.13</v>
+      </c>
+      <c r="AL36">
+        <v>1.21</v>
+      </c>
+      <c r="AM36">
+        <v>2.38</v>
+      </c>
+      <c r="AN36">
+        <v>0</v>
+      </c>
+      <c r="AO36">
+        <v>0</v>
+      </c>
+      <c r="AP36">
         <v>1.5</v>
       </c>
-      <c r="X36">
-        <v>5.9</v>
-      </c>
-      <c r="Y36">
-        <v>1.11</v>
-      </c>
-      <c r="Z36">
-        <v>3.75</v>
-      </c>
-      <c r="AA36">
-        <v>3.75</v>
-      </c>
-      <c r="AB36">
-        <v>1.91</v>
-      </c>
-      <c r="AC36">
-        <v>1.01</v>
-      </c>
-      <c r="AD36">
-        <v>10.5</v>
-      </c>
-      <c r="AE36">
-        <v>1.19</v>
-      </c>
-      <c r="AF36">
-        <v>3.95</v>
-      </c>
-      <c r="AG36">
-        <v>1.7</v>
-      </c>
-      <c r="AH36">
-        <v>2</v>
-      </c>
-      <c r="AI36">
-        <v>1.61</v>
-      </c>
-      <c r="AJ36">
-        <v>2.17</v>
-      </c>
-      <c r="AK36">
-        <v>1.86</v>
-      </c>
-      <c r="AL36">
-        <v>1.26</v>
-      </c>
-      <c r="AM36">
-        <v>1.26</v>
-      </c>
-      <c r="AN36">
-        <v>3</v>
-      </c>
-      <c r="AO36">
-        <v>1.5</v>
-      </c>
-      <c r="AP36">
-        <v>2</v>
-      </c>
       <c r="AQ36">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="AR36">
-        <v>2.24</v>
+        <v>1.68</v>
       </c>
       <c r="AS36">
-        <v>1.2</v>
+        <v>0.75</v>
       </c>
       <c r="AT36">
-        <v>3.44</v>
+        <v>2.43</v>
       </c>
       <c r="AU36">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AV36">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AW36">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AX36">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AY36">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="AZ36">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="BA36">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BB36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BC36">
         <v>8</v>
       </c>
       <c r="BD36">
-        <v>2.1</v>
+        <v>1.31</v>
       </c>
       <c r="BE36">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="BF36">
-        <v>1.91</v>
+        <v>4.13</v>
       </c>
       <c r="BG36">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
       <c r="BH36">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="BI36">
-        <v>1.48</v>
+        <v>1.4</v>
       </c>
       <c r="BJ36">
-        <v>2.38</v>
+        <v>2.6</v>
       </c>
       <c r="BK36">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="BL36">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="BM36">
-        <v>2.35</v>
+        <v>2.15</v>
       </c>
       <c r="BN36">
-        <v>1.49</v>
+        <v>1.58</v>
       </c>
       <c r="BO36">
-        <v>3.15</v>
+        <v>2.85</v>
       </c>
       <c r="BP36">
-        <v>1.28</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="37" spans="1:68">
@@ -8213,7 +8213,7 @@
         <v>5</v>
       </c>
       <c r="G37" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H37" t="s">
         <v>84</v>
@@ -8834,7 +8834,7 @@
         <v>85</v>
       </c>
       <c r="H40" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I40">
         <v>0</v>

--- a/Bases_de_Dados_(2022-2024)/Chile Primera División_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Chile Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="134">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -352,6 +352,9 @@
     <t>['37', '45']</t>
   </si>
   <si>
+    <t>['2', '52']</t>
+  </si>
+  <si>
     <t>['13', '18', '77']</t>
   </si>
   <si>
@@ -410,6 +413,9 @@
   </si>
   <si>
     <t>['16', '59']</t>
+  </si>
+  <si>
+    <t>['7', '58']</t>
   </si>
 </sst>
 </file>
@@ -771,7 +777,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP40"/>
+  <dimension ref="A1:BP41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1236,7 +1242,7 @@
         <v>86</v>
       </c>
       <c r="P3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q3">
         <v>4.75</v>
@@ -1442,7 +1448,7 @@
         <v>87</v>
       </c>
       <c r="P4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q4">
         <v>3.1</v>
@@ -1648,7 +1654,7 @@
         <v>88</v>
       </c>
       <c r="P5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q5">
         <v>3.1</v>
@@ -1854,7 +1860,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q6">
         <v>2.75</v>
@@ -2060,7 +2066,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2266,7 +2272,7 @@
         <v>90</v>
       </c>
       <c r="P8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q8">
         <v>2.6</v>
@@ -2550,7 +2556,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AQ9">
         <v>1</v>
@@ -2884,7 +2890,7 @@
         <v>93</v>
       </c>
       <c r="P11" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q11">
         <v>3.6</v>
@@ -3090,7 +3096,7 @@
         <v>86</v>
       </c>
       <c r="P12" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q12">
         <v>2.5</v>
@@ -3502,7 +3508,7 @@
         <v>95</v>
       </c>
       <c r="P14" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q14">
         <v>2.5</v>
@@ -3708,7 +3714,7 @@
         <v>96</v>
       </c>
       <c r="P15" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -3789,7 +3795,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ15">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AR15">
         <v>1.77</v>
@@ -3914,7 +3920,7 @@
         <v>97</v>
       </c>
       <c r="P16" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q16">
         <v>3.75</v>
@@ -4120,7 +4126,7 @@
         <v>86</v>
       </c>
       <c r="P17" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q17">
         <v>2.54</v>
@@ -4326,7 +4332,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q18">
         <v>2.6</v>
@@ -4944,7 +4950,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q21">
         <v>2.65</v>
@@ -5150,7 +5156,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q22">
         <v>3.75</v>
@@ -5356,7 +5362,7 @@
         <v>103</v>
       </c>
       <c r="P23" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q23">
         <v>2.69</v>
@@ -5974,7 +5980,7 @@
         <v>105</v>
       </c>
       <c r="P26" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -6180,7 +6186,7 @@
         <v>86</v>
       </c>
       <c r="P27" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q27">
         <v>2.28</v>
@@ -6592,7 +6598,7 @@
         <v>107</v>
       </c>
       <c r="P29" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q29">
         <v>2.75</v>
@@ -6798,7 +6804,7 @@
         <v>86</v>
       </c>
       <c r="P30" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q30">
         <v>2.6</v>
@@ -7085,7 +7091,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ31">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AR31">
         <v>1.69</v>
@@ -7210,7 +7216,7 @@
         <v>108</v>
       </c>
       <c r="P32" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q32">
         <v>2.75</v>
@@ -7494,7 +7500,7 @@
         <v>3</v>
       </c>
       <c r="AP33">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AQ33">
         <v>1.5</v>
@@ -9015,6 +9021,212 @@
       </c>
       <c r="BP40">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:68">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>7321616</v>
+      </c>
+      <c r="C41" t="s">
+        <v>68</v>
+      </c>
+      <c r="D41" t="s">
+        <v>69</v>
+      </c>
+      <c r="E41" s="2">
+        <v>45376.79166666666</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41" t="s">
+        <v>77</v>
+      </c>
+      <c r="H41" t="s">
+        <v>82</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
+      <c r="J41">
+        <v>1</v>
+      </c>
+      <c r="K41">
+        <v>2</v>
+      </c>
+      <c r="L41">
+        <v>2</v>
+      </c>
+      <c r="M41">
+        <v>2</v>
+      </c>
+      <c r="N41">
+        <v>4</v>
+      </c>
+      <c r="O41" t="s">
+        <v>112</v>
+      </c>
+      <c r="P41" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q41">
+        <v>2.5</v>
+      </c>
+      <c r="R41">
+        <v>2.2</v>
+      </c>
+      <c r="S41">
+        <v>4.33</v>
+      </c>
+      <c r="T41">
+        <v>1.36</v>
+      </c>
+      <c r="U41">
+        <v>3</v>
+      </c>
+      <c r="V41">
+        <v>2.75</v>
+      </c>
+      <c r="W41">
+        <v>1.4</v>
+      </c>
+      <c r="X41">
+        <v>7</v>
+      </c>
+      <c r="Y41">
+        <v>1.1</v>
+      </c>
+      <c r="Z41">
+        <v>1.78</v>
+      </c>
+      <c r="AA41">
+        <v>3.8</v>
+      </c>
+      <c r="AB41">
+        <v>3.9</v>
+      </c>
+      <c r="AC41">
+        <v>1.03</v>
+      </c>
+      <c r="AD41">
+        <v>11</v>
+      </c>
+      <c r="AE41">
+        <v>1.22</v>
+      </c>
+      <c r="AF41">
+        <v>3.7</v>
+      </c>
+      <c r="AG41">
+        <v>1.78</v>
+      </c>
+      <c r="AH41">
+        <v>1.95</v>
+      </c>
+      <c r="AI41">
+        <v>1.73</v>
+      </c>
+      <c r="AJ41">
+        <v>2</v>
+      </c>
+      <c r="AK41">
+        <v>1.22</v>
+      </c>
+      <c r="AL41">
+        <v>1.27</v>
+      </c>
+      <c r="AM41">
+        <v>1.67</v>
+      </c>
+      <c r="AN41">
+        <v>3</v>
+      </c>
+      <c r="AO41">
+        <v>0</v>
+      </c>
+      <c r="AP41">
+        <v>2.33</v>
+      </c>
+      <c r="AQ41">
+        <v>0.33</v>
+      </c>
+      <c r="AR41">
+        <v>1.14</v>
+      </c>
+      <c r="AS41">
+        <v>1.37</v>
+      </c>
+      <c r="AT41">
+        <v>2.51</v>
+      </c>
+      <c r="AU41">
+        <v>6</v>
+      </c>
+      <c r="AV41">
+        <v>4</v>
+      </c>
+      <c r="AW41">
+        <v>8</v>
+      </c>
+      <c r="AX41">
+        <v>4</v>
+      </c>
+      <c r="AY41">
+        <v>14</v>
+      </c>
+      <c r="AZ41">
+        <v>8</v>
+      </c>
+      <c r="BA41">
+        <v>10</v>
+      </c>
+      <c r="BB41">
+        <v>2</v>
+      </c>
+      <c r="BC41">
+        <v>12</v>
+      </c>
+      <c r="BD41">
+        <v>1.45</v>
+      </c>
+      <c r="BE41">
+        <v>8</v>
+      </c>
+      <c r="BF41">
+        <v>3.35</v>
+      </c>
+      <c r="BG41">
+        <v>1.44</v>
+      </c>
+      <c r="BH41">
+        <v>2.6</v>
+      </c>
+      <c r="BI41">
+        <v>1.85</v>
+      </c>
+      <c r="BJ41">
+        <v>1.85</v>
+      </c>
+      <c r="BK41">
+        <v>2.4</v>
+      </c>
+      <c r="BL41">
+        <v>1.5</v>
+      </c>
+      <c r="BM41">
+        <v>3.5</v>
+      </c>
+      <c r="BN41">
+        <v>1.28</v>
+      </c>
+      <c r="BO41">
+        <v>5.1</v>
+      </c>
+      <c r="BP41">
+        <v>1.15</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Chile Primera División_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Chile Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="136">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -416,6 +416,12 @@
   </si>
   <si>
     <t>['7', '58']</t>
+  </si>
+  <si>
+    <t>['16', '50', '69']</t>
+  </si>
+  <si>
+    <t>['58', '61']</t>
   </si>
 </sst>
 </file>
@@ -777,7 +783,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP41"/>
+  <dimension ref="A1:BP44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1117,7 +1123,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ2">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -3380,7 +3386,7 @@
         <v>3</v>
       </c>
       <c r="AP13">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ13">
         <v>1.33</v>
@@ -3586,7 +3592,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AQ14">
         <v>0.5</v>
@@ -3998,7 +4004,7 @@
         <v>1</v>
       </c>
       <c r="AP16">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ16">
         <v>1.33</v>
@@ -4619,7 +4625,7 @@
         <v>2</v>
       </c>
       <c r="AQ19">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AR19">
         <v>0.64</v>
@@ -5440,7 +5446,7 @@
         <v>0.5</v>
       </c>
       <c r="AP23">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AQ23">
         <v>1.33</v>
@@ -5852,10 +5858,10 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ25">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AR25">
         <v>1.54</v>
@@ -6061,7 +6067,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ26">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AR26">
         <v>1.63</v>
@@ -8945,7 +8951,7 @@
         <v>2</v>
       </c>
       <c r="AQ40">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AR40">
         <v>2.2</v>
@@ -9227,6 +9233,624 @@
       </c>
       <c r="BP41">
         <v>1.15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:68">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>7321656</v>
+      </c>
+      <c r="C42" t="s">
+        <v>68</v>
+      </c>
+      <c r="D42" t="s">
+        <v>69</v>
+      </c>
+      <c r="E42" s="2">
+        <v>45379.75</v>
+      </c>
+      <c r="F42">
+        <v>6</v>
+      </c>
+      <c r="G42" t="s">
+        <v>74</v>
+      </c>
+      <c r="H42" t="s">
+        <v>76</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>1</v>
+      </c>
+      <c r="K42">
+        <v>1</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>1</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42" t="s">
+        <v>86</v>
+      </c>
+      <c r="P42" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q42">
+        <v>3</v>
+      </c>
+      <c r="R42">
+        <v>2.15</v>
+      </c>
+      <c r="S42">
+        <v>3.6</v>
+      </c>
+      <c r="T42">
+        <v>1.4</v>
+      </c>
+      <c r="U42">
+        <v>2.82</v>
+      </c>
+      <c r="V42">
+        <v>2.82</v>
+      </c>
+      <c r="W42">
+        <v>1.4</v>
+      </c>
+      <c r="X42">
+        <v>7.2</v>
+      </c>
+      <c r="Y42">
+        <v>1.08</v>
+      </c>
+      <c r="Z42">
+        <v>2.36</v>
+      </c>
+      <c r="AA42">
+        <v>3.2</v>
+      </c>
+      <c r="AB42">
+        <v>2.8</v>
+      </c>
+      <c r="AC42">
+        <v>1.04</v>
+      </c>
+      <c r="AD42">
+        <v>11</v>
+      </c>
+      <c r="AE42">
+        <v>1.3</v>
+      </c>
+      <c r="AF42">
+        <v>3.4</v>
+      </c>
+      <c r="AG42">
+        <v>1.91</v>
+      </c>
+      <c r="AH42">
+        <v>1.81</v>
+      </c>
+      <c r="AI42">
+        <v>1.75</v>
+      </c>
+      <c r="AJ42">
+        <v>2.05</v>
+      </c>
+      <c r="AK42">
+        <v>1.4</v>
+      </c>
+      <c r="AL42">
+        <v>1.25</v>
+      </c>
+      <c r="AM42">
+        <v>1.63</v>
+      </c>
+      <c r="AN42">
+        <v>0</v>
+      </c>
+      <c r="AO42">
+        <v>0.33</v>
+      </c>
+      <c r="AP42">
+        <v>0</v>
+      </c>
+      <c r="AQ42">
+        <v>1</v>
+      </c>
+      <c r="AR42">
+        <v>1.17</v>
+      </c>
+      <c r="AS42">
+        <v>1.12</v>
+      </c>
+      <c r="AT42">
+        <v>2.29</v>
+      </c>
+      <c r="AU42">
+        <v>7</v>
+      </c>
+      <c r="AV42">
+        <v>5</v>
+      </c>
+      <c r="AW42">
+        <v>12</v>
+      </c>
+      <c r="AX42">
+        <v>5</v>
+      </c>
+      <c r="AY42">
+        <v>19</v>
+      </c>
+      <c r="AZ42">
+        <v>10</v>
+      </c>
+      <c r="BA42">
+        <v>9</v>
+      </c>
+      <c r="BB42">
+        <v>4</v>
+      </c>
+      <c r="BC42">
+        <v>13</v>
+      </c>
+      <c r="BD42">
+        <v>7.01</v>
+      </c>
+      <c r="BE42">
+        <v>12</v>
+      </c>
+      <c r="BF42">
+        <v>1.14</v>
+      </c>
+      <c r="BG42">
+        <v>1.17</v>
+      </c>
+      <c r="BH42">
+        <v>4.2</v>
+      </c>
+      <c r="BI42">
+        <v>1.3</v>
+      </c>
+      <c r="BJ42">
+        <v>3.2</v>
+      </c>
+      <c r="BK42">
+        <v>1.58</v>
+      </c>
+      <c r="BL42">
+        <v>2.23</v>
+      </c>
+      <c r="BM42">
+        <v>1.99</v>
+      </c>
+      <c r="BN42">
+        <v>1.73</v>
+      </c>
+      <c r="BO42">
+        <v>2.6</v>
+      </c>
+      <c r="BP42">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="43" spans="1:68">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>7321655</v>
+      </c>
+      <c r="C43" t="s">
+        <v>68</v>
+      </c>
+      <c r="D43" t="s">
+        <v>69</v>
+      </c>
+      <c r="E43" s="2">
+        <v>45379.85416666666</v>
+      </c>
+      <c r="F43">
+        <v>6</v>
+      </c>
+      <c r="G43" t="s">
+        <v>81</v>
+      </c>
+      <c r="H43" t="s">
+        <v>79</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>1</v>
+      </c>
+      <c r="K43">
+        <v>1</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>3</v>
+      </c>
+      <c r="N43">
+        <v>3</v>
+      </c>
+      <c r="O43" t="s">
+        <v>86</v>
+      </c>
+      <c r="P43" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q43">
+        <v>3</v>
+      </c>
+      <c r="R43">
+        <v>2.2</v>
+      </c>
+      <c r="S43">
+        <v>3.4</v>
+      </c>
+      <c r="T43">
+        <v>1.35</v>
+      </c>
+      <c r="U43">
+        <v>3.04</v>
+      </c>
+      <c r="V43">
+        <v>2.63</v>
+      </c>
+      <c r="W43">
+        <v>1.45</v>
+      </c>
+      <c r="X43">
+        <v>6.4</v>
+      </c>
+      <c r="Y43">
+        <v>1.1</v>
+      </c>
+      <c r="Z43">
+        <v>2.12</v>
+      </c>
+      <c r="AA43">
+        <v>3.3</v>
+      </c>
+      <c r="AB43">
+        <v>3.1</v>
+      </c>
+      <c r="AC43">
+        <v>1.03</v>
+      </c>
+      <c r="AD43">
+        <v>13</v>
+      </c>
+      <c r="AE43">
+        <v>1.25</v>
+      </c>
+      <c r="AF43">
+        <v>3.75</v>
+      </c>
+      <c r="AG43">
+        <v>1.77</v>
+      </c>
+      <c r="AH43">
+        <v>1.96</v>
+      </c>
+      <c r="AI43">
+        <v>1.66</v>
+      </c>
+      <c r="AJ43">
+        <v>2.2</v>
+      </c>
+      <c r="AK43">
+        <v>1.45</v>
+      </c>
+      <c r="AL43">
+        <v>1.25</v>
+      </c>
+      <c r="AM43">
+        <v>1.57</v>
+      </c>
+      <c r="AN43">
+        <v>2</v>
+      </c>
+      <c r="AO43">
+        <v>3</v>
+      </c>
+      <c r="AP43">
+        <v>1.5</v>
+      </c>
+      <c r="AQ43">
+        <v>3</v>
+      </c>
+      <c r="AR43">
+        <v>1.5</v>
+      </c>
+      <c r="AS43">
+        <v>1.82</v>
+      </c>
+      <c r="AT43">
+        <v>3.32</v>
+      </c>
+      <c r="AU43">
+        <v>3</v>
+      </c>
+      <c r="AV43">
+        <v>4</v>
+      </c>
+      <c r="AW43">
+        <v>3</v>
+      </c>
+      <c r="AX43">
+        <v>5</v>
+      </c>
+      <c r="AY43">
+        <v>6</v>
+      </c>
+      <c r="AZ43">
+        <v>9</v>
+      </c>
+      <c r="BA43">
+        <v>3</v>
+      </c>
+      <c r="BB43">
+        <v>3</v>
+      </c>
+      <c r="BC43">
+        <v>6</v>
+      </c>
+      <c r="BD43">
+        <v>4.86</v>
+      </c>
+      <c r="BE43">
+        <v>10</v>
+      </c>
+      <c r="BF43">
+        <v>1.26</v>
+      </c>
+      <c r="BG43">
+        <v>1.18</v>
+      </c>
+      <c r="BH43">
+        <v>3.9</v>
+      </c>
+      <c r="BI43">
+        <v>1.37</v>
+      </c>
+      <c r="BJ43">
+        <v>2.85</v>
+      </c>
+      <c r="BK43">
+        <v>1.67</v>
+      </c>
+      <c r="BL43">
+        <v>2.07</v>
+      </c>
+      <c r="BM43">
+        <v>2.1</v>
+      </c>
+      <c r="BN43">
+        <v>1.65</v>
+      </c>
+      <c r="BO43">
+        <v>2.77</v>
+      </c>
+      <c r="BP43">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="44" spans="1:68">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>7321659</v>
+      </c>
+      <c r="C44" t="s">
+        <v>68</v>
+      </c>
+      <c r="D44" t="s">
+        <v>69</v>
+      </c>
+      <c r="E44" s="2">
+        <v>45380.85416666666</v>
+      </c>
+      <c r="F44">
+        <v>6</v>
+      </c>
+      <c r="G44" t="s">
+        <v>82</v>
+      </c>
+      <c r="H44" t="s">
+        <v>78</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>2</v>
+      </c>
+      <c r="N44">
+        <v>2</v>
+      </c>
+      <c r="O44" t="s">
+        <v>86</v>
+      </c>
+      <c r="P44" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q44">
+        <v>2.95</v>
+      </c>
+      <c r="R44">
+        <v>2.2</v>
+      </c>
+      <c r="S44">
+        <v>3.5</v>
+      </c>
+      <c r="T44">
+        <v>1.34</v>
+      </c>
+      <c r="U44">
+        <v>3</v>
+      </c>
+      <c r="V44">
+        <v>2.6</v>
+      </c>
+      <c r="W44">
+        <v>1.44</v>
+      </c>
+      <c r="X44">
+        <v>6.45</v>
+      </c>
+      <c r="Y44">
+        <v>1.09</v>
+      </c>
+      <c r="Z44">
+        <v>1.93</v>
+      </c>
+      <c r="AA44">
+        <v>3.28</v>
+      </c>
+      <c r="AB44">
+        <v>3.27</v>
+      </c>
+      <c r="AC44">
+        <v>1.04</v>
+      </c>
+      <c r="AD44">
+        <v>12</v>
+      </c>
+      <c r="AE44">
+        <v>1.25</v>
+      </c>
+      <c r="AF44">
+        <v>3.75</v>
+      </c>
+      <c r="AG44">
+        <v>1.75</v>
+      </c>
+      <c r="AH44">
+        <v>1.85</v>
+      </c>
+      <c r="AI44">
+        <v>1.65</v>
+      </c>
+      <c r="AJ44">
+        <v>2.2</v>
+      </c>
+      <c r="AK44">
+        <v>1.4</v>
+      </c>
+      <c r="AL44">
+        <v>1.25</v>
+      </c>
+      <c r="AM44">
+        <v>1.62</v>
+      </c>
+      <c r="AN44">
+        <v>0.5</v>
+      </c>
+      <c r="AO44">
+        <v>2</v>
+      </c>
+      <c r="AP44">
+        <v>0.33</v>
+      </c>
+      <c r="AQ44">
+        <v>2.33</v>
+      </c>
+      <c r="AR44">
+        <v>1.55</v>
+      </c>
+      <c r="AS44">
+        <v>1.49</v>
+      </c>
+      <c r="AT44">
+        <v>3.04</v>
+      </c>
+      <c r="AU44">
+        <v>-1</v>
+      </c>
+      <c r="AV44">
+        <v>-1</v>
+      </c>
+      <c r="AW44">
+        <v>-1</v>
+      </c>
+      <c r="AX44">
+        <v>-1</v>
+      </c>
+      <c r="AY44">
+        <v>-1</v>
+      </c>
+      <c r="AZ44">
+        <v>-1</v>
+      </c>
+      <c r="BA44">
+        <v>-1</v>
+      </c>
+      <c r="BB44">
+        <v>-1</v>
+      </c>
+      <c r="BC44">
+        <v>-1</v>
+      </c>
+      <c r="BD44">
+        <v>1.75</v>
+      </c>
+      <c r="BE44">
+        <v>8</v>
+      </c>
+      <c r="BF44">
+        <v>2.44</v>
+      </c>
+      <c r="BG44">
+        <v>1.25</v>
+      </c>
+      <c r="BH44">
+        <v>3.3</v>
+      </c>
+      <c r="BI44">
+        <v>1.48</v>
+      </c>
+      <c r="BJ44">
+        <v>2.38</v>
+      </c>
+      <c r="BK44">
+        <v>1.88</v>
+      </c>
+      <c r="BL44">
+        <v>1.92</v>
+      </c>
+      <c r="BM44">
+        <v>2.35</v>
+      </c>
+      <c r="BN44">
+        <v>1.49</v>
+      </c>
+      <c r="BO44">
+        <v>3.15</v>
+      </c>
+      <c r="BP44">
+        <v>1.28</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Chile Primera División_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Chile Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="136">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -783,7 +783,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP44"/>
+  <dimension ref="A1:BP45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3180,7 +3180,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ12">
         <v>2</v>
@@ -4213,7 +4213,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ17">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AR17">
         <v>1.44</v>
@@ -8124,7 +8124,7 @@
         <v>0</v>
       </c>
       <c r="AP36">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ36">
         <v>0</v>
@@ -8745,7 +8745,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ39">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AR39">
         <v>1.45</v>
@@ -9584,19 +9584,19 @@
         <v>3</v>
       </c>
       <c r="AV43">
+        <v>8</v>
+      </c>
+      <c r="AW43">
         <v>4</v>
-      </c>
-      <c r="AW43">
-        <v>3</v>
       </c>
       <c r="AX43">
         <v>5</v>
       </c>
       <c r="AY43">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AZ43">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="BA43">
         <v>3</v>
@@ -9787,31 +9787,31 @@
         <v>3.04</v>
       </c>
       <c r="AU44">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AV44">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AW44">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AX44">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AY44">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AZ44">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="BA44">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BB44">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BC44">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BD44">
         <v>1.75</v>
@@ -9851,6 +9851,212 @@
       </c>
       <c r="BP44">
         <v>1.28</v>
+      </c>
+    </row>
+    <row r="45" spans="1:68">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>7321654</v>
+      </c>
+      <c r="C45" t="s">
+        <v>68</v>
+      </c>
+      <c r="D45" t="s">
+        <v>69</v>
+      </c>
+      <c r="E45" s="2">
+        <v>45381.5</v>
+      </c>
+      <c r="F45">
+        <v>6</v>
+      </c>
+      <c r="G45" t="s">
+        <v>80</v>
+      </c>
+      <c r="H45" t="s">
+        <v>75</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>0</v>
+      </c>
+      <c r="O45" t="s">
+        <v>86</v>
+      </c>
+      <c r="P45" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q45">
+        <v>2.75</v>
+      </c>
+      <c r="R45">
+        <v>2.15</v>
+      </c>
+      <c r="S45">
+        <v>4</v>
+      </c>
+      <c r="T45">
+        <v>1.37</v>
+      </c>
+      <c r="U45">
+        <v>2.85</v>
+      </c>
+      <c r="V45">
+        <v>2.8</v>
+      </c>
+      <c r="W45">
+        <v>1.39</v>
+      </c>
+      <c r="X45">
+        <v>6.95</v>
+      </c>
+      <c r="Y45">
+        <v>1.07</v>
+      </c>
+      <c r="Z45">
+        <v>2.08</v>
+      </c>
+      <c r="AA45">
+        <v>3.25</v>
+      </c>
+      <c r="AB45">
+        <v>3</v>
+      </c>
+      <c r="AC45">
+        <v>1.05</v>
+      </c>
+      <c r="AD45">
+        <v>11</v>
+      </c>
+      <c r="AE45">
+        <v>1.3</v>
+      </c>
+      <c r="AF45">
+        <v>3.4</v>
+      </c>
+      <c r="AG45">
+        <v>1.99</v>
+      </c>
+      <c r="AH45">
+        <v>1.85</v>
+      </c>
+      <c r="AI45">
+        <v>1.78</v>
+      </c>
+      <c r="AJ45">
+        <v>2</v>
+      </c>
+      <c r="AK45">
+        <v>1.3</v>
+      </c>
+      <c r="AL45">
+        <v>1.25</v>
+      </c>
+      <c r="AM45">
+        <v>1.75</v>
+      </c>
+      <c r="AN45">
+        <v>1.5</v>
+      </c>
+      <c r="AO45">
+        <v>2</v>
+      </c>
+      <c r="AP45">
+        <v>1.33</v>
+      </c>
+      <c r="AQ45">
+        <v>1.67</v>
+      </c>
+      <c r="AR45">
+        <v>1.64</v>
+      </c>
+      <c r="AS45">
+        <v>0.93</v>
+      </c>
+      <c r="AT45">
+        <v>2.57</v>
+      </c>
+      <c r="AU45">
+        <v>3</v>
+      </c>
+      <c r="AV45">
+        <v>3</v>
+      </c>
+      <c r="AW45">
+        <v>7</v>
+      </c>
+      <c r="AX45">
+        <v>2</v>
+      </c>
+      <c r="AY45">
+        <v>10</v>
+      </c>
+      <c r="AZ45">
+        <v>5</v>
+      </c>
+      <c r="BA45">
+        <v>7</v>
+      </c>
+      <c r="BB45">
+        <v>3</v>
+      </c>
+      <c r="BC45">
+        <v>10</v>
+      </c>
+      <c r="BD45">
+        <v>1.45</v>
+      </c>
+      <c r="BE45">
+        <v>8.5</v>
+      </c>
+      <c r="BF45">
+        <v>3.29</v>
+      </c>
+      <c r="BG45">
+        <v>1.24</v>
+      </c>
+      <c r="BH45">
+        <v>3.45</v>
+      </c>
+      <c r="BI45">
+        <v>1.45</v>
+      </c>
+      <c r="BJ45">
+        <v>2.45</v>
+      </c>
+      <c r="BK45">
+        <v>1.82</v>
+      </c>
+      <c r="BL45">
+        <v>1.98</v>
+      </c>
+      <c r="BM45">
+        <v>2.28</v>
+      </c>
+      <c r="BN45">
+        <v>1.52</v>
+      </c>
+      <c r="BO45">
+        <v>3.05</v>
+      </c>
+      <c r="BP45">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Chile Primera División_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Chile Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="139">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -355,6 +355,12 @@
     <t>['2', '52']</t>
   </si>
   <si>
+    <t>['3', '67', '69', '90+2']</t>
+  </si>
+  <si>
+    <t>['28', '80']</t>
+  </si>
+  <si>
     <t>['13', '18', '77']</t>
   </si>
   <si>
@@ -422,6 +428,9 @@
   </si>
   <si>
     <t>['58', '61']</t>
+  </si>
+  <si>
+    <t>['8']</t>
   </si>
 </sst>
 </file>
@@ -783,7 +792,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP45"/>
+  <dimension ref="A1:BP47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1248,7 +1257,7 @@
         <v>86</v>
       </c>
       <c r="P3" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q3">
         <v>4.75</v>
@@ -1454,7 +1463,7 @@
         <v>87</v>
       </c>
       <c r="P4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Q4">
         <v>3.1</v>
@@ -1532,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ4">
         <v>1.5</v>
@@ -1660,7 +1669,7 @@
         <v>88</v>
       </c>
       <c r="P5" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q5">
         <v>3.1</v>
@@ -1866,7 +1875,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="Q6">
         <v>2.75</v>
@@ -2072,7 +2081,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2278,7 +2287,7 @@
         <v>90</v>
       </c>
       <c r="P8" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Q8">
         <v>2.6</v>
@@ -2896,7 +2905,7 @@
         <v>93</v>
       </c>
       <c r="P11" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q11">
         <v>3.6</v>
@@ -2977,7 +2986,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ11">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3102,7 +3111,7 @@
         <v>86</v>
       </c>
       <c r="P12" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q12">
         <v>2.5</v>
@@ -3183,7 +3192,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ12">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3514,7 +3523,7 @@
         <v>95</v>
       </c>
       <c r="P14" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q14">
         <v>2.5</v>
@@ -3720,7 +3729,7 @@
         <v>96</v>
       </c>
       <c r="P15" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -3926,7 +3935,7 @@
         <v>97</v>
       </c>
       <c r="P16" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Q16">
         <v>3.75</v>
@@ -4007,7 +4016,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ16">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR16">
         <v>1.64</v>
@@ -4132,7 +4141,7 @@
         <v>86</v>
       </c>
       <c r="P17" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="Q17">
         <v>2.54</v>
@@ -4338,7 +4347,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q18">
         <v>2.6</v>
@@ -4828,7 +4837,7 @@
         <v>1</v>
       </c>
       <c r="AP20">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AQ20">
         <v>1.33</v>
@@ -4956,7 +4965,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q21">
         <v>2.65</v>
@@ -5162,7 +5171,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q22">
         <v>3.75</v>
@@ -5240,7 +5249,7 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ22">
         <v>3</v>
@@ -5368,7 +5377,7 @@
         <v>103</v>
       </c>
       <c r="P23" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q23">
         <v>2.69</v>
@@ -5986,7 +5995,7 @@
         <v>105</v>
       </c>
       <c r="P26" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -6192,7 +6201,7 @@
         <v>86</v>
       </c>
       <c r="P27" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q27">
         <v>2.28</v>
@@ -6270,7 +6279,7 @@
         <v>3</v>
       </c>
       <c r="AP27">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AQ27">
         <v>3</v>
@@ -6604,7 +6613,7 @@
         <v>107</v>
       </c>
       <c r="P29" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q29">
         <v>2.75</v>
@@ -6685,7 +6694,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ29">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR29">
         <v>1.22</v>
@@ -6810,7 +6819,7 @@
         <v>86</v>
       </c>
       <c r="P30" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q30">
         <v>2.6</v>
@@ -7222,7 +7231,7 @@
         <v>108</v>
       </c>
       <c r="P32" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q32">
         <v>2.75</v>
@@ -8333,7 +8342,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ37">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AR37">
         <v>1.39</v>
@@ -9076,7 +9085,7 @@
         <v>112</v>
       </c>
       <c r="P41" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q41">
         <v>2.5</v>
@@ -9282,7 +9291,7 @@
         <v>86</v>
       </c>
       <c r="P42" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9488,7 +9497,7 @@
         <v>86</v>
       </c>
       <c r="P43" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9694,7 +9703,7 @@
         <v>86</v>
       </c>
       <c r="P44" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q44">
         <v>2.95</v>
@@ -9993,22 +10002,22 @@
         <v>2.57</v>
       </c>
       <c r="AU45">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV45">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW45">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AX45">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AY45">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AZ45">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BA45">
         <v>7</v>
@@ -10056,6 +10065,418 @@
         <v>3.05</v>
       </c>
       <c r="BP45">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:68">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>7321658</v>
+      </c>
+      <c r="C46" t="s">
+        <v>68</v>
+      </c>
+      <c r="D46" t="s">
+        <v>69</v>
+      </c>
+      <c r="E46" s="2">
+        <v>45381.75</v>
+      </c>
+      <c r="F46">
+        <v>6</v>
+      </c>
+      <c r="G46" t="s">
+        <v>83</v>
+      </c>
+      <c r="H46" t="s">
+        <v>85</v>
+      </c>
+      <c r="I46">
+        <v>1</v>
+      </c>
+      <c r="J46">
+        <v>1</v>
+      </c>
+      <c r="K46">
+        <v>2</v>
+      </c>
+      <c r="L46">
+        <v>4</v>
+      </c>
+      <c r="M46">
+        <v>1</v>
+      </c>
+      <c r="N46">
+        <v>5</v>
+      </c>
+      <c r="O46" t="s">
+        <v>113</v>
+      </c>
+      <c r="P46" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q46">
+        <v>2.3</v>
+      </c>
+      <c r="R46">
+        <v>2.25</v>
+      </c>
+      <c r="S46">
+        <v>5</v>
+      </c>
+      <c r="T46">
+        <v>1.36</v>
+      </c>
+      <c r="U46">
+        <v>2.9</v>
+      </c>
+      <c r="V46">
+        <v>2.8</v>
+      </c>
+      <c r="W46">
+        <v>1.39</v>
+      </c>
+      <c r="X46">
+        <v>6.95</v>
+      </c>
+      <c r="Y46">
+        <v>1.07</v>
+      </c>
+      <c r="Z46">
+        <v>1.72</v>
+      </c>
+      <c r="AA46">
+        <v>3.4</v>
+      </c>
+      <c r="AB46">
+        <v>4.25</v>
+      </c>
+      <c r="AC46">
+        <v>1.04</v>
+      </c>
+      <c r="AD46">
+        <v>12</v>
+      </c>
+      <c r="AE46">
+        <v>1.3</v>
+      </c>
+      <c r="AF46">
+        <v>3.5</v>
+      </c>
+      <c r="AG46">
+        <v>1.91</v>
+      </c>
+      <c r="AH46">
+        <v>1.83</v>
+      </c>
+      <c r="AI46">
+        <v>1.87</v>
+      </c>
+      <c r="AJ46">
+        <v>1.87</v>
+      </c>
+      <c r="AK46">
+        <v>1.17</v>
+      </c>
+      <c r="AL46">
+        <v>1.2</v>
+      </c>
+      <c r="AM46">
+        <v>2.2</v>
+      </c>
+      <c r="AN46">
+        <v>1.5</v>
+      </c>
+      <c r="AO46">
+        <v>1.33</v>
+      </c>
+      <c r="AP46">
+        <v>2</v>
+      </c>
+      <c r="AQ46">
+        <v>1</v>
+      </c>
+      <c r="AR46">
+        <v>1.53</v>
+      </c>
+      <c r="AS46">
+        <v>1.25</v>
+      </c>
+      <c r="AT46">
+        <v>2.78</v>
+      </c>
+      <c r="AU46">
+        <v>10</v>
+      </c>
+      <c r="AV46">
+        <v>4</v>
+      </c>
+      <c r="AW46">
+        <v>9</v>
+      </c>
+      <c r="AX46">
+        <v>0</v>
+      </c>
+      <c r="AY46">
+        <v>19</v>
+      </c>
+      <c r="AZ46">
+        <v>4</v>
+      </c>
+      <c r="BA46">
+        <v>14</v>
+      </c>
+      <c r="BB46">
+        <v>5</v>
+      </c>
+      <c r="BC46">
+        <v>19</v>
+      </c>
+      <c r="BD46">
+        <v>1.45</v>
+      </c>
+      <c r="BE46">
+        <v>9</v>
+      </c>
+      <c r="BF46">
+        <v>3.32</v>
+      </c>
+      <c r="BG46">
+        <v>1.25</v>
+      </c>
+      <c r="BH46">
+        <v>3.3</v>
+      </c>
+      <c r="BI46">
+        <v>1.48</v>
+      </c>
+      <c r="BJ46">
+        <v>2.38</v>
+      </c>
+      <c r="BK46">
+        <v>1.85</v>
+      </c>
+      <c r="BL46">
+        <v>1.95</v>
+      </c>
+      <c r="BM46">
+        <v>2.35</v>
+      </c>
+      <c r="BN46">
+        <v>1.49</v>
+      </c>
+      <c r="BO46">
+        <v>3.15</v>
+      </c>
+      <c r="BP46">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="47" spans="1:68">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>7321657</v>
+      </c>
+      <c r="C47" t="s">
+        <v>68</v>
+      </c>
+      <c r="D47" t="s">
+        <v>69</v>
+      </c>
+      <c r="E47" s="2">
+        <v>45381.85416666666</v>
+      </c>
+      <c r="F47">
+        <v>6</v>
+      </c>
+      <c r="G47" t="s">
+        <v>72</v>
+      </c>
+      <c r="H47" t="s">
+        <v>84</v>
+      </c>
+      <c r="I47">
+        <v>1</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>1</v>
+      </c>
+      <c r="L47">
+        <v>2</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>2</v>
+      </c>
+      <c r="O47" t="s">
+        <v>114</v>
+      </c>
+      <c r="P47" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q47">
+        <v>3.4</v>
+      </c>
+      <c r="R47">
+        <v>2.15</v>
+      </c>
+      <c r="S47">
+        <v>3.1</v>
+      </c>
+      <c r="T47">
+        <v>1.36</v>
+      </c>
+      <c r="U47">
+        <v>2.9</v>
+      </c>
+      <c r="V47">
+        <v>2.75</v>
+      </c>
+      <c r="W47">
+        <v>1.4</v>
+      </c>
+      <c r="X47">
+        <v>6.95</v>
+      </c>
+      <c r="Y47">
+        <v>1.07</v>
+      </c>
+      <c r="Z47">
+        <v>2.7</v>
+      </c>
+      <c r="AA47">
+        <v>3.25</v>
+      </c>
+      <c r="AB47">
+        <v>2.3</v>
+      </c>
+      <c r="AC47">
+        <v>1.04</v>
+      </c>
+      <c r="AD47">
+        <v>12</v>
+      </c>
+      <c r="AE47">
+        <v>1.3</v>
+      </c>
+      <c r="AF47">
+        <v>3.5</v>
+      </c>
+      <c r="AG47">
+        <v>1.83</v>
+      </c>
+      <c r="AH47">
+        <v>1.8</v>
+      </c>
+      <c r="AI47">
+        <v>1.72</v>
+      </c>
+      <c r="AJ47">
+        <v>2.1</v>
+      </c>
+      <c r="AK47">
+        <v>1.57</v>
+      </c>
+      <c r="AL47">
+        <v>1.25</v>
+      </c>
+      <c r="AM47">
+        <v>1.45</v>
+      </c>
+      <c r="AN47">
+        <v>0</v>
+      </c>
+      <c r="AO47">
+        <v>2</v>
+      </c>
+      <c r="AP47">
+        <v>1</v>
+      </c>
+      <c r="AQ47">
+        <v>1.33</v>
+      </c>
+      <c r="AR47">
+        <v>1.29</v>
+      </c>
+      <c r="AS47">
+        <v>0.86</v>
+      </c>
+      <c r="AT47">
+        <v>2.15</v>
+      </c>
+      <c r="AU47">
+        <v>6</v>
+      </c>
+      <c r="AV47">
+        <v>3</v>
+      </c>
+      <c r="AW47">
+        <v>7</v>
+      </c>
+      <c r="AX47">
+        <v>7</v>
+      </c>
+      <c r="AY47">
+        <v>13</v>
+      </c>
+      <c r="AZ47">
+        <v>10</v>
+      </c>
+      <c r="BA47">
+        <v>3</v>
+      </c>
+      <c r="BB47">
+        <v>3</v>
+      </c>
+      <c r="BC47">
+        <v>6</v>
+      </c>
+      <c r="BD47">
+        <v>1.82</v>
+      </c>
+      <c r="BE47">
+        <v>8</v>
+      </c>
+      <c r="BF47">
+        <v>2.39</v>
+      </c>
+      <c r="BG47">
+        <v>1.24</v>
+      </c>
+      <c r="BH47">
+        <v>3.45</v>
+      </c>
+      <c r="BI47">
+        <v>1.45</v>
+      </c>
+      <c r="BJ47">
+        <v>2.45</v>
+      </c>
+      <c r="BK47">
+        <v>1.82</v>
+      </c>
+      <c r="BL47">
+        <v>1.98</v>
+      </c>
+      <c r="BM47">
+        <v>2.28</v>
+      </c>
+      <c r="BN47">
+        <v>1.52</v>
+      </c>
+      <c r="BO47">
+        <v>3.05</v>
+      </c>
+      <c r="BP47">
         <v>1.3</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2024)/Chile Primera División_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Chile Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="143">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -361,6 +361,12 @@
     <t>['28', '80']</t>
   </si>
   <si>
+    <t>['67']</t>
+  </si>
+  <si>
+    <t>['11', '40', '55', '74', '88']</t>
+  </si>
+  <si>
     <t>['13', '18', '77']</t>
   </si>
   <si>
@@ -431,6 +437,12 @@
   </si>
   <si>
     <t>['8']</t>
+  </si>
+  <si>
+    <t>['25', '60', '90']</t>
+  </si>
+  <si>
+    <t>['28', '61', '76']</t>
   </si>
 </sst>
 </file>
@@ -792,7 +804,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP47"/>
+  <dimension ref="A1:BP49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1257,7 +1269,7 @@
         <v>86</v>
       </c>
       <c r="P3" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q3">
         <v>4.75</v>
@@ -1335,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ3">
         <v>1.33</v>
@@ -1463,7 +1475,7 @@
         <v>87</v>
       </c>
       <c r="P4" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="Q4">
         <v>3.1</v>
@@ -1669,7 +1681,7 @@
         <v>88</v>
       </c>
       <c r="P5" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Q5">
         <v>3.1</v>
@@ -1747,7 +1759,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ5">
         <v>1.33</v>
@@ -1875,7 +1887,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Q6">
         <v>2.75</v>
@@ -2081,7 +2093,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2162,7 +2174,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ7">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2287,7 +2299,7 @@
         <v>90</v>
       </c>
       <c r="P8" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q8">
         <v>2.6</v>
@@ -2905,7 +2917,7 @@
         <v>93</v>
       </c>
       <c r="P11" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q11">
         <v>3.6</v>
@@ -3111,7 +3123,7 @@
         <v>86</v>
       </c>
       <c r="P12" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q12">
         <v>2.5</v>
@@ -3523,7 +3535,7 @@
         <v>95</v>
       </c>
       <c r="P14" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="Q14">
         <v>2.5</v>
@@ -3729,7 +3741,7 @@
         <v>96</v>
       </c>
       <c r="P15" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -3807,7 +3819,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ15">
         <v>0.33</v>
@@ -3935,7 +3947,7 @@
         <v>97</v>
       </c>
       <c r="P16" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q16">
         <v>3.75</v>
@@ -4141,7 +4153,7 @@
         <v>86</v>
       </c>
       <c r="P17" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q17">
         <v>2.54</v>
@@ -4347,7 +4359,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q18">
         <v>2.6</v>
@@ -4631,7 +4643,7 @@
         <v>1</v>
       </c>
       <c r="AP19">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ19">
         <v>1</v>
@@ -4965,7 +4977,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q21">
         <v>2.65</v>
@@ -5171,7 +5183,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q22">
         <v>3.75</v>
@@ -5377,7 +5389,7 @@
         <v>103</v>
       </c>
       <c r="P23" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q23">
         <v>2.69</v>
@@ -5661,7 +5673,7 @@
         <v>1.5</v>
       </c>
       <c r="AP24">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ24">
         <v>1</v>
@@ -5995,7 +6007,7 @@
         <v>105</v>
       </c>
       <c r="P26" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -6201,7 +6213,7 @@
         <v>86</v>
       </c>
       <c r="P27" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q27">
         <v>2.28</v>
@@ -6613,7 +6625,7 @@
         <v>107</v>
       </c>
       <c r="P29" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q29">
         <v>2.75</v>
@@ -6819,7 +6831,7 @@
         <v>86</v>
       </c>
       <c r="P30" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q30">
         <v>2.6</v>
@@ -7231,7 +7243,7 @@
         <v>108</v>
       </c>
       <c r="P32" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q32">
         <v>2.75</v>
@@ -7312,7 +7324,7 @@
         <v>2</v>
       </c>
       <c r="AQ32">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR32">
         <v>0</v>
@@ -7721,7 +7733,7 @@
         <v>1</v>
       </c>
       <c r="AP34">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ34">
         <v>0.5</v>
@@ -9085,7 +9097,7 @@
         <v>112</v>
       </c>
       <c r="P41" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q41">
         <v>2.5</v>
@@ -9291,7 +9303,7 @@
         <v>86</v>
       </c>
       <c r="P42" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9497,7 +9509,7 @@
         <v>86</v>
       </c>
       <c r="P43" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9703,7 +9715,7 @@
         <v>86</v>
       </c>
       <c r="P44" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q44">
         <v>2.95</v>
@@ -10115,7 +10127,7 @@
         <v>113</v>
       </c>
       <c r="P46" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q46">
         <v>2.3</v>
@@ -10478,6 +10490,418 @@
       </c>
       <c r="BP47">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:68">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>7321653</v>
+      </c>
+      <c r="C48" t="s">
+        <v>68</v>
+      </c>
+      <c r="D48" t="s">
+        <v>69</v>
+      </c>
+      <c r="E48" s="2">
+        <v>45382.75</v>
+      </c>
+      <c r="F48">
+        <v>6</v>
+      </c>
+      <c r="G48" t="s">
+        <v>73</v>
+      </c>
+      <c r="H48" t="s">
+        <v>77</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>1</v>
+      </c>
+      <c r="K48">
+        <v>1</v>
+      </c>
+      <c r="L48">
+        <v>1</v>
+      </c>
+      <c r="M48">
+        <v>3</v>
+      </c>
+      <c r="N48">
+        <v>4</v>
+      </c>
+      <c r="O48" t="s">
+        <v>115</v>
+      </c>
+      <c r="P48" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q48">
+        <v>3</v>
+      </c>
+      <c r="R48">
+        <v>2.1</v>
+      </c>
+      <c r="S48">
+        <v>3.75</v>
+      </c>
+      <c r="T48">
+        <v>1.4</v>
+      </c>
+      <c r="U48">
+        <v>2.75</v>
+      </c>
+      <c r="V48">
+        <v>3</v>
+      </c>
+      <c r="W48">
+        <v>1.36</v>
+      </c>
+      <c r="X48">
+        <v>8</v>
+      </c>
+      <c r="Y48">
+        <v>1.08</v>
+      </c>
+      <c r="Z48">
+        <v>2.2</v>
+      </c>
+      <c r="AA48">
+        <v>3.37</v>
+      </c>
+      <c r="AB48">
+        <v>3.17</v>
+      </c>
+      <c r="AC48">
+        <v>1.05</v>
+      </c>
+      <c r="AD48">
+        <v>10</v>
+      </c>
+      <c r="AE48">
+        <v>1.33</v>
+      </c>
+      <c r="AF48">
+        <v>3.25</v>
+      </c>
+      <c r="AG48">
+        <v>1.97</v>
+      </c>
+      <c r="AH48">
+        <v>1.83</v>
+      </c>
+      <c r="AI48">
+        <v>1.8</v>
+      </c>
+      <c r="AJ48">
+        <v>1.91</v>
+      </c>
+      <c r="AK48">
+        <v>1.38</v>
+      </c>
+      <c r="AL48">
+        <v>1.25</v>
+      </c>
+      <c r="AM48">
+        <v>1.65</v>
+      </c>
+      <c r="AN48">
+        <v>2.33</v>
+      </c>
+      <c r="AO48">
+        <v>3</v>
+      </c>
+      <c r="AP48">
+        <v>1.75</v>
+      </c>
+      <c r="AQ48">
+        <v>3</v>
+      </c>
+      <c r="AR48">
+        <v>1.89</v>
+      </c>
+      <c r="AS48">
+        <v>1.83</v>
+      </c>
+      <c r="AT48">
+        <v>3.72</v>
+      </c>
+      <c r="AU48">
+        <v>6</v>
+      </c>
+      <c r="AV48">
+        <v>10</v>
+      </c>
+      <c r="AW48">
+        <v>10</v>
+      </c>
+      <c r="AX48">
+        <v>10</v>
+      </c>
+      <c r="AY48">
+        <v>16</v>
+      </c>
+      <c r="AZ48">
+        <v>20</v>
+      </c>
+      <c r="BA48">
+        <v>8</v>
+      </c>
+      <c r="BB48">
+        <v>4</v>
+      </c>
+      <c r="BC48">
+        <v>12</v>
+      </c>
+      <c r="BD48">
+        <v>1.91</v>
+      </c>
+      <c r="BE48">
+        <v>7.5</v>
+      </c>
+      <c r="BF48">
+        <v>2.2</v>
+      </c>
+      <c r="BG48">
+        <v>1.35</v>
+      </c>
+      <c r="BH48">
+        <v>2.8</v>
+      </c>
+      <c r="BI48">
+        <v>1.63</v>
+      </c>
+      <c r="BJ48">
+        <v>2.06</v>
+      </c>
+      <c r="BK48">
+        <v>2.08</v>
+      </c>
+      <c r="BL48">
+        <v>1.62</v>
+      </c>
+      <c r="BM48">
+        <v>2.75</v>
+      </c>
+      <c r="BN48">
+        <v>1.36</v>
+      </c>
+      <c r="BO48">
+        <v>3.8</v>
+      </c>
+      <c r="BP48">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:68">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>7321660</v>
+      </c>
+      <c r="C49" t="s">
+        <v>68</v>
+      </c>
+      <c r="D49" t="s">
+        <v>69</v>
+      </c>
+      <c r="E49" s="2">
+        <v>45382.85416666666</v>
+      </c>
+      <c r="F49">
+        <v>6</v>
+      </c>
+      <c r="G49" t="s">
+        <v>71</v>
+      </c>
+      <c r="H49" t="s">
+        <v>70</v>
+      </c>
+      <c r="I49">
+        <v>2</v>
+      </c>
+      <c r="J49">
+        <v>1</v>
+      </c>
+      <c r="K49">
+        <v>3</v>
+      </c>
+      <c r="L49">
+        <v>5</v>
+      </c>
+      <c r="M49">
+        <v>3</v>
+      </c>
+      <c r="N49">
+        <v>8</v>
+      </c>
+      <c r="O49" t="s">
+        <v>116</v>
+      </c>
+      <c r="P49" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q49">
+        <v>3</v>
+      </c>
+      <c r="R49">
+        <v>2.05</v>
+      </c>
+      <c r="S49">
+        <v>4</v>
+      </c>
+      <c r="T49">
+        <v>1.44</v>
+      </c>
+      <c r="U49">
+        <v>2.63</v>
+      </c>
+      <c r="V49">
+        <v>3.25</v>
+      </c>
+      <c r="W49">
+        <v>1.33</v>
+      </c>
+      <c r="X49">
+        <v>9</v>
+      </c>
+      <c r="Y49">
+        <v>1.07</v>
+      </c>
+      <c r="Z49">
+        <v>2.29</v>
+      </c>
+      <c r="AA49">
+        <v>3.18</v>
+      </c>
+      <c r="AB49">
+        <v>3.18</v>
+      </c>
+      <c r="AC49">
+        <v>1.06</v>
+      </c>
+      <c r="AD49">
+        <v>9.5</v>
+      </c>
+      <c r="AE49">
+        <v>1.36</v>
+      </c>
+      <c r="AF49">
+        <v>3.1</v>
+      </c>
+      <c r="AG49">
+        <v>1.96</v>
+      </c>
+      <c r="AH49">
+        <v>1.72</v>
+      </c>
+      <c r="AI49">
+        <v>1.83</v>
+      </c>
+      <c r="AJ49">
+        <v>1.83</v>
+      </c>
+      <c r="AK49">
+        <v>1.3</v>
+      </c>
+      <c r="AL49">
+        <v>1.27</v>
+      </c>
+      <c r="AM49">
+        <v>1.51</v>
+      </c>
+      <c r="AN49">
+        <v>2</v>
+      </c>
+      <c r="AO49">
+        <v>1.5</v>
+      </c>
+      <c r="AP49">
+        <v>2.25</v>
+      </c>
+      <c r="AQ49">
+        <v>1</v>
+      </c>
+      <c r="AR49">
+        <v>1.05</v>
+      </c>
+      <c r="AS49">
+        <v>0.88</v>
+      </c>
+      <c r="AT49">
+        <v>1.93</v>
+      </c>
+      <c r="AU49">
+        <v>12</v>
+      </c>
+      <c r="AV49">
+        <v>6</v>
+      </c>
+      <c r="AW49">
+        <v>5</v>
+      </c>
+      <c r="AX49">
+        <v>4</v>
+      </c>
+      <c r="AY49">
+        <v>17</v>
+      </c>
+      <c r="AZ49">
+        <v>10</v>
+      </c>
+      <c r="BA49">
+        <v>7</v>
+      </c>
+      <c r="BB49">
+        <v>6</v>
+      </c>
+      <c r="BC49">
+        <v>13</v>
+      </c>
+      <c r="BD49">
+        <v>1.75</v>
+      </c>
+      <c r="BE49">
+        <v>8</v>
+      </c>
+      <c r="BF49">
+        <v>2.52</v>
+      </c>
+      <c r="BG49">
+        <v>1.27</v>
+      </c>
+      <c r="BH49">
+        <v>3.2</v>
+      </c>
+      <c r="BI49">
+        <v>1.51</v>
+      </c>
+      <c r="BJ49">
+        <v>2.37</v>
+      </c>
+      <c r="BK49">
+        <v>1.9</v>
+      </c>
+      <c r="BL49">
+        <v>1.8</v>
+      </c>
+      <c r="BM49">
+        <v>2.5</v>
+      </c>
+      <c r="BN49">
+        <v>1.47</v>
+      </c>
+      <c r="BO49">
+        <v>3.3</v>
+      </c>
+      <c r="BP49">
+        <v>1.26</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Chile Primera División_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Chile Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="144">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -365,6 +365,9 @@
   </si>
   <si>
     <t>['11', '40', '55', '74', '88']</t>
+  </si>
+  <si>
+    <t>['15', '45+1', '88']</t>
   </si>
   <si>
     <t>['13', '18', '77']</t>
@@ -804,7 +807,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP49"/>
+  <dimension ref="A1:BP50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1269,7 +1272,7 @@
         <v>86</v>
       </c>
       <c r="P3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q3">
         <v>4.75</v>
@@ -1475,7 +1478,7 @@
         <v>87</v>
       </c>
       <c r="P4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q4">
         <v>3.1</v>
@@ -1553,7 +1556,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ4">
         <v>1.5</v>
@@ -1681,7 +1684,7 @@
         <v>88</v>
       </c>
       <c r="P5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q5">
         <v>3.1</v>
@@ -1887,7 +1890,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q6">
         <v>2.75</v>
@@ -1968,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="AQ6">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2093,7 +2096,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2299,7 +2302,7 @@
         <v>90</v>
       </c>
       <c r="P8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q8">
         <v>2.6</v>
@@ -2917,7 +2920,7 @@
         <v>93</v>
       </c>
       <c r="P11" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q11">
         <v>3.6</v>
@@ -3123,7 +3126,7 @@
         <v>86</v>
       </c>
       <c r="P12" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q12">
         <v>2.5</v>
@@ -3535,7 +3538,7 @@
         <v>95</v>
       </c>
       <c r="P14" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q14">
         <v>2.5</v>
@@ -3741,7 +3744,7 @@
         <v>96</v>
       </c>
       <c r="P15" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -3947,7 +3950,7 @@
         <v>97</v>
       </c>
       <c r="P16" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q16">
         <v>3.75</v>
@@ -4153,7 +4156,7 @@
         <v>86</v>
       </c>
       <c r="P17" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q17">
         <v>2.54</v>
@@ -4359,7 +4362,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q18">
         <v>2.6</v>
@@ -4977,7 +4980,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q21">
         <v>2.65</v>
@@ -5058,7 +5061,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ21">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AR21">
         <v>0</v>
@@ -5183,7 +5186,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q22">
         <v>3.75</v>
@@ -5261,7 +5264,7 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ22">
         <v>3</v>
@@ -5389,7 +5392,7 @@
         <v>103</v>
       </c>
       <c r="P23" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q23">
         <v>2.69</v>
@@ -6007,7 +6010,7 @@
         <v>105</v>
       </c>
       <c r="P26" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -6213,7 +6216,7 @@
         <v>86</v>
       </c>
       <c r="P27" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q27">
         <v>2.28</v>
@@ -6625,7 +6628,7 @@
         <v>107</v>
       </c>
       <c r="P29" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q29">
         <v>2.75</v>
@@ -6831,7 +6834,7 @@
         <v>86</v>
       </c>
       <c r="P30" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q30">
         <v>2.6</v>
@@ -7243,7 +7246,7 @@
         <v>108</v>
       </c>
       <c r="P32" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q32">
         <v>2.75</v>
@@ -9097,7 +9100,7 @@
         <v>112</v>
       </c>
       <c r="P41" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q41">
         <v>2.5</v>
@@ -9303,7 +9306,7 @@
         <v>86</v>
       </c>
       <c r="P42" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9509,7 +9512,7 @@
         <v>86</v>
       </c>
       <c r="P43" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9590,7 +9593,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ43">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AR43">
         <v>1.5</v>
@@ -9715,7 +9718,7 @@
         <v>86</v>
       </c>
       <c r="P44" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q44">
         <v>2.95</v>
@@ -10127,7 +10130,7 @@
         <v>113</v>
       </c>
       <c r="P46" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q46">
         <v>2.3</v>
@@ -10411,7 +10414,7 @@
         <v>2</v>
       </c>
       <c r="AP47">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ47">
         <v>1.33</v>
@@ -10539,7 +10542,7 @@
         <v>115</v>
       </c>
       <c r="P48" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q48">
         <v>3</v>
@@ -10745,7 +10748,7 @@
         <v>116</v>
       </c>
       <c r="P49" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -10902,6 +10905,212 @@
       </c>
       <c r="BP49">
         <v>1.26</v>
+      </c>
+    </row>
+    <row r="50" spans="1:68">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>7321662</v>
+      </c>
+      <c r="C50" t="s">
+        <v>68</v>
+      </c>
+      <c r="D50" t="s">
+        <v>69</v>
+      </c>
+      <c r="E50" s="2">
+        <v>45388.52083333334</v>
+      </c>
+      <c r="F50">
+        <v>7</v>
+      </c>
+      <c r="G50" t="s">
+        <v>72</v>
+      </c>
+      <c r="H50" t="s">
+        <v>79</v>
+      </c>
+      <c r="I50">
+        <v>2</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>2</v>
+      </c>
+      <c r="L50">
+        <v>3</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>3</v>
+      </c>
+      <c r="O50" t="s">
+        <v>117</v>
+      </c>
+      <c r="P50" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q50">
+        <v>3.75</v>
+      </c>
+      <c r="R50">
+        <v>2.1</v>
+      </c>
+      <c r="S50">
+        <v>2.88</v>
+      </c>
+      <c r="T50">
+        <v>1.39</v>
+      </c>
+      <c r="U50">
+        <v>2.86</v>
+      </c>
+      <c r="V50">
+        <v>2.82</v>
+      </c>
+      <c r="W50">
+        <v>1.4</v>
+      </c>
+      <c r="X50">
+        <v>7.2</v>
+      </c>
+      <c r="Y50">
+        <v>1.08</v>
+      </c>
+      <c r="Z50">
+        <v>3.1</v>
+      </c>
+      <c r="AA50">
+        <v>3.45</v>
+      </c>
+      <c r="AB50">
+        <v>2.14</v>
+      </c>
+      <c r="AC50">
+        <v>1.05</v>
+      </c>
+      <c r="AD50">
+        <v>8.5</v>
+      </c>
+      <c r="AE50">
+        <v>1.3</v>
+      </c>
+      <c r="AF50">
+        <v>3.3</v>
+      </c>
+      <c r="AG50">
+        <v>2</v>
+      </c>
+      <c r="AH50">
+        <v>1.86</v>
+      </c>
+      <c r="AI50">
+        <v>1.73</v>
+      </c>
+      <c r="AJ50">
+        <v>2.05</v>
+      </c>
+      <c r="AK50">
+        <v>1.64</v>
+      </c>
+      <c r="AL50">
+        <v>1.29</v>
+      </c>
+      <c r="AM50">
+        <v>1.33</v>
+      </c>
+      <c r="AN50">
+        <v>1</v>
+      </c>
+      <c r="AO50">
+        <v>3</v>
+      </c>
+      <c r="AP50">
+        <v>1.5</v>
+      </c>
+      <c r="AQ50">
+        <v>2.25</v>
+      </c>
+      <c r="AR50">
+        <v>1.39</v>
+      </c>
+      <c r="AS50">
+        <v>1.76</v>
+      </c>
+      <c r="AT50">
+        <v>3.15</v>
+      </c>
+      <c r="AU50">
+        <v>8</v>
+      </c>
+      <c r="AV50">
+        <v>5</v>
+      </c>
+      <c r="AW50">
+        <v>4</v>
+      </c>
+      <c r="AX50">
+        <v>6</v>
+      </c>
+      <c r="AY50">
+        <v>12</v>
+      </c>
+      <c r="AZ50">
+        <v>11</v>
+      </c>
+      <c r="BA50">
+        <v>6</v>
+      </c>
+      <c r="BB50">
+        <v>3</v>
+      </c>
+      <c r="BC50">
+        <v>9</v>
+      </c>
+      <c r="BD50">
+        <v>2.05</v>
+      </c>
+      <c r="BE50">
+        <v>8</v>
+      </c>
+      <c r="BF50">
+        <v>1.95</v>
+      </c>
+      <c r="BG50">
+        <v>1.23</v>
+      </c>
+      <c r="BH50">
+        <v>3.5</v>
+      </c>
+      <c r="BI50">
+        <v>1.43</v>
+      </c>
+      <c r="BJ50">
+        <v>2.48</v>
+      </c>
+      <c r="BK50">
+        <v>1.82</v>
+      </c>
+      <c r="BL50">
+        <v>1.98</v>
+      </c>
+      <c r="BM50">
+        <v>2.25</v>
+      </c>
+      <c r="BN50">
+        <v>1.53</v>
+      </c>
+      <c r="BO50">
+        <v>3</v>
+      </c>
+      <c r="BP50">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Chile Primera División_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Chile Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="149">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -370,6 +370,18 @@
     <t>['15', '45+1', '88']</t>
   </si>
   <si>
+    <t>['45+5', '70', '90+1']</t>
+  </si>
+  <si>
+    <t>['3', '30']</t>
+  </si>
+  <si>
+    <t>['61', '90+1']</t>
+  </si>
+  <si>
+    <t>['76', '78']</t>
+  </si>
+  <si>
     <t>['13', '18', '77']</t>
   </si>
   <si>
@@ -446,6 +458,9 @@
   </si>
   <si>
     <t>['28', '61', '76']</t>
+  </si>
+  <si>
+    <t>['20', '68', '89']</t>
   </si>
 </sst>
 </file>
@@ -807,7 +822,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP50"/>
+  <dimension ref="A1:BP54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1144,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ2">
         <v>1</v>
@@ -1272,7 +1287,7 @@
         <v>86</v>
       </c>
       <c r="P3" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="Q3">
         <v>4.75</v>
@@ -1353,7 +1368,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ3">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1478,7 +1493,7 @@
         <v>87</v>
       </c>
       <c r="P4" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="Q4">
         <v>3.1</v>
@@ -1559,7 +1574,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ4">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1684,7 +1699,7 @@
         <v>88</v>
       </c>
       <c r="P5" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="Q5">
         <v>3.1</v>
@@ -1890,7 +1905,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="Q6">
         <v>2.75</v>
@@ -2096,7 +2111,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2174,7 +2189,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AQ7">
         <v>1</v>
@@ -2302,7 +2317,7 @@
         <v>90</v>
       </c>
       <c r="P8" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="Q8">
         <v>2.6</v>
@@ -2589,7 +2604,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ9">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2920,7 +2935,7 @@
         <v>93</v>
       </c>
       <c r="P11" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="Q11">
         <v>3.6</v>
@@ -3126,7 +3141,7 @@
         <v>86</v>
       </c>
       <c r="P12" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="Q12">
         <v>2.5</v>
@@ -3413,7 +3428,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ13">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3538,7 +3553,7 @@
         <v>95</v>
       </c>
       <c r="P14" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="Q14">
         <v>2.5</v>
@@ -3744,7 +3759,7 @@
         <v>96</v>
       </c>
       <c r="P15" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -3825,7 +3840,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ15">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR15">
         <v>1.77</v>
@@ -3950,7 +3965,7 @@
         <v>97</v>
       </c>
       <c r="P16" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="Q16">
         <v>3.75</v>
@@ -4156,7 +4171,7 @@
         <v>86</v>
       </c>
       <c r="P17" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="Q17">
         <v>2.54</v>
@@ -4362,7 +4377,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="Q18">
         <v>2.6</v>
@@ -4440,10 +4455,10 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ18">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR18">
         <v>1.33</v>
@@ -4980,7 +4995,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="Q21">
         <v>2.65</v>
@@ -5058,7 +5073,7 @@
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AQ21">
         <v>2.25</v>
@@ -5186,7 +5201,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="Q22">
         <v>3.75</v>
@@ -5392,7 +5407,7 @@
         <v>103</v>
       </c>
       <c r="P23" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="Q23">
         <v>2.69</v>
@@ -5679,7 +5694,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ24">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR24">
         <v>0.9</v>
@@ -6010,7 +6025,7 @@
         <v>105</v>
       </c>
       <c r="P26" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -6216,7 +6231,7 @@
         <v>86</v>
       </c>
       <c r="P27" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="Q27">
         <v>2.28</v>
@@ -6500,7 +6515,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ28">
         <v>0</v>
@@ -6628,7 +6643,7 @@
         <v>107</v>
       </c>
       <c r="P29" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="Q29">
         <v>2.75</v>
@@ -6706,7 +6721,7 @@
         <v>0.5</v>
       </c>
       <c r="AP29">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AQ29">
         <v>1</v>
@@ -6834,7 +6849,7 @@
         <v>86</v>
       </c>
       <c r="P30" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="Q30">
         <v>2.6</v>
@@ -6912,7 +6927,7 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AQ30">
         <v>1.5</v>
@@ -7121,7 +7136,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ31">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR31">
         <v>1.69</v>
@@ -7246,7 +7261,7 @@
         <v>108</v>
       </c>
       <c r="P32" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="Q32">
         <v>2.75</v>
@@ -7324,7 +7339,7 @@
         <v>3</v>
       </c>
       <c r="AP32">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ32">
         <v>1</v>
@@ -7533,7 +7548,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ33">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AR33">
         <v>0.72</v>
@@ -7945,7 +7960,7 @@
         <v>2</v>
       </c>
       <c r="AQ35">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR35">
         <v>2.24</v>
@@ -8560,10 +8575,10 @@
         <v>1</v>
       </c>
       <c r="AP38">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AQ38">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR38">
         <v>1.39</v>
@@ -8766,7 +8781,7 @@
         <v>3</v>
       </c>
       <c r="AP39">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AQ39">
         <v>1.67</v>
@@ -8972,7 +8987,7 @@
         <v>3</v>
       </c>
       <c r="AP40">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ40">
         <v>2.33</v>
@@ -9100,7 +9115,7 @@
         <v>112</v>
       </c>
       <c r="P41" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="Q41">
         <v>2.5</v>
@@ -9181,7 +9196,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ41">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR41">
         <v>1.14</v>
@@ -9306,7 +9321,7 @@
         <v>86</v>
       </c>
       <c r="P42" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9512,7 +9527,7 @@
         <v>86</v>
       </c>
       <c r="P43" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9718,7 +9733,7 @@
         <v>86</v>
       </c>
       <c r="P44" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="Q44">
         <v>2.95</v>
@@ -10130,7 +10145,7 @@
         <v>113</v>
       </c>
       <c r="P46" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="Q46">
         <v>2.3</v>
@@ -10542,7 +10557,7 @@
         <v>115</v>
       </c>
       <c r="P48" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="Q48">
         <v>3</v>
@@ -10748,7 +10763,7 @@
         <v>116</v>
       </c>
       <c r="P49" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -11111,6 +11126,830 @@
       </c>
       <c r="BP50">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:68">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>7321661</v>
+      </c>
+      <c r="C51" t="s">
+        <v>68</v>
+      </c>
+      <c r="D51" t="s">
+        <v>69</v>
+      </c>
+      <c r="E51" s="2">
+        <v>45388.625</v>
+      </c>
+      <c r="F51">
+        <v>7</v>
+      </c>
+      <c r="G51" t="s">
+        <v>70</v>
+      </c>
+      <c r="H51" t="s">
+        <v>83</v>
+      </c>
+      <c r="I51">
+        <v>1</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>1</v>
+      </c>
+      <c r="L51">
+        <v>3</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>3</v>
+      </c>
+      <c r="O51" t="s">
+        <v>118</v>
+      </c>
+      <c r="P51" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q51">
+        <v>4.33</v>
+      </c>
+      <c r="R51">
+        <v>2.05</v>
+      </c>
+      <c r="S51">
+        <v>2.8</v>
+      </c>
+      <c r="T51">
+        <v>1.44</v>
+      </c>
+      <c r="U51">
+        <v>2.6</v>
+      </c>
+      <c r="V51">
+        <v>3.05</v>
+      </c>
+      <c r="W51">
+        <v>1.33</v>
+      </c>
+      <c r="X51">
+        <v>7.9</v>
+      </c>
+      <c r="Y51">
+        <v>1.05</v>
+      </c>
+      <c r="Z51">
+        <v>3.21</v>
+      </c>
+      <c r="AA51">
+        <v>3.03</v>
+      </c>
+      <c r="AB51">
+        <v>2.08</v>
+      </c>
+      <c r="AC51">
+        <v>1.07</v>
+      </c>
+      <c r="AD51">
+        <v>9</v>
+      </c>
+      <c r="AE51">
+        <v>1.36</v>
+      </c>
+      <c r="AF51">
+        <v>3.1</v>
+      </c>
+      <c r="AG51">
+        <v>2.03</v>
+      </c>
+      <c r="AH51">
+        <v>1.65</v>
+      </c>
+      <c r="AI51">
+        <v>1.9</v>
+      </c>
+      <c r="AJ51">
+        <v>1.87</v>
+      </c>
+      <c r="AK51">
+        <v>1.78</v>
+      </c>
+      <c r="AL51">
+        <v>1.28</v>
+      </c>
+      <c r="AM51">
+        <v>1.28</v>
+      </c>
+      <c r="AN51">
+        <v>1.33</v>
+      </c>
+      <c r="AO51">
+        <v>1.33</v>
+      </c>
+      <c r="AP51">
+        <v>1.75</v>
+      </c>
+      <c r="AQ51">
+        <v>1</v>
+      </c>
+      <c r="AR51">
+        <v>1.36</v>
+      </c>
+      <c r="AS51">
+        <v>1.12</v>
+      </c>
+      <c r="AT51">
+        <v>2.48</v>
+      </c>
+      <c r="AU51">
+        <v>4</v>
+      </c>
+      <c r="AV51">
+        <v>4</v>
+      </c>
+      <c r="AW51">
+        <v>1</v>
+      </c>
+      <c r="AX51">
+        <v>9</v>
+      </c>
+      <c r="AY51">
+        <v>5</v>
+      </c>
+      <c r="AZ51">
+        <v>13</v>
+      </c>
+      <c r="BA51">
+        <v>7</v>
+      </c>
+      <c r="BB51">
+        <v>6</v>
+      </c>
+      <c r="BC51">
+        <v>13</v>
+      </c>
+      <c r="BD51">
+        <v>2.44</v>
+      </c>
+      <c r="BE51">
+        <v>8</v>
+      </c>
+      <c r="BF51">
+        <v>1.75</v>
+      </c>
+      <c r="BG51">
+        <v>1.29</v>
+      </c>
+      <c r="BH51">
+        <v>3.3</v>
+      </c>
+      <c r="BI51">
+        <v>1.58</v>
+      </c>
+      <c r="BJ51">
+        <v>2.23</v>
+      </c>
+      <c r="BK51">
+        <v>1.99</v>
+      </c>
+      <c r="BL51">
+        <v>1.73</v>
+      </c>
+      <c r="BM51">
+        <v>2.62</v>
+      </c>
+      <c r="BN51">
+        <v>1.43</v>
+      </c>
+      <c r="BO51">
+        <v>3.5</v>
+      </c>
+      <c r="BP51">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="52" spans="1:68">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>7321664</v>
+      </c>
+      <c r="C52" t="s">
+        <v>68</v>
+      </c>
+      <c r="D52" t="s">
+        <v>69</v>
+      </c>
+      <c r="E52" s="2">
+        <v>45388.72916666666</v>
+      </c>
+      <c r="F52">
+        <v>7</v>
+      </c>
+      <c r="G52" t="s">
+        <v>75</v>
+      </c>
+      <c r="H52" t="s">
+        <v>82</v>
+      </c>
+      <c r="I52">
+        <v>2</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>2</v>
+      </c>
+      <c r="L52">
+        <v>2</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>2</v>
+      </c>
+      <c r="O52" t="s">
+        <v>119</v>
+      </c>
+      <c r="P52" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q52">
+        <v>2.13</v>
+      </c>
+      <c r="R52">
+        <v>2.3</v>
+      </c>
+      <c r="S52">
+        <v>5</v>
+      </c>
+      <c r="T52">
+        <v>1.33</v>
+      </c>
+      <c r="U52">
+        <v>3.15</v>
+      </c>
+      <c r="V52">
+        <v>2.51</v>
+      </c>
+      <c r="W52">
+        <v>1.49</v>
+      </c>
+      <c r="X52">
+        <v>6</v>
+      </c>
+      <c r="Y52">
+        <v>1.11</v>
+      </c>
+      <c r="Z52">
+        <v>1.59</v>
+      </c>
+      <c r="AA52">
+        <v>3.51</v>
+      </c>
+      <c r="AB52">
+        <v>4.32</v>
+      </c>
+      <c r="AC52">
+        <v>1.02</v>
+      </c>
+      <c r="AD52">
+        <v>10</v>
+      </c>
+      <c r="AE52">
+        <v>1.2</v>
+      </c>
+      <c r="AF52">
+        <v>3.88</v>
+      </c>
+      <c r="AG52">
+        <v>1.68</v>
+      </c>
+      <c r="AH52">
+        <v>1.98</v>
+      </c>
+      <c r="AI52">
+        <v>1.73</v>
+      </c>
+      <c r="AJ52">
+        <v>1.99</v>
+      </c>
+      <c r="AK52">
+        <v>1.15</v>
+      </c>
+      <c r="AL52">
+        <v>1.22</v>
+      </c>
+      <c r="AM52">
+        <v>2.24</v>
+      </c>
+      <c r="AN52">
+        <v>0.33</v>
+      </c>
+      <c r="AO52">
+        <v>0.33</v>
+      </c>
+      <c r="AP52">
+        <v>1</v>
+      </c>
+      <c r="AQ52">
+        <v>0.25</v>
+      </c>
+      <c r="AR52">
+        <v>1.58</v>
+      </c>
+      <c r="AS52">
+        <v>1.29</v>
+      </c>
+      <c r="AT52">
+        <v>2.87</v>
+      </c>
+      <c r="AU52">
+        <v>6</v>
+      </c>
+      <c r="AV52">
+        <v>2</v>
+      </c>
+      <c r="AW52">
+        <v>7</v>
+      </c>
+      <c r="AX52">
+        <v>7</v>
+      </c>
+      <c r="AY52">
+        <v>13</v>
+      </c>
+      <c r="AZ52">
+        <v>9</v>
+      </c>
+      <c r="BA52">
+        <v>8</v>
+      </c>
+      <c r="BB52">
+        <v>3</v>
+      </c>
+      <c r="BC52">
+        <v>11</v>
+      </c>
+      <c r="BD52">
+        <v>1.55</v>
+      </c>
+      <c r="BE52">
+        <v>8.5</v>
+      </c>
+      <c r="BF52">
+        <v>2.91</v>
+      </c>
+      <c r="BG52">
+        <v>1.24</v>
+      </c>
+      <c r="BH52">
+        <v>3.45</v>
+      </c>
+      <c r="BI52">
+        <v>1.48</v>
+      </c>
+      <c r="BJ52">
+        <v>2.47</v>
+      </c>
+      <c r="BK52">
+        <v>1.88</v>
+      </c>
+      <c r="BL52">
+        <v>1.92</v>
+      </c>
+      <c r="BM52">
+        <v>2.37</v>
+      </c>
+      <c r="BN52">
+        <v>1.51</v>
+      </c>
+      <c r="BO52">
+        <v>3.2</v>
+      </c>
+      <c r="BP52">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:68">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>7321665</v>
+      </c>
+      <c r="C53" t="s">
+        <v>68</v>
+      </c>
+      <c r="D53" t="s">
+        <v>69</v>
+      </c>
+      <c r="E53" s="2">
+        <v>45388.83333333334</v>
+      </c>
+      <c r="F53">
+        <v>7</v>
+      </c>
+      <c r="G53" t="s">
+        <v>85</v>
+      </c>
+      <c r="H53" t="s">
+        <v>74</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>2</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>2</v>
+      </c>
+      <c r="O53" t="s">
+        <v>120</v>
+      </c>
+      <c r="P53" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q53">
+        <v>2.36</v>
+      </c>
+      <c r="R53">
+        <v>2.11</v>
+      </c>
+      <c r="S53">
+        <v>4.85</v>
+      </c>
+      <c r="T53">
+        <v>1.42</v>
+      </c>
+      <c r="U53">
+        <v>2.74</v>
+      </c>
+      <c r="V53">
+        <v>2.94</v>
+      </c>
+      <c r="W53">
+        <v>1.37</v>
+      </c>
+      <c r="X53">
+        <v>7.6</v>
+      </c>
+      <c r="Y53">
+        <v>1.07</v>
+      </c>
+      <c r="Z53">
+        <v>1.86</v>
+      </c>
+      <c r="AA53">
+        <v>3.15</v>
+      </c>
+      <c r="AB53">
+        <v>3.76</v>
+      </c>
+      <c r="AC53">
+        <v>1.02</v>
+      </c>
+      <c r="AD53">
+        <v>8.5</v>
+      </c>
+      <c r="AE53">
+        <v>1.3</v>
+      </c>
+      <c r="AF53">
+        <v>3.08</v>
+      </c>
+      <c r="AG53">
+        <v>1.94</v>
+      </c>
+      <c r="AH53">
+        <v>1.71</v>
+      </c>
+      <c r="AI53">
+        <v>1.87</v>
+      </c>
+      <c r="AJ53">
+        <v>1.83</v>
+      </c>
+      <c r="AK53">
+        <v>1.2</v>
+      </c>
+      <c r="AL53">
+        <v>1.27</v>
+      </c>
+      <c r="AM53">
+        <v>1.95</v>
+      </c>
+      <c r="AN53">
+        <v>2</v>
+      </c>
+      <c r="AO53">
+        <v>1</v>
+      </c>
+      <c r="AP53">
+        <v>2.33</v>
+      </c>
+      <c r="AQ53">
+        <v>0.8</v>
+      </c>
+      <c r="AR53">
+        <v>1.66</v>
+      </c>
+      <c r="AS53">
+        <v>1.02</v>
+      </c>
+      <c r="AT53">
+        <v>2.68</v>
+      </c>
+      <c r="AU53">
+        <v>10</v>
+      </c>
+      <c r="AV53">
+        <v>6</v>
+      </c>
+      <c r="AW53">
+        <v>5</v>
+      </c>
+      <c r="AX53">
+        <v>4</v>
+      </c>
+      <c r="AY53">
+        <v>15</v>
+      </c>
+      <c r="AZ53">
+        <v>10</v>
+      </c>
+      <c r="BA53">
+        <v>16</v>
+      </c>
+      <c r="BB53">
+        <v>6</v>
+      </c>
+      <c r="BC53">
+        <v>22</v>
+      </c>
+      <c r="BD53">
+        <v>1.51</v>
+      </c>
+      <c r="BE53">
+        <v>8.5</v>
+      </c>
+      <c r="BF53">
+        <v>3.16</v>
+      </c>
+      <c r="BG53">
+        <v>1.22</v>
+      </c>
+      <c r="BH53">
+        <v>3.55</v>
+      </c>
+      <c r="BI53">
+        <v>1.45</v>
+      </c>
+      <c r="BJ53">
+        <v>2.55</v>
+      </c>
+      <c r="BK53">
+        <v>1.8</v>
+      </c>
+      <c r="BL53">
+        <v>2</v>
+      </c>
+      <c r="BM53">
+        <v>2.32</v>
+      </c>
+      <c r="BN53">
+        <v>1.54</v>
+      </c>
+      <c r="BO53">
+        <v>3.1</v>
+      </c>
+      <c r="BP53">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="54" spans="1:68">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>7321667</v>
+      </c>
+      <c r="C54" t="s">
+        <v>68</v>
+      </c>
+      <c r="D54" t="s">
+        <v>69</v>
+      </c>
+      <c r="E54" s="2">
+        <v>45389.66666666666</v>
+      </c>
+      <c r="F54">
+        <v>7</v>
+      </c>
+      <c r="G54" t="s">
+        <v>84</v>
+      </c>
+      <c r="H54" t="s">
+        <v>81</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>1</v>
+      </c>
+      <c r="K54">
+        <v>1</v>
+      </c>
+      <c r="L54">
+        <v>2</v>
+      </c>
+      <c r="M54">
+        <v>3</v>
+      </c>
+      <c r="N54">
+        <v>5</v>
+      </c>
+      <c r="O54" t="s">
+        <v>121</v>
+      </c>
+      <c r="P54" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q54">
+        <v>3.1</v>
+      </c>
+      <c r="R54">
+        <v>2</v>
+      </c>
+      <c r="S54">
+        <v>3.6</v>
+      </c>
+      <c r="T54">
+        <v>1.46</v>
+      </c>
+      <c r="U54">
+        <v>2.55</v>
+      </c>
+      <c r="V54">
+        <v>3.2</v>
+      </c>
+      <c r="W54">
+        <v>1.31</v>
+      </c>
+      <c r="X54">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="Y54">
+        <v>1.04</v>
+      </c>
+      <c r="Z54">
+        <v>2.35</v>
+      </c>
+      <c r="AA54">
+        <v>2.95</v>
+      </c>
+      <c r="AB54">
+        <v>2.8</v>
+      </c>
+      <c r="AC54">
+        <v>1.07</v>
+      </c>
+      <c r="AD54">
+        <v>7</v>
+      </c>
+      <c r="AE54">
+        <v>1.38</v>
+      </c>
+      <c r="AF54">
+        <v>2.8</v>
+      </c>
+      <c r="AG54">
+        <v>2.15</v>
+      </c>
+      <c r="AH54">
+        <v>1.62</v>
+      </c>
+      <c r="AI54">
+        <v>1.89</v>
+      </c>
+      <c r="AJ54">
+        <v>1.88</v>
+      </c>
+      <c r="AK54">
+        <v>1.4</v>
+      </c>
+      <c r="AL54">
+        <v>1.35</v>
+      </c>
+      <c r="AM54">
+        <v>1.55</v>
+      </c>
+      <c r="AN54">
+        <v>0.33</v>
+      </c>
+      <c r="AO54">
+        <v>1.5</v>
+      </c>
+      <c r="AP54">
+        <v>0.25</v>
+      </c>
+      <c r="AQ54">
+        <v>2</v>
+      </c>
+      <c r="AR54">
+        <v>1.39</v>
+      </c>
+      <c r="AS54">
+        <v>1.63</v>
+      </c>
+      <c r="AT54">
+        <v>3.02</v>
+      </c>
+      <c r="AU54">
+        <v>7</v>
+      </c>
+      <c r="AV54">
+        <v>2</v>
+      </c>
+      <c r="AW54">
+        <v>5</v>
+      </c>
+      <c r="AX54">
+        <v>1</v>
+      </c>
+      <c r="AY54">
+        <v>12</v>
+      </c>
+      <c r="AZ54">
+        <v>3</v>
+      </c>
+      <c r="BA54">
+        <v>7</v>
+      </c>
+      <c r="BB54">
+        <v>2</v>
+      </c>
+      <c r="BC54">
+        <v>9</v>
+      </c>
+      <c r="BD54">
+        <v>1.95</v>
+      </c>
+      <c r="BE54">
+        <v>8</v>
+      </c>
+      <c r="BF54">
+        <v>2.05</v>
+      </c>
+      <c r="BG54">
+        <v>1.21</v>
+      </c>
+      <c r="BH54">
+        <v>3.7</v>
+      </c>
+      <c r="BI54">
+        <v>1.43</v>
+      </c>
+      <c r="BJ54">
+        <v>2.62</v>
+      </c>
+      <c r="BK54">
+        <v>1.73</v>
+      </c>
+      <c r="BL54">
+        <v>1.99</v>
+      </c>
+      <c r="BM54">
+        <v>2.22</v>
+      </c>
+      <c r="BN54">
+        <v>1.59</v>
+      </c>
+      <c r="BO54">
+        <v>2.95</v>
+      </c>
+      <c r="BP54">
+        <v>1.35</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Chile Primera División_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Chile Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="152">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -382,6 +382,9 @@
     <t>['76', '78']</t>
   </si>
   <si>
+    <t>['45+2', '58']</t>
+  </si>
+  <si>
     <t>['13', '18', '77']</t>
   </si>
   <si>
@@ -461,6 +464,12 @@
   </si>
   <si>
     <t>['20', '68', '89']</t>
+  </si>
+  <si>
+    <t>['45+7']</t>
+  </si>
+  <si>
+    <t>['56']</t>
   </si>
 </sst>
 </file>
@@ -822,7 +831,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP54"/>
+  <dimension ref="A1:BP56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1287,7 +1296,7 @@
         <v>86</v>
       </c>
       <c r="P3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q3">
         <v>4.75</v>
@@ -1365,7 +1374,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AQ3">
         <v>1</v>
@@ -1493,7 +1502,7 @@
         <v>87</v>
       </c>
       <c r="P4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q4">
         <v>3.1</v>
@@ -1699,7 +1708,7 @@
         <v>88</v>
       </c>
       <c r="P5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q5">
         <v>3.1</v>
@@ -1905,7 +1914,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q6">
         <v>2.75</v>
@@ -2111,7 +2120,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2317,7 +2326,7 @@
         <v>90</v>
       </c>
       <c r="P8" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q8">
         <v>2.6</v>
@@ -2395,7 +2404,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ8">
         <v>0</v>
@@ -2810,7 +2819,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ10">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -2935,7 +2944,7 @@
         <v>93</v>
       </c>
       <c r="P11" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q11">
         <v>3.6</v>
@@ -3141,7 +3150,7 @@
         <v>86</v>
       </c>
       <c r="P12" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q12">
         <v>2.5</v>
@@ -3553,7 +3562,7 @@
         <v>95</v>
       </c>
       <c r="P14" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q14">
         <v>2.5</v>
@@ -3759,7 +3768,7 @@
         <v>96</v>
       </c>
       <c r="P15" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -3965,7 +3974,7 @@
         <v>97</v>
       </c>
       <c r="P16" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q16">
         <v>3.75</v>
@@ -4171,7 +4180,7 @@
         <v>86</v>
       </c>
       <c r="P17" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q17">
         <v>2.54</v>
@@ -4377,7 +4386,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q18">
         <v>2.6</v>
@@ -4661,7 +4670,7 @@
         <v>1</v>
       </c>
       <c r="AP19">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AQ19">
         <v>1</v>
@@ -4995,7 +5004,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q21">
         <v>2.65</v>
@@ -5201,7 +5210,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q22">
         <v>3.75</v>
@@ -5407,7 +5416,7 @@
         <v>103</v>
       </c>
       <c r="P23" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q23">
         <v>2.69</v>
@@ -5691,7 +5700,7 @@
         <v>1.5</v>
       </c>
       <c r="AP24">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AQ24">
         <v>0.8</v>
@@ -6025,7 +6034,7 @@
         <v>105</v>
       </c>
       <c r="P26" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -6231,7 +6240,7 @@
         <v>86</v>
       </c>
       <c r="P27" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q27">
         <v>2.28</v>
@@ -6643,7 +6652,7 @@
         <v>107</v>
       </c>
       <c r="P29" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q29">
         <v>2.75</v>
@@ -6849,7 +6858,7 @@
         <v>86</v>
       </c>
       <c r="P30" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q30">
         <v>2.6</v>
@@ -6930,7 +6939,7 @@
         <v>0.25</v>
       </c>
       <c r="AQ30">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR30">
         <v>1.72</v>
@@ -7261,7 +7270,7 @@
         <v>108</v>
       </c>
       <c r="P32" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q32">
         <v>2.75</v>
@@ -7957,7 +7966,7 @@
         <v>1.5</v>
       </c>
       <c r="AP35">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ35">
         <v>1</v>
@@ -9115,7 +9124,7 @@
         <v>112</v>
       </c>
       <c r="P41" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q41">
         <v>2.5</v>
@@ -9321,7 +9330,7 @@
         <v>86</v>
       </c>
       <c r="P42" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9527,7 +9536,7 @@
         <v>86</v>
       </c>
       <c r="P43" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9733,7 +9742,7 @@
         <v>86</v>
       </c>
       <c r="P44" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q44">
         <v>2.95</v>
@@ -10145,7 +10154,7 @@
         <v>113</v>
       </c>
       <c r="P46" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q46">
         <v>2.3</v>
@@ -10557,7 +10566,7 @@
         <v>115</v>
       </c>
       <c r="P48" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q48">
         <v>3</v>
@@ -10763,7 +10772,7 @@
         <v>116</v>
       </c>
       <c r="P49" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -10841,7 +10850,7 @@
         <v>1.5</v>
       </c>
       <c r="AP49">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AQ49">
         <v>1</v>
@@ -11062,22 +11071,22 @@
         <v>3.15</v>
       </c>
       <c r="AU50">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AV50">
         <v>5</v>
       </c>
       <c r="AW50">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AX50">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AY50">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AZ50">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="BA50">
         <v>6</v>
@@ -11268,22 +11277,22 @@
         <v>2.48</v>
       </c>
       <c r="AU51">
+        <v>7</v>
+      </c>
+      <c r="AV51">
+        <v>3</v>
+      </c>
+      <c r="AW51">
         <v>4</v>
-      </c>
-      <c r="AV51">
-        <v>4</v>
-      </c>
-      <c r="AW51">
-        <v>1</v>
       </c>
       <c r="AX51">
         <v>9</v>
       </c>
       <c r="AY51">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AZ51">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BA51">
         <v>7</v>
@@ -11480,16 +11489,16 @@
         <v>2</v>
       </c>
       <c r="AW52">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AX52">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AY52">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AZ52">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BA52">
         <v>8</v>
@@ -11793,7 +11802,7 @@
         <v>121</v>
       </c>
       <c r="P54" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q54">
         <v>3.1</v>
@@ -11886,31 +11895,31 @@
         <v>3.02</v>
       </c>
       <c r="AU54">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV54">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AW54">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX54">
         <v>1</v>
       </c>
       <c r="AY54">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AZ54">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BA54">
         <v>7</v>
       </c>
       <c r="BB54">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BC54">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD54">
         <v>1.95</v>
@@ -11950,6 +11959,418 @@
       </c>
       <c r="BP54">
         <v>1.35</v>
+      </c>
+    </row>
+    <row r="55" spans="1:68">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>7321663</v>
+      </c>
+      <c r="C55" t="s">
+        <v>68</v>
+      </c>
+      <c r="D55" t="s">
+        <v>69</v>
+      </c>
+      <c r="E55" s="2">
+        <v>45389.77083333334</v>
+      </c>
+      <c r="F55">
+        <v>7</v>
+      </c>
+      <c r="G55" t="s">
+        <v>76</v>
+      </c>
+      <c r="H55" t="s">
+        <v>73</v>
+      </c>
+      <c r="I55">
+        <v>1</v>
+      </c>
+      <c r="J55">
+        <v>1</v>
+      </c>
+      <c r="K55">
+        <v>2</v>
+      </c>
+      <c r="L55">
+        <v>2</v>
+      </c>
+      <c r="M55">
+        <v>1</v>
+      </c>
+      <c r="N55">
+        <v>3</v>
+      </c>
+      <c r="O55" t="s">
+        <v>122</v>
+      </c>
+      <c r="P55" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q55">
+        <v>3.1</v>
+      </c>
+      <c r="R55">
+        <v>2.1</v>
+      </c>
+      <c r="S55">
+        <v>3.4</v>
+      </c>
+      <c r="T55">
+        <v>1.39</v>
+      </c>
+      <c r="U55">
+        <v>2.86</v>
+      </c>
+      <c r="V55">
+        <v>2.82</v>
+      </c>
+      <c r="W55">
+        <v>1.4</v>
+      </c>
+      <c r="X55">
+        <v>7.2</v>
+      </c>
+      <c r="Y55">
+        <v>1.08</v>
+      </c>
+      <c r="Z55">
+        <v>2.3</v>
+      </c>
+      <c r="AA55">
+        <v>3.25</v>
+      </c>
+      <c r="AB55">
+        <v>2.65</v>
+      </c>
+      <c r="AC55">
+        <v>1.05</v>
+      </c>
+      <c r="AD55">
+        <v>7.8</v>
+      </c>
+      <c r="AE55">
+        <v>1.28</v>
+      </c>
+      <c r="AF55">
+        <v>3.3</v>
+      </c>
+      <c r="AG55">
+        <v>1.9</v>
+      </c>
+      <c r="AH55">
+        <v>1.8</v>
+      </c>
+      <c r="AI55">
+        <v>1.72</v>
+      </c>
+      <c r="AJ55">
+        <v>2.07</v>
+      </c>
+      <c r="AK55">
+        <v>1.41</v>
+      </c>
+      <c r="AL55">
+        <v>1.3</v>
+      </c>
+      <c r="AM55">
+        <v>1.53</v>
+      </c>
+      <c r="AN55">
+        <v>2</v>
+      </c>
+      <c r="AO55">
+        <v>1.5</v>
+      </c>
+      <c r="AP55">
+        <v>2.33</v>
+      </c>
+      <c r="AQ55">
+        <v>1</v>
+      </c>
+      <c r="AR55">
+        <v>1.44</v>
+      </c>
+      <c r="AS55">
+        <v>0.99</v>
+      </c>
+      <c r="AT55">
+        <v>2.43</v>
+      </c>
+      <c r="AU55">
+        <v>7</v>
+      </c>
+      <c r="AV55">
+        <v>3</v>
+      </c>
+      <c r="AW55">
+        <v>6</v>
+      </c>
+      <c r="AX55">
+        <v>1</v>
+      </c>
+      <c r="AY55">
+        <v>13</v>
+      </c>
+      <c r="AZ55">
+        <v>4</v>
+      </c>
+      <c r="BA55">
+        <v>6</v>
+      </c>
+      <c r="BB55">
+        <v>4</v>
+      </c>
+      <c r="BC55">
+        <v>10</v>
+      </c>
+      <c r="BD55">
+        <v>1.82</v>
+      </c>
+      <c r="BE55">
+        <v>8</v>
+      </c>
+      <c r="BF55">
+        <v>2.39</v>
+      </c>
+      <c r="BG55">
+        <v>1.22</v>
+      </c>
+      <c r="BH55">
+        <v>3.55</v>
+      </c>
+      <c r="BI55">
+        <v>1.42</v>
+      </c>
+      <c r="BJ55">
+        <v>2.5</v>
+      </c>
+      <c r="BK55">
+        <v>1.8</v>
+      </c>
+      <c r="BL55">
+        <v>2</v>
+      </c>
+      <c r="BM55">
+        <v>2.2</v>
+      </c>
+      <c r="BN55">
+        <v>1.55</v>
+      </c>
+      <c r="BO55">
+        <v>2.95</v>
+      </c>
+      <c r="BP55">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="56" spans="1:68">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>7321786</v>
+      </c>
+      <c r="C56" t="s">
+        <v>68</v>
+      </c>
+      <c r="D56" t="s">
+        <v>69</v>
+      </c>
+      <c r="E56" s="2">
+        <v>45389.875</v>
+      </c>
+      <c r="F56">
+        <v>7</v>
+      </c>
+      <c r="G56" t="s">
+        <v>71</v>
+      </c>
+      <c r="H56" t="s">
+        <v>77</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>1</v>
+      </c>
+      <c r="N56">
+        <v>1</v>
+      </c>
+      <c r="O56" t="s">
+        <v>86</v>
+      </c>
+      <c r="P56" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q56">
+        <v>3.4</v>
+      </c>
+      <c r="R56">
+        <v>2.2</v>
+      </c>
+      <c r="S56">
+        <v>3.1</v>
+      </c>
+      <c r="T56">
+        <v>1.4</v>
+      </c>
+      <c r="U56">
+        <v>2.75</v>
+      </c>
+      <c r="V56">
+        <v>2.75</v>
+      </c>
+      <c r="W56">
+        <v>1.4</v>
+      </c>
+      <c r="X56">
+        <v>8</v>
+      </c>
+      <c r="Y56">
+        <v>1.08</v>
+      </c>
+      <c r="Z56">
+        <v>2.7</v>
+      </c>
+      <c r="AA56">
+        <v>3.15</v>
+      </c>
+      <c r="AB56">
+        <v>2.3</v>
+      </c>
+      <c r="AC56">
+        <v>1.05</v>
+      </c>
+      <c r="AD56">
+        <v>11</v>
+      </c>
+      <c r="AE56">
+        <v>1.3</v>
+      </c>
+      <c r="AF56">
+        <v>3.4</v>
+      </c>
+      <c r="AG56">
+        <v>1.85</v>
+      </c>
+      <c r="AH56">
+        <v>1.85</v>
+      </c>
+      <c r="AI56">
+        <v>1.67</v>
+      </c>
+      <c r="AJ56">
+        <v>2.1</v>
+      </c>
+      <c r="AK56">
+        <v>1.44</v>
+      </c>
+      <c r="AL56">
+        <v>1.25</v>
+      </c>
+      <c r="AM56">
+        <v>1.57</v>
+      </c>
+      <c r="AN56">
+        <v>2.25</v>
+      </c>
+      <c r="AO56">
+        <v>3</v>
+      </c>
+      <c r="AP56">
+        <v>1.8</v>
+      </c>
+      <c r="AQ56">
+        <v>3</v>
+      </c>
+      <c r="AR56">
+        <v>1.34</v>
+      </c>
+      <c r="AS56">
+        <v>1.98</v>
+      </c>
+      <c r="AT56">
+        <v>3.32</v>
+      </c>
+      <c r="AU56">
+        <v>5</v>
+      </c>
+      <c r="AV56">
+        <v>3</v>
+      </c>
+      <c r="AW56">
+        <v>6</v>
+      </c>
+      <c r="AX56">
+        <v>6</v>
+      </c>
+      <c r="AY56">
+        <v>11</v>
+      </c>
+      <c r="AZ56">
+        <v>9</v>
+      </c>
+      <c r="BA56">
+        <v>1</v>
+      </c>
+      <c r="BB56">
+        <v>8</v>
+      </c>
+      <c r="BC56">
+        <v>9</v>
+      </c>
+      <c r="BD56">
+        <v>2.2</v>
+      </c>
+      <c r="BE56">
+        <v>8</v>
+      </c>
+      <c r="BF56">
+        <v>1.91</v>
+      </c>
+      <c r="BG56">
+        <v>1.28</v>
+      </c>
+      <c r="BH56">
+        <v>3.35</v>
+      </c>
+      <c r="BI56">
+        <v>1.53</v>
+      </c>
+      <c r="BJ56">
+        <v>2.33</v>
+      </c>
+      <c r="BK56">
+        <v>1.99</v>
+      </c>
+      <c r="BL56">
+        <v>1.73</v>
+      </c>
+      <c r="BM56">
+        <v>2.62</v>
+      </c>
+      <c r="BN56">
+        <v>1.43</v>
+      </c>
+      <c r="BO56">
+        <v>3.5</v>
+      </c>
+      <c r="BP56">
+        <v>1.23</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Chile Primera División_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Chile Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="158">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -385,6 +385,12 @@
     <t>['45+2', '58']</t>
   </si>
   <si>
+    <t>['26', '86', '90+2', '90+6']</t>
+  </si>
+  <si>
+    <t>['33', '61']</t>
+  </si>
+  <si>
     <t>['13', '18', '77']</t>
   </si>
   <si>
@@ -470,6 +476,18 @@
   </si>
   <si>
     <t>['56']</t>
+  </si>
+  <si>
+    <t>['74', '81']</t>
+  </si>
+  <si>
+    <t>['16', '39', '90+1']</t>
+  </si>
+  <si>
+    <t>['88']</t>
+  </si>
+  <si>
+    <t>['41', '88']</t>
   </si>
 </sst>
 </file>
@@ -831,7 +849,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP56"/>
+  <dimension ref="A1:BP61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1168,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ2">
         <v>1</v>
@@ -1296,7 +1314,7 @@
         <v>86</v>
       </c>
       <c r="P3" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="Q3">
         <v>4.75</v>
@@ -1374,7 +1392,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AQ3">
         <v>1</v>
@@ -1502,7 +1520,7 @@
         <v>87</v>
       </c>
       <c r="P4" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q4">
         <v>3.1</v>
@@ -1708,7 +1726,7 @@
         <v>88</v>
       </c>
       <c r="P5" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q5">
         <v>3.1</v>
@@ -1789,7 +1807,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ5">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -1914,7 +1932,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q6">
         <v>2.75</v>
@@ -2120,7 +2138,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2326,7 +2344,7 @@
         <v>90</v>
       </c>
       <c r="P8" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q8">
         <v>2.6</v>
@@ -2610,7 +2628,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ9">
         <v>0.8</v>
@@ -2944,7 +2962,7 @@
         <v>93</v>
       </c>
       <c r="P11" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q11">
         <v>3.6</v>
@@ -3022,10 +3040,10 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ11">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3150,7 +3168,7 @@
         <v>86</v>
       </c>
       <c r="P12" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q12">
         <v>2.5</v>
@@ -3434,7 +3452,7 @@
         <v>3</v>
       </c>
       <c r="AP13">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ13">
         <v>1</v>
@@ -3562,7 +3580,7 @@
         <v>95</v>
       </c>
       <c r="P14" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q14">
         <v>2.5</v>
@@ -3768,7 +3786,7 @@
         <v>96</v>
       </c>
       <c r="P15" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -3974,7 +3992,7 @@
         <v>97</v>
       </c>
       <c r="P16" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q16">
         <v>3.75</v>
@@ -4052,10 +4070,10 @@
         <v>1</v>
       </c>
       <c r="AP16">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ16">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR16">
         <v>1.64</v>
@@ -4180,7 +4198,7 @@
         <v>86</v>
       </c>
       <c r="P17" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q17">
         <v>2.54</v>
@@ -4261,7 +4279,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ17">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AR17">
         <v>1.44</v>
@@ -4386,7 +4404,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q18">
         <v>2.6</v>
@@ -4464,7 +4482,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ18">
         <v>0.8</v>
@@ -4670,7 +4688,7 @@
         <v>1</v>
       </c>
       <c r="AP19">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AQ19">
         <v>1</v>
@@ -4879,7 +4897,7 @@
         <v>2</v>
       </c>
       <c r="AQ20">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR20">
         <v>0</v>
@@ -5004,7 +5022,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q21">
         <v>2.65</v>
@@ -5210,7 +5228,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q22">
         <v>3.75</v>
@@ -5416,7 +5434,7 @@
         <v>103</v>
       </c>
       <c r="P23" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q23">
         <v>2.69</v>
@@ -5497,7 +5515,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ23">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR23">
         <v>1.09</v>
@@ -5700,7 +5718,7 @@
         <v>1.5</v>
       </c>
       <c r="AP24">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AQ24">
         <v>0.8</v>
@@ -5906,10 +5924,10 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ25">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AR25">
         <v>1.54</v>
@@ -6034,7 +6052,7 @@
         <v>105</v>
       </c>
       <c r="P26" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -6112,7 +6130,7 @@
         <v>0.5</v>
       </c>
       <c r="AP26">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ26">
         <v>1</v>
@@ -6240,7 +6258,7 @@
         <v>86</v>
       </c>
       <c r="P27" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q27">
         <v>2.28</v>
@@ -6524,7 +6542,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ28">
         <v>0</v>
@@ -6652,7 +6670,7 @@
         <v>107</v>
       </c>
       <c r="P29" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q29">
         <v>2.75</v>
@@ -6733,7 +6751,7 @@
         <v>1</v>
       </c>
       <c r="AQ29">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR29">
         <v>1.22</v>
@@ -6858,7 +6876,7 @@
         <v>86</v>
       </c>
       <c r="P30" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q30">
         <v>2.6</v>
@@ -7142,7 +7160,7 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ31">
         <v>0.25</v>
@@ -7270,7 +7288,7 @@
         <v>108</v>
       </c>
       <c r="P32" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q32">
         <v>2.75</v>
@@ -7554,7 +7572,7 @@
         <v>3</v>
       </c>
       <c r="AP33">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ33">
         <v>2</v>
@@ -8793,7 +8811,7 @@
         <v>0.25</v>
       </c>
       <c r="AQ39">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AR39">
         <v>1.45</v>
@@ -8999,7 +9017,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ40">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AR40">
         <v>2.2</v>
@@ -9124,7 +9142,7 @@
         <v>112</v>
       </c>
       <c r="P41" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q41">
         <v>2.5</v>
@@ -9202,7 +9220,7 @@
         <v>0</v>
       </c>
       <c r="AP41">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ41">
         <v>0.25</v>
@@ -9330,7 +9348,7 @@
         <v>86</v>
       </c>
       <c r="P42" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9536,7 +9554,7 @@
         <v>86</v>
       </c>
       <c r="P43" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9614,7 +9632,7 @@
         <v>3</v>
       </c>
       <c r="AP43">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ43">
         <v>2.25</v>
@@ -9742,7 +9760,7 @@
         <v>86</v>
       </c>
       <c r="P44" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q44">
         <v>2.95</v>
@@ -9823,7 +9841,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ44">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AR44">
         <v>1.55</v>
@@ -10029,7 +10047,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ45">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AR45">
         <v>1.64</v>
@@ -10154,7 +10172,7 @@
         <v>113</v>
       </c>
       <c r="P46" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q46">
         <v>2.3</v>
@@ -10235,7 +10253,7 @@
         <v>2</v>
       </c>
       <c r="AQ46">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR46">
         <v>1.53</v>
@@ -10566,7 +10584,7 @@
         <v>115</v>
       </c>
       <c r="P48" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q48">
         <v>3</v>
@@ -10772,7 +10790,7 @@
         <v>116</v>
       </c>
       <c r="P49" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -10850,7 +10868,7 @@
         <v>1.5</v>
       </c>
       <c r="AP49">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AQ49">
         <v>1</v>
@@ -11262,7 +11280,7 @@
         <v>1.33</v>
       </c>
       <c r="AP51">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ51">
         <v>1</v>
@@ -11802,7 +11820,7 @@
         <v>121</v>
       </c>
       <c r="P54" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q54">
         <v>3.1</v>
@@ -12008,7 +12026,7 @@
         <v>122</v>
       </c>
       <c r="P55" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q55">
         <v>3.1</v>
@@ -12214,7 +12232,7 @@
         <v>86</v>
       </c>
       <c r="P56" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q56">
         <v>3.4</v>
@@ -12292,7 +12310,7 @@
         <v>3</v>
       </c>
       <c r="AP56">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AQ56">
         <v>3</v>
@@ -12371,6 +12389,1036 @@
       </c>
       <c r="BP56">
         <v>1.23</v>
+      </c>
+    </row>
+    <row r="57" spans="1:68">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>7321674</v>
+      </c>
+      <c r="C57" t="s">
+        <v>68</v>
+      </c>
+      <c r="D57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E57" s="2">
+        <v>45395.77083333334</v>
+      </c>
+      <c r="F57">
+        <v>8</v>
+      </c>
+      <c r="G57" t="s">
+        <v>71</v>
+      </c>
+      <c r="H57" t="s">
+        <v>85</v>
+      </c>
+      <c r="I57">
+        <v>1</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>1</v>
+      </c>
+      <c r="L57">
+        <v>4</v>
+      </c>
+      <c r="M57">
+        <v>2</v>
+      </c>
+      <c r="N57">
+        <v>6</v>
+      </c>
+      <c r="O57" t="s">
+        <v>123</v>
+      </c>
+      <c r="P57" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q57">
+        <v>3.25</v>
+      </c>
+      <c r="R57">
+        <v>2.04</v>
+      </c>
+      <c r="S57">
+        <v>3.25</v>
+      </c>
+      <c r="T57">
+        <v>1.42</v>
+      </c>
+      <c r="U57">
+        <v>2.74</v>
+      </c>
+      <c r="V57">
+        <v>2.86</v>
+      </c>
+      <c r="W57">
+        <v>1.39</v>
+      </c>
+      <c r="X57">
+        <v>7.3</v>
+      </c>
+      <c r="Y57">
+        <v>1.07</v>
+      </c>
+      <c r="Z57">
+        <v>2.55</v>
+      </c>
+      <c r="AA57">
+        <v>3</v>
+      </c>
+      <c r="AB57">
+        <v>2.55</v>
+      </c>
+      <c r="AC57">
+        <v>1.03</v>
+      </c>
+      <c r="AD57">
+        <v>8.4</v>
+      </c>
+      <c r="AE57">
+        <v>1.28</v>
+      </c>
+      <c r="AF57">
+        <v>3.2</v>
+      </c>
+      <c r="AG57">
+        <v>1.9</v>
+      </c>
+      <c r="AH57">
+        <v>1.8</v>
+      </c>
+      <c r="AI57">
+        <v>1.75</v>
+      </c>
+      <c r="AJ57">
+        <v>2.05</v>
+      </c>
+      <c r="AK57">
+        <v>1.46</v>
+      </c>
+      <c r="AL57">
+        <v>1.32</v>
+      </c>
+      <c r="AM57">
+        <v>1.46</v>
+      </c>
+      <c r="AN57">
+        <v>1.8</v>
+      </c>
+      <c r="AO57">
+        <v>1</v>
+      </c>
+      <c r="AP57">
+        <v>2</v>
+      </c>
+      <c r="AQ57">
+        <v>0.8</v>
+      </c>
+      <c r="AR57">
+        <v>1.34</v>
+      </c>
+      <c r="AS57">
+        <v>1.1</v>
+      </c>
+      <c r="AT57">
+        <v>2.44</v>
+      </c>
+      <c r="AU57">
+        <v>9</v>
+      </c>
+      <c r="AV57">
+        <v>7</v>
+      </c>
+      <c r="AW57">
+        <v>11</v>
+      </c>
+      <c r="AX57">
+        <v>5</v>
+      </c>
+      <c r="AY57">
+        <v>20</v>
+      </c>
+      <c r="AZ57">
+        <v>12</v>
+      </c>
+      <c r="BA57">
+        <v>5</v>
+      </c>
+      <c r="BB57">
+        <v>12</v>
+      </c>
+      <c r="BC57">
+        <v>17</v>
+      </c>
+      <c r="BD57">
+        <v>1.91</v>
+      </c>
+      <c r="BE57">
+        <v>8</v>
+      </c>
+      <c r="BF57">
+        <v>2.2</v>
+      </c>
+      <c r="BG57">
+        <v>1.29</v>
+      </c>
+      <c r="BH57">
+        <v>3.4</v>
+      </c>
+      <c r="BI57">
+        <v>1.39</v>
+      </c>
+      <c r="BJ57">
+        <v>2.77</v>
+      </c>
+      <c r="BK57">
+        <v>1.73</v>
+      </c>
+      <c r="BL57">
+        <v>1.99</v>
+      </c>
+      <c r="BM57">
+        <v>2.2</v>
+      </c>
+      <c r="BN57">
+        <v>1.6</v>
+      </c>
+      <c r="BO57">
+        <v>2.95</v>
+      </c>
+      <c r="BP57">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="58" spans="1:68">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>7321669</v>
+      </c>
+      <c r="C58" t="s">
+        <v>68</v>
+      </c>
+      <c r="D58" t="s">
+        <v>69</v>
+      </c>
+      <c r="E58" s="2">
+        <v>45395.875</v>
+      </c>
+      <c r="F58">
+        <v>8</v>
+      </c>
+      <c r="G58" t="s">
+        <v>79</v>
+      </c>
+      <c r="H58" t="s">
+        <v>75</v>
+      </c>
+      <c r="I58">
+        <v>1</v>
+      </c>
+      <c r="J58">
+        <v>2</v>
+      </c>
+      <c r="K58">
+        <v>3</v>
+      </c>
+      <c r="L58">
+        <v>2</v>
+      </c>
+      <c r="M58">
+        <v>3</v>
+      </c>
+      <c r="N58">
+        <v>5</v>
+      </c>
+      <c r="O58" t="s">
+        <v>124</v>
+      </c>
+      <c r="P58" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q58">
+        <v>2.75</v>
+      </c>
+      <c r="R58">
+        <v>2.2</v>
+      </c>
+      <c r="S58">
+        <v>4</v>
+      </c>
+      <c r="T58">
+        <v>1.4</v>
+      </c>
+      <c r="U58">
+        <v>2.75</v>
+      </c>
+      <c r="V58">
+        <v>2.85</v>
+      </c>
+      <c r="W58">
+        <v>1.36</v>
+      </c>
+      <c r="X58">
+        <v>7.2</v>
+      </c>
+      <c r="Y58">
+        <v>1.08</v>
+      </c>
+      <c r="Z58">
+        <v>2</v>
+      </c>
+      <c r="AA58">
+        <v>3.3</v>
+      </c>
+      <c r="AB58">
+        <v>3.1</v>
+      </c>
+      <c r="AC58">
+        <v>1.05</v>
+      </c>
+      <c r="AD58">
+        <v>8.5</v>
+      </c>
+      <c r="AE58">
+        <v>1.3</v>
+      </c>
+      <c r="AF58">
+        <v>3.35</v>
+      </c>
+      <c r="AG58">
+        <v>1.9</v>
+      </c>
+      <c r="AH58">
+        <v>1.8</v>
+      </c>
+      <c r="AI58">
+        <v>1.7</v>
+      </c>
+      <c r="AJ58">
+        <v>1.95</v>
+      </c>
+      <c r="AK58">
+        <v>1.3</v>
+      </c>
+      <c r="AL58">
+        <v>1.25</v>
+      </c>
+      <c r="AM58">
+        <v>1.7</v>
+      </c>
+      <c r="AN58">
+        <v>2.33</v>
+      </c>
+      <c r="AO58">
+        <v>1.67</v>
+      </c>
+      <c r="AP58">
+        <v>1.75</v>
+      </c>
+      <c r="AQ58">
+        <v>2</v>
+      </c>
+      <c r="AR58">
+        <v>1.99</v>
+      </c>
+      <c r="AS58">
+        <v>0.9</v>
+      </c>
+      <c r="AT58">
+        <v>2.89</v>
+      </c>
+      <c r="AU58">
+        <v>5</v>
+      </c>
+      <c r="AV58">
+        <v>6</v>
+      </c>
+      <c r="AW58">
+        <v>11</v>
+      </c>
+      <c r="AX58">
+        <v>2</v>
+      </c>
+      <c r="AY58">
+        <v>16</v>
+      </c>
+      <c r="AZ58">
+        <v>8</v>
+      </c>
+      <c r="BA58">
+        <v>6</v>
+      </c>
+      <c r="BB58">
+        <v>1</v>
+      </c>
+      <c r="BC58">
+        <v>7</v>
+      </c>
+      <c r="BD58">
+        <v>1.64</v>
+      </c>
+      <c r="BE58">
+        <v>8</v>
+      </c>
+      <c r="BF58">
+        <v>2.77</v>
+      </c>
+      <c r="BG58">
+        <v>1.33</v>
+      </c>
+      <c r="BH58">
+        <v>3</v>
+      </c>
+      <c r="BI58">
+        <v>1.51</v>
+      </c>
+      <c r="BJ58">
+        <v>2.37</v>
+      </c>
+      <c r="BK58">
+        <v>1.98</v>
+      </c>
+      <c r="BL58">
+        <v>1.82</v>
+      </c>
+      <c r="BM58">
+        <v>2.47</v>
+      </c>
+      <c r="BN58">
+        <v>1.48</v>
+      </c>
+      <c r="BO58">
+        <v>3.2</v>
+      </c>
+      <c r="BP58">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:68">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>7321676</v>
+      </c>
+      <c r="C59" t="s">
+        <v>68</v>
+      </c>
+      <c r="D59" t="s">
+        <v>69</v>
+      </c>
+      <c r="E59" s="2">
+        <v>45396.5625</v>
+      </c>
+      <c r="F59">
+        <v>8</v>
+      </c>
+      <c r="G59" t="s">
+        <v>81</v>
+      </c>
+      <c r="H59" t="s">
+        <v>80</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>0</v>
+      </c>
+      <c r="O59" t="s">
+        <v>86</v>
+      </c>
+      <c r="P59" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q59">
+        <v>3.02</v>
+      </c>
+      <c r="R59">
+        <v>2.04</v>
+      </c>
+      <c r="S59">
+        <v>3.54</v>
+      </c>
+      <c r="T59">
+        <v>1.42</v>
+      </c>
+      <c r="U59">
+        <v>2.74</v>
+      </c>
+      <c r="V59">
+        <v>2.86</v>
+      </c>
+      <c r="W59">
+        <v>1.39</v>
+      </c>
+      <c r="X59">
+        <v>7.3</v>
+      </c>
+      <c r="Y59">
+        <v>1.07</v>
+      </c>
+      <c r="Z59">
+        <v>2.41</v>
+      </c>
+      <c r="AA59">
+        <v>3.21</v>
+      </c>
+      <c r="AB59">
+        <v>2.92</v>
+      </c>
+      <c r="AC59">
+        <v>1.03</v>
+      </c>
+      <c r="AD59">
+        <v>8.4</v>
+      </c>
+      <c r="AE59">
+        <v>1.28</v>
+      </c>
+      <c r="AF59">
+        <v>3.18</v>
+      </c>
+      <c r="AG59">
+        <v>1.97</v>
+      </c>
+      <c r="AH59">
+        <v>1.81</v>
+      </c>
+      <c r="AI59">
+        <v>1.75</v>
+      </c>
+      <c r="AJ59">
+        <v>2.05</v>
+      </c>
+      <c r="AK59">
+        <v>1.4</v>
+      </c>
+      <c r="AL59">
+        <v>1.32</v>
+      </c>
+      <c r="AM59">
+        <v>1.53</v>
+      </c>
+      <c r="AN59">
+        <v>1.5</v>
+      </c>
+      <c r="AO59">
+        <v>1.33</v>
+      </c>
+      <c r="AP59">
+        <v>1.4</v>
+      </c>
+      <c r="AQ59">
+        <v>1.25</v>
+      </c>
+      <c r="AR59">
+        <v>1.36</v>
+      </c>
+      <c r="AS59">
+        <v>1.25</v>
+      </c>
+      <c r="AT59">
+        <v>2.61</v>
+      </c>
+      <c r="AU59">
+        <v>3</v>
+      </c>
+      <c r="AV59">
+        <v>2</v>
+      </c>
+      <c r="AW59">
+        <v>6</v>
+      </c>
+      <c r="AX59">
+        <v>4</v>
+      </c>
+      <c r="AY59">
+        <v>9</v>
+      </c>
+      <c r="AZ59">
+        <v>6</v>
+      </c>
+      <c r="BA59">
+        <v>6</v>
+      </c>
+      <c r="BB59">
+        <v>1</v>
+      </c>
+      <c r="BC59">
+        <v>7</v>
+      </c>
+      <c r="BD59">
+        <v>2</v>
+      </c>
+      <c r="BE59">
+        <v>8.5</v>
+      </c>
+      <c r="BF59">
+        <v>2.05</v>
+      </c>
+      <c r="BG59">
+        <v>1.2</v>
+      </c>
+      <c r="BH59">
+        <v>4</v>
+      </c>
+      <c r="BI59">
+        <v>1.36</v>
+      </c>
+      <c r="BJ59">
+        <v>2.9</v>
+      </c>
+      <c r="BK59">
+        <v>1.35</v>
+      </c>
+      <c r="BL59">
+        <v>2.95</v>
+      </c>
+      <c r="BM59">
+        <v>1.67</v>
+      </c>
+      <c r="BN59">
+        <v>2.07</v>
+      </c>
+      <c r="BO59">
+        <v>2.07</v>
+      </c>
+      <c r="BP59">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="60" spans="1:68">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>7321672</v>
+      </c>
+      <c r="C60" t="s">
+        <v>68</v>
+      </c>
+      <c r="D60" t="s">
+        <v>69</v>
+      </c>
+      <c r="E60" s="2">
+        <v>45396.5625</v>
+      </c>
+      <c r="F60">
+        <v>8</v>
+      </c>
+      <c r="G60" t="s">
+        <v>77</v>
+      </c>
+      <c r="H60" t="s">
+        <v>76</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>1</v>
+      </c>
+      <c r="M60">
+        <v>1</v>
+      </c>
+      <c r="N60">
+        <v>2</v>
+      </c>
+      <c r="O60" t="s">
+        <v>87</v>
+      </c>
+      <c r="P60" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q60">
+        <v>2.31</v>
+      </c>
+      <c r="R60">
+        <v>2.17</v>
+      </c>
+      <c r="S60">
+        <v>4.75</v>
+      </c>
+      <c r="T60">
+        <v>1.38</v>
+      </c>
+      <c r="U60">
+        <v>2.9</v>
+      </c>
+      <c r="V60">
+        <v>2.78</v>
+      </c>
+      <c r="W60">
+        <v>1.41</v>
+      </c>
+      <c r="X60">
+        <v>6.9</v>
+      </c>
+      <c r="Y60">
+        <v>1.08</v>
+      </c>
+      <c r="Z60">
+        <v>1.78</v>
+      </c>
+      <c r="AA60">
+        <v>3.62</v>
+      </c>
+      <c r="AB60">
+        <v>4.3</v>
+      </c>
+      <c r="AC60">
+        <v>1.01</v>
+      </c>
+      <c r="AD60">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AE60">
+        <v>1.26</v>
+      </c>
+      <c r="AF60">
+        <v>3.34</v>
+      </c>
+      <c r="AG60">
+        <v>1.9</v>
+      </c>
+      <c r="AH60">
+        <v>1.88</v>
+      </c>
+      <c r="AI60">
+        <v>1.86</v>
+      </c>
+      <c r="AJ60">
+        <v>1.92</v>
+      </c>
+      <c r="AK60">
+        <v>1.2</v>
+      </c>
+      <c r="AL60">
+        <v>1.26</v>
+      </c>
+      <c r="AM60">
+        <v>1.98</v>
+      </c>
+      <c r="AN60">
+        <v>2.33</v>
+      </c>
+      <c r="AO60">
+        <v>1</v>
+      </c>
+      <c r="AP60">
+        <v>2</v>
+      </c>
+      <c r="AQ60">
+        <v>1</v>
+      </c>
+      <c r="AR60">
+        <v>1.44</v>
+      </c>
+      <c r="AS60">
+        <v>1.17</v>
+      </c>
+      <c r="AT60">
+        <v>2.61</v>
+      </c>
+      <c r="AU60">
+        <v>3</v>
+      </c>
+      <c r="AV60">
+        <v>3</v>
+      </c>
+      <c r="AW60">
+        <v>4</v>
+      </c>
+      <c r="AX60">
+        <v>4</v>
+      </c>
+      <c r="AY60">
+        <v>7</v>
+      </c>
+      <c r="AZ60">
+        <v>7</v>
+      </c>
+      <c r="BA60">
+        <v>2</v>
+      </c>
+      <c r="BB60">
+        <v>5</v>
+      </c>
+      <c r="BC60">
+        <v>7</v>
+      </c>
+      <c r="BD60">
+        <v>1.59</v>
+      </c>
+      <c r="BE60">
+        <v>8</v>
+      </c>
+      <c r="BF60">
+        <v>2.8</v>
+      </c>
+      <c r="BG60">
+        <v>1.31</v>
+      </c>
+      <c r="BH60">
+        <v>3.15</v>
+      </c>
+      <c r="BI60">
+        <v>1.6</v>
+      </c>
+      <c r="BJ60">
+        <v>2.2</v>
+      </c>
+      <c r="BK60">
+        <v>2.07</v>
+      </c>
+      <c r="BL60">
+        <v>1.67</v>
+      </c>
+      <c r="BM60">
+        <v>2.77</v>
+      </c>
+      <c r="BN60">
+        <v>1.39</v>
+      </c>
+      <c r="BO60">
+        <v>3.6</v>
+      </c>
+      <c r="BP60">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="61" spans="1:68">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>7321675</v>
+      </c>
+      <c r="C61" t="s">
+        <v>68</v>
+      </c>
+      <c r="D61" t="s">
+        <v>69</v>
+      </c>
+      <c r="E61" s="2">
+        <v>45396.66666666666</v>
+      </c>
+      <c r="F61">
+        <v>8</v>
+      </c>
+      <c r="G61" t="s">
+        <v>70</v>
+      </c>
+      <c r="H61" t="s">
+        <v>78</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>1</v>
+      </c>
+      <c r="K61">
+        <v>1</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>2</v>
+      </c>
+      <c r="N61">
+        <v>2</v>
+      </c>
+      <c r="O61" t="s">
+        <v>86</v>
+      </c>
+      <c r="P61" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q61">
+        <v>3.42</v>
+      </c>
+      <c r="R61">
+        <v>1.99</v>
+      </c>
+      <c r="S61">
+        <v>3.24</v>
+      </c>
+      <c r="T61">
+        <v>1.46</v>
+      </c>
+      <c r="U61">
+        <v>2.6</v>
+      </c>
+      <c r="V61">
+        <v>3.04</v>
+      </c>
+      <c r="W61">
+        <v>1.35</v>
+      </c>
+      <c r="X61">
+        <v>7.9</v>
+      </c>
+      <c r="Y61">
+        <v>1.06</v>
+      </c>
+      <c r="Z61">
+        <v>2.5</v>
+      </c>
+      <c r="AA61">
+        <v>3.1</v>
+      </c>
+      <c r="AB61">
+        <v>2.62</v>
+      </c>
+      <c r="AC61">
+        <v>1.04</v>
+      </c>
+      <c r="AD61">
+        <v>7.8</v>
+      </c>
+      <c r="AE61">
+        <v>1.33</v>
+      </c>
+      <c r="AF61">
+        <v>2.93</v>
+      </c>
+      <c r="AG61">
+        <v>2</v>
+      </c>
+      <c r="AH61">
+        <v>1.67</v>
+      </c>
+      <c r="AI61">
+        <v>1.81</v>
+      </c>
+      <c r="AJ61">
+        <v>1.89</v>
+      </c>
+      <c r="AK61">
+        <v>1.46</v>
+      </c>
+      <c r="AL61">
+        <v>1.33</v>
+      </c>
+      <c r="AM61">
+        <v>1.44</v>
+      </c>
+      <c r="AN61">
+        <v>1.75</v>
+      </c>
+      <c r="AO61">
+        <v>2.33</v>
+      </c>
+      <c r="AP61">
+        <v>1.4</v>
+      </c>
+      <c r="AQ61">
+        <v>2.5</v>
+      </c>
+      <c r="AR61">
+        <v>1.37</v>
+      </c>
+      <c r="AS61">
+        <v>1.52</v>
+      </c>
+      <c r="AT61">
+        <v>2.89</v>
+      </c>
+      <c r="AU61">
+        <v>4</v>
+      </c>
+      <c r="AV61">
+        <v>3</v>
+      </c>
+      <c r="AW61">
+        <v>2</v>
+      </c>
+      <c r="AX61">
+        <v>1</v>
+      </c>
+      <c r="AY61">
+        <v>6</v>
+      </c>
+      <c r="AZ61">
+        <v>4</v>
+      </c>
+      <c r="BA61">
+        <v>3</v>
+      </c>
+      <c r="BB61">
+        <v>4</v>
+      </c>
+      <c r="BC61">
+        <v>7</v>
+      </c>
+      <c r="BD61">
+        <v>1.95</v>
+      </c>
+      <c r="BE61">
+        <v>7.5</v>
+      </c>
+      <c r="BF61">
+        <v>2.1</v>
+      </c>
+      <c r="BG61">
+        <v>1.33</v>
+      </c>
+      <c r="BH61">
+        <v>3.05</v>
+      </c>
+      <c r="BI61">
+        <v>1.67</v>
+      </c>
+      <c r="BJ61">
+        <v>2.07</v>
+      </c>
+      <c r="BK61">
+        <v>2.13</v>
+      </c>
+      <c r="BL61">
+        <v>1.63</v>
+      </c>
+      <c r="BM61">
+        <v>2.9</v>
+      </c>
+      <c r="BN61">
+        <v>1.36</v>
+      </c>
+      <c r="BO61">
+        <v>3.4</v>
+      </c>
+      <c r="BP61">
+        <v>1.29</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Chile Primera División_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Chile Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="160">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -391,6 +391,9 @@
     <t>['33', '61']</t>
   </si>
   <si>
+    <t>['12', '53']</t>
+  </si>
+  <si>
     <t>['13', '18', '77']</t>
   </si>
   <si>
@@ -488,6 +491,9 @@
   </si>
   <si>
     <t>['41', '88']</t>
+  </si>
+  <si>
+    <t>['5', '90+10']</t>
   </si>
 </sst>
 </file>
@@ -849,7 +855,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP61"/>
+  <dimension ref="A1:BP62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1314,7 +1320,7 @@
         <v>86</v>
       </c>
       <c r="P3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q3">
         <v>4.75</v>
@@ -1520,7 +1526,7 @@
         <v>87</v>
       </c>
       <c r="P4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q4">
         <v>3.1</v>
@@ -1726,7 +1732,7 @@
         <v>88</v>
       </c>
       <c r="P5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q5">
         <v>3.1</v>
@@ -1932,7 +1938,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q6">
         <v>2.75</v>
@@ -2010,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AQ6">
         <v>2.25</v>
@@ -2138,7 +2144,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2344,7 +2350,7 @@
         <v>90</v>
       </c>
       <c r="P8" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q8">
         <v>2.6</v>
@@ -2962,7 +2968,7 @@
         <v>93</v>
       </c>
       <c r="P11" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q11">
         <v>3.6</v>
@@ -3168,7 +3174,7 @@
         <v>86</v>
       </c>
       <c r="P12" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q12">
         <v>2.5</v>
@@ -3249,7 +3255,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ12">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3580,7 +3586,7 @@
         <v>95</v>
       </c>
       <c r="P14" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q14">
         <v>2.5</v>
@@ -3786,7 +3792,7 @@
         <v>96</v>
       </c>
       <c r="P15" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -3992,7 +3998,7 @@
         <v>97</v>
       </c>
       <c r="P16" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q16">
         <v>3.75</v>
@@ -4198,7 +4204,7 @@
         <v>86</v>
       </c>
       <c r="P17" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q17">
         <v>2.54</v>
@@ -4404,7 +4410,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q18">
         <v>2.6</v>
@@ -5022,7 +5028,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q21">
         <v>2.65</v>
@@ -5228,7 +5234,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q22">
         <v>3.75</v>
@@ -5434,7 +5440,7 @@
         <v>103</v>
       </c>
       <c r="P23" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q23">
         <v>2.69</v>
@@ -6052,7 +6058,7 @@
         <v>105</v>
       </c>
       <c r="P26" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -6258,7 +6264,7 @@
         <v>86</v>
       </c>
       <c r="P27" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q27">
         <v>2.28</v>
@@ -6670,7 +6676,7 @@
         <v>107</v>
       </c>
       <c r="P29" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q29">
         <v>2.75</v>
@@ -6876,7 +6882,7 @@
         <v>86</v>
       </c>
       <c r="P30" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q30">
         <v>2.6</v>
@@ -7288,7 +7294,7 @@
         <v>108</v>
       </c>
       <c r="P32" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q32">
         <v>2.75</v>
@@ -8399,7 +8405,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ37">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR37">
         <v>1.39</v>
@@ -9142,7 +9148,7 @@
         <v>112</v>
       </c>
       <c r="P41" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q41">
         <v>2.5</v>
@@ -9348,7 +9354,7 @@
         <v>86</v>
       </c>
       <c r="P42" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9426,7 +9432,7 @@
         <v>0.33</v>
       </c>
       <c r="AP42">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AQ42">
         <v>1</v>
@@ -9554,7 +9560,7 @@
         <v>86</v>
       </c>
       <c r="P43" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9760,7 +9766,7 @@
         <v>86</v>
       </c>
       <c r="P44" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q44">
         <v>2.95</v>
@@ -10172,7 +10178,7 @@
         <v>113</v>
       </c>
       <c r="P46" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q46">
         <v>2.3</v>
@@ -10459,7 +10465,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ47">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR47">
         <v>1.29</v>
@@ -10584,7 +10590,7 @@
         <v>115</v>
       </c>
       <c r="P48" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q48">
         <v>3</v>
@@ -10790,7 +10796,7 @@
         <v>116</v>
       </c>
       <c r="P49" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -11820,7 +11826,7 @@
         <v>121</v>
       </c>
       <c r="P54" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q54">
         <v>3.1</v>
@@ -12026,7 +12032,7 @@
         <v>122</v>
       </c>
       <c r="P55" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q55">
         <v>3.1</v>
@@ -12232,7 +12238,7 @@
         <v>86</v>
       </c>
       <c r="P56" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q56">
         <v>3.4</v>
@@ -12438,7 +12444,7 @@
         <v>123</v>
       </c>
       <c r="P57" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q57">
         <v>3.25</v>
@@ -12644,7 +12650,7 @@
         <v>124</v>
       </c>
       <c r="P58" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q58">
         <v>2.75</v>
@@ -12943,31 +12949,31 @@
         <v>2.61</v>
       </c>
       <c r="AU59">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV59">
         <v>2</v>
       </c>
       <c r="AW59">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AX59">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY59">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AZ59">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA59">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BB59">
         <v>1</v>
       </c>
       <c r="BC59">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BD59">
         <v>2</v>
@@ -13056,7 +13062,7 @@
         <v>87</v>
       </c>
       <c r="P60" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q60">
         <v>2.31</v>
@@ -13149,31 +13155,31 @@
         <v>2.61</v>
       </c>
       <c r="AU60">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV60">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AW60">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX60">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY60">
+        <v>9</v>
+      </c>
+      <c r="AZ60">
+        <v>10</v>
+      </c>
+      <c r="BA60">
+        <v>5</v>
+      </c>
+      <c r="BB60">
         <v>7</v>
       </c>
-      <c r="AZ60">
-        <v>7</v>
-      </c>
-      <c r="BA60">
-        <v>2</v>
-      </c>
-      <c r="BB60">
-        <v>5</v>
-      </c>
       <c r="BC60">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="BD60">
         <v>1.59</v>
@@ -13262,7 +13268,7 @@
         <v>86</v>
       </c>
       <c r="P61" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q61">
         <v>3.42</v>
@@ -13355,31 +13361,31 @@
         <v>2.89</v>
       </c>
       <c r="AU61">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AV61">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AW61">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AX61">
         <v>1</v>
       </c>
       <c r="AY61">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="AZ61">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BA61">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BB61">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BC61">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="BD61">
         <v>1.95</v>
@@ -13419,6 +13425,212 @@
       </c>
       <c r="BP61">
         <v>1.29</v>
+      </c>
+    </row>
+    <row r="62" spans="1:68">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>7321673</v>
+      </c>
+      <c r="C62" t="s">
+        <v>68</v>
+      </c>
+      <c r="D62" t="s">
+        <v>69</v>
+      </c>
+      <c r="E62" s="2">
+        <v>45396.875</v>
+      </c>
+      <c r="F62">
+        <v>8</v>
+      </c>
+      <c r="G62" t="s">
+        <v>74</v>
+      </c>
+      <c r="H62" t="s">
+        <v>84</v>
+      </c>
+      <c r="I62">
+        <v>1</v>
+      </c>
+      <c r="J62">
+        <v>1</v>
+      </c>
+      <c r="K62">
+        <v>2</v>
+      </c>
+      <c r="L62">
+        <v>2</v>
+      </c>
+      <c r="M62">
+        <v>2</v>
+      </c>
+      <c r="N62">
+        <v>4</v>
+      </c>
+      <c r="O62" t="s">
+        <v>125</v>
+      </c>
+      <c r="P62" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q62">
+        <v>3</v>
+      </c>
+      <c r="R62">
+        <v>2.05</v>
+      </c>
+      <c r="S62">
+        <v>3.75</v>
+      </c>
+      <c r="T62">
+        <v>1.44</v>
+      </c>
+      <c r="U62">
+        <v>2.63</v>
+      </c>
+      <c r="V62">
+        <v>3.25</v>
+      </c>
+      <c r="W62">
+        <v>1.33</v>
+      </c>
+      <c r="X62">
+        <v>9</v>
+      </c>
+      <c r="Y62">
+        <v>1.07</v>
+      </c>
+      <c r="Z62">
+        <v>2.2</v>
+      </c>
+      <c r="AA62">
+        <v>3.2</v>
+      </c>
+      <c r="AB62">
+        <v>3</v>
+      </c>
+      <c r="AC62">
+        <v>1.06</v>
+      </c>
+      <c r="AD62">
+        <v>9.5</v>
+      </c>
+      <c r="AE62">
+        <v>1.36</v>
+      </c>
+      <c r="AF62">
+        <v>3.1</v>
+      </c>
+      <c r="AG62">
+        <v>2.13</v>
+      </c>
+      <c r="AH62">
+        <v>1.73</v>
+      </c>
+      <c r="AI62">
+        <v>1.83</v>
+      </c>
+      <c r="AJ62">
+        <v>1.83</v>
+      </c>
+      <c r="AK62">
+        <v>1.36</v>
+      </c>
+      <c r="AL62">
+        <v>1.28</v>
+      </c>
+      <c r="AM62">
+        <v>1.65</v>
+      </c>
+      <c r="AN62">
+        <v>0</v>
+      </c>
+      <c r="AO62">
+        <v>1.33</v>
+      </c>
+      <c r="AP62">
+        <v>0.33</v>
+      </c>
+      <c r="AQ62">
+        <v>1.25</v>
+      </c>
+      <c r="AR62">
+        <v>1.6</v>
+      </c>
+      <c r="AS62">
+        <v>0.95</v>
+      </c>
+      <c r="AT62">
+        <v>2.55</v>
+      </c>
+      <c r="AU62">
+        <v>8</v>
+      </c>
+      <c r="AV62">
+        <v>9</v>
+      </c>
+      <c r="AW62">
+        <v>4</v>
+      </c>
+      <c r="AX62">
+        <v>7</v>
+      </c>
+      <c r="AY62">
+        <v>12</v>
+      </c>
+      <c r="AZ62">
+        <v>16</v>
+      </c>
+      <c r="BA62">
+        <v>4</v>
+      </c>
+      <c r="BB62">
+        <v>2</v>
+      </c>
+      <c r="BC62">
+        <v>6</v>
+      </c>
+      <c r="BD62">
+        <v>1.59</v>
+      </c>
+      <c r="BE62">
+        <v>8.5</v>
+      </c>
+      <c r="BF62">
+        <v>2.78</v>
+      </c>
+      <c r="BG62">
+        <v>1.25</v>
+      </c>
+      <c r="BH62">
+        <v>3.6</v>
+      </c>
+      <c r="BI62">
+        <v>1.32</v>
+      </c>
+      <c r="BJ62">
+        <v>3.1</v>
+      </c>
+      <c r="BK62">
+        <v>1.56</v>
+      </c>
+      <c r="BL62">
+        <v>2.27</v>
+      </c>
+      <c r="BM62">
+        <v>1.99</v>
+      </c>
+      <c r="BN62">
+        <v>1.73</v>
+      </c>
+      <c r="BO62">
+        <v>2.6</v>
+      </c>
+      <c r="BP62">
+        <v>1.44</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Chile Primera División_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Chile Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="162">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -394,6 +394,9 @@
     <t>['12', '53']</t>
   </si>
   <si>
+    <t>['34', '55', '62']</t>
+  </si>
+  <si>
     <t>['13', '18', '77']</t>
   </si>
   <si>
@@ -494,6 +497,9 @@
   </si>
   <si>
     <t>['5', '90+10']</t>
+  </si>
+  <si>
+    <t>['27', '66']</t>
   </si>
 </sst>
 </file>
@@ -855,7 +861,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP62"/>
+  <dimension ref="A1:BP64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1320,7 +1326,7 @@
         <v>86</v>
       </c>
       <c r="P3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q3">
         <v>4.75</v>
@@ -1526,7 +1532,7 @@
         <v>87</v>
       </c>
       <c r="P4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q4">
         <v>3.1</v>
@@ -1732,7 +1738,7 @@
         <v>88</v>
       </c>
       <c r="P5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q5">
         <v>3.1</v>
@@ -1938,7 +1944,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q6">
         <v>2.75</v>
@@ -2144,7 +2150,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2350,7 +2356,7 @@
         <v>90</v>
       </c>
       <c r="P8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q8">
         <v>2.6</v>
@@ -2843,7 +2849,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ10">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -2968,7 +2974,7 @@
         <v>93</v>
       </c>
       <c r="P11" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q11">
         <v>3.6</v>
@@ -3174,7 +3180,7 @@
         <v>86</v>
       </c>
       <c r="P12" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q12">
         <v>2.5</v>
@@ -3586,7 +3592,7 @@
         <v>95</v>
       </c>
       <c r="P14" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q14">
         <v>2.5</v>
@@ -3664,7 +3670,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AQ14">
         <v>0.5</v>
@@ -3792,7 +3798,7 @@
         <v>96</v>
       </c>
       <c r="P15" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -3998,7 +4004,7 @@
         <v>97</v>
       </c>
       <c r="P16" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q16">
         <v>3.75</v>
@@ -4204,7 +4210,7 @@
         <v>86</v>
       </c>
       <c r="P17" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q17">
         <v>2.54</v>
@@ -4410,7 +4416,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q18">
         <v>2.6</v>
@@ -4900,7 +4906,7 @@
         <v>1</v>
       </c>
       <c r="AP20">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ20">
         <v>1.25</v>
@@ -5028,7 +5034,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q21">
         <v>2.65</v>
@@ -5234,7 +5240,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q22">
         <v>3.75</v>
@@ -5440,7 +5446,7 @@
         <v>103</v>
       </c>
       <c r="P23" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q23">
         <v>2.69</v>
@@ -5518,7 +5524,7 @@
         <v>0.5</v>
       </c>
       <c r="AP23">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AQ23">
         <v>1.25</v>
@@ -6058,7 +6064,7 @@
         <v>105</v>
       </c>
       <c r="P26" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -6264,7 +6270,7 @@
         <v>86</v>
       </c>
       <c r="P27" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q27">
         <v>2.28</v>
@@ -6342,7 +6348,7 @@
         <v>3</v>
       </c>
       <c r="AP27">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ27">
         <v>3</v>
@@ -6676,7 +6682,7 @@
         <v>107</v>
       </c>
       <c r="P29" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q29">
         <v>2.75</v>
@@ -6882,7 +6888,7 @@
         <v>86</v>
       </c>
       <c r="P30" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q30">
         <v>2.6</v>
@@ -6963,7 +6969,7 @@
         <v>0.25</v>
       </c>
       <c r="AQ30">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AR30">
         <v>1.72</v>
@@ -7294,7 +7300,7 @@
         <v>108</v>
       </c>
       <c r="P32" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q32">
         <v>2.75</v>
@@ -9148,7 +9154,7 @@
         <v>112</v>
       </c>
       <c r="P41" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q41">
         <v>2.5</v>
@@ -9354,7 +9360,7 @@
         <v>86</v>
       </c>
       <c r="P42" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9560,7 +9566,7 @@
         <v>86</v>
       </c>
       <c r="P43" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9766,7 +9772,7 @@
         <v>86</v>
       </c>
       <c r="P44" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q44">
         <v>2.95</v>
@@ -9844,7 +9850,7 @@
         <v>2</v>
       </c>
       <c r="AP44">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AQ44">
         <v>2.5</v>
@@ -10178,7 +10184,7 @@
         <v>113</v>
       </c>
       <c r="P46" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q46">
         <v>2.3</v>
@@ -10256,7 +10262,7 @@
         <v>1.33</v>
       </c>
       <c r="AP46">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ46">
         <v>0.8</v>
@@ -10590,7 +10596,7 @@
         <v>115</v>
       </c>
       <c r="P48" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q48">
         <v>3</v>
@@ -10796,7 +10802,7 @@
         <v>116</v>
       </c>
       <c r="P49" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -11826,7 +11832,7 @@
         <v>121</v>
       </c>
       <c r="P54" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q54">
         <v>3.1</v>
@@ -12032,7 +12038,7 @@
         <v>122</v>
       </c>
       <c r="P55" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q55">
         <v>3.1</v>
@@ -12113,7 +12119,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ55">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AR55">
         <v>1.44</v>
@@ -12238,7 +12244,7 @@
         <v>86</v>
       </c>
       <c r="P56" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q56">
         <v>3.4</v>
@@ -12444,7 +12450,7 @@
         <v>123</v>
       </c>
       <c r="P57" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q57">
         <v>3.25</v>
@@ -12650,7 +12656,7 @@
         <v>124</v>
       </c>
       <c r="P58" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q58">
         <v>2.75</v>
@@ -12949,7 +12955,7 @@
         <v>2.61</v>
       </c>
       <c r="AU59">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV59">
         <v>2</v>
@@ -12961,7 +12967,7 @@
         <v>5</v>
       </c>
       <c r="AY59">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ59">
         <v>7</v>
@@ -13062,7 +13068,7 @@
         <v>87</v>
       </c>
       <c r="P60" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q60">
         <v>2.31</v>
@@ -13158,16 +13164,16 @@
         <v>4</v>
       </c>
       <c r="AV60">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW60">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AX60">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AY60">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AZ60">
         <v>10</v>
@@ -13268,7 +13274,7 @@
         <v>86</v>
       </c>
       <c r="P61" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q61">
         <v>3.42</v>
@@ -13361,22 +13367,22 @@
         <v>2.89</v>
       </c>
       <c r="AU61">
+        <v>7</v>
+      </c>
+      <c r="AV61">
+        <v>7</v>
+      </c>
+      <c r="AW61">
+        <v>11</v>
+      </c>
+      <c r="AX61">
+        <v>2</v>
+      </c>
+      <c r="AY61">
+        <v>18</v>
+      </c>
+      <c r="AZ61">
         <v>9</v>
-      </c>
-      <c r="AV61">
-        <v>6</v>
-      </c>
-      <c r="AW61">
-        <v>7</v>
-      </c>
-      <c r="AX61">
-        <v>1</v>
-      </c>
-      <c r="AY61">
-        <v>16</v>
-      </c>
-      <c r="AZ61">
-        <v>7</v>
       </c>
       <c r="BA61">
         <v>7</v>
@@ -13474,7 +13480,7 @@
         <v>125</v>
       </c>
       <c r="P62" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q62">
         <v>3</v>
@@ -13631,6 +13637,418 @@
       </c>
       <c r="BP62">
         <v>1.44</v>
+      </c>
+    </row>
+    <row r="63" spans="1:68">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>7321671</v>
+      </c>
+      <c r="C63" t="s">
+        <v>68</v>
+      </c>
+      <c r="D63" t="s">
+        <v>69</v>
+      </c>
+      <c r="E63" s="2">
+        <v>45397.79166666666</v>
+      </c>
+      <c r="F63">
+        <v>8</v>
+      </c>
+      <c r="G63" t="s">
+        <v>82</v>
+      </c>
+      <c r="H63" t="s">
+        <v>72</v>
+      </c>
+      <c r="I63">
+        <v>1</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>1</v>
+      </c>
+      <c r="L63">
+        <v>3</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>3</v>
+      </c>
+      <c r="O63" t="s">
+        <v>126</v>
+      </c>
+      <c r="P63" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q63">
+        <v>2.38</v>
+      </c>
+      <c r="R63">
+        <v>2.3</v>
+      </c>
+      <c r="S63">
+        <v>4.5</v>
+      </c>
+      <c r="T63">
+        <v>1.32</v>
+      </c>
+      <c r="U63">
+        <v>3.22</v>
+      </c>
+      <c r="V63">
+        <v>2.51</v>
+      </c>
+      <c r="W63">
+        <v>1.49</v>
+      </c>
+      <c r="X63">
+        <v>5.95</v>
+      </c>
+      <c r="Y63">
+        <v>1.11</v>
+      </c>
+      <c r="Z63">
+        <v>1.82</v>
+      </c>
+      <c r="AA63">
+        <v>3.6</v>
+      </c>
+      <c r="AB63">
+        <v>4</v>
+      </c>
+      <c r="AC63">
+        <v>1.02</v>
+      </c>
+      <c r="AD63">
+        <v>10.5</v>
+      </c>
+      <c r="AE63">
+        <v>1.19</v>
+      </c>
+      <c r="AF63">
+        <v>3.92</v>
+      </c>
+      <c r="AG63">
+        <v>1.78</v>
+      </c>
+      <c r="AH63">
+        <v>1.95</v>
+      </c>
+      <c r="AI63">
+        <v>1.66</v>
+      </c>
+      <c r="AJ63">
+        <v>2.09</v>
+      </c>
+      <c r="AK63">
+        <v>1.2</v>
+      </c>
+      <c r="AL63">
+        <v>1.23</v>
+      </c>
+      <c r="AM63">
+        <v>1.76</v>
+      </c>
+      <c r="AN63">
+        <v>0.33</v>
+      </c>
+      <c r="AO63">
+        <v>0</v>
+      </c>
+      <c r="AP63">
+        <v>1</v>
+      </c>
+      <c r="AQ63">
+        <v>0</v>
+      </c>
+      <c r="AR63">
+        <v>1.34</v>
+      </c>
+      <c r="AS63">
+        <v>0.9</v>
+      </c>
+      <c r="AT63">
+        <v>2.24</v>
+      </c>
+      <c r="AU63">
+        <v>6</v>
+      </c>
+      <c r="AV63">
+        <v>2</v>
+      </c>
+      <c r="AW63">
+        <v>5</v>
+      </c>
+      <c r="AX63">
+        <v>7</v>
+      </c>
+      <c r="AY63">
+        <v>11</v>
+      </c>
+      <c r="AZ63">
+        <v>9</v>
+      </c>
+      <c r="BA63">
+        <v>5</v>
+      </c>
+      <c r="BB63">
+        <v>8</v>
+      </c>
+      <c r="BC63">
+        <v>13</v>
+      </c>
+      <c r="BD63">
+        <v>1.59</v>
+      </c>
+      <c r="BE63">
+        <v>9.1</v>
+      </c>
+      <c r="BF63">
+        <v>2.81</v>
+      </c>
+      <c r="BG63">
+        <v>1.25</v>
+      </c>
+      <c r="BH63">
+        <v>3.42</v>
+      </c>
+      <c r="BI63">
+        <v>1.47</v>
+      </c>
+      <c r="BJ63">
+        <v>2.42</v>
+      </c>
+      <c r="BK63">
+        <v>1.84</v>
+      </c>
+      <c r="BL63">
+        <v>1.86</v>
+      </c>
+      <c r="BM63">
+        <v>2.34</v>
+      </c>
+      <c r="BN63">
+        <v>1.5</v>
+      </c>
+      <c r="BO63">
+        <v>3.2</v>
+      </c>
+      <c r="BP63">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="64" spans="1:68">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>7321670</v>
+      </c>
+      <c r="C64" t="s">
+        <v>68</v>
+      </c>
+      <c r="D64" t="s">
+        <v>69</v>
+      </c>
+      <c r="E64" s="2">
+        <v>45397.89583333334</v>
+      </c>
+      <c r="F64">
+        <v>8</v>
+      </c>
+      <c r="G64" t="s">
+        <v>83</v>
+      </c>
+      <c r="H64" t="s">
+        <v>73</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>1</v>
+      </c>
+      <c r="K64">
+        <v>1</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>2</v>
+      </c>
+      <c r="N64">
+        <v>2</v>
+      </c>
+      <c r="O64" t="s">
+        <v>86</v>
+      </c>
+      <c r="P64" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q64">
+        <v>2.05</v>
+      </c>
+      <c r="R64">
+        <v>2.38</v>
+      </c>
+      <c r="S64">
+        <v>6</v>
+      </c>
+      <c r="T64">
+        <v>1.3</v>
+      </c>
+      <c r="U64">
+        <v>3.2</v>
+      </c>
+      <c r="V64">
+        <v>2.5</v>
+      </c>
+      <c r="W64">
+        <v>1.47</v>
+      </c>
+      <c r="X64">
+        <v>5.95</v>
+      </c>
+      <c r="Y64">
+        <v>1.1</v>
+      </c>
+      <c r="Z64">
+        <v>1.36</v>
+      </c>
+      <c r="AA64">
+        <v>4.75</v>
+      </c>
+      <c r="AB64">
+        <v>7.5</v>
+      </c>
+      <c r="AC64">
+        <v>1.03</v>
+      </c>
+      <c r="AD64">
+        <v>13</v>
+      </c>
+      <c r="AE64">
+        <v>1.22</v>
+      </c>
+      <c r="AF64">
+        <v>4.2</v>
+      </c>
+      <c r="AG64">
+        <v>1.67</v>
+      </c>
+      <c r="AH64">
+        <v>2.11</v>
+      </c>
+      <c r="AI64">
+        <v>1.85</v>
+      </c>
+      <c r="AJ64">
+        <v>1.9</v>
+      </c>
+      <c r="AK64">
+        <v>1.12</v>
+      </c>
+      <c r="AL64">
+        <v>1.17</v>
+      </c>
+      <c r="AM64">
+        <v>2.65</v>
+      </c>
+      <c r="AN64">
+        <v>2</v>
+      </c>
+      <c r="AO64">
+        <v>1</v>
+      </c>
+      <c r="AP64">
+        <v>1.5</v>
+      </c>
+      <c r="AQ64">
+        <v>1.5</v>
+      </c>
+      <c r="AR64">
+        <v>1.82</v>
+      </c>
+      <c r="AS64">
+        <v>0.87</v>
+      </c>
+      <c r="AT64">
+        <v>2.69</v>
+      </c>
+      <c r="AU64">
+        <v>13</v>
+      </c>
+      <c r="AV64">
+        <v>4</v>
+      </c>
+      <c r="AW64">
+        <v>13</v>
+      </c>
+      <c r="AX64">
+        <v>2</v>
+      </c>
+      <c r="AY64">
+        <v>26</v>
+      </c>
+      <c r="AZ64">
+        <v>6</v>
+      </c>
+      <c r="BA64">
+        <v>16</v>
+      </c>
+      <c r="BB64">
+        <v>1</v>
+      </c>
+      <c r="BC64">
+        <v>17</v>
+      </c>
+      <c r="BD64">
+        <v>1.51</v>
+      </c>
+      <c r="BE64">
+        <v>8.5</v>
+      </c>
+      <c r="BF64">
+        <v>3.16</v>
+      </c>
+      <c r="BG64">
+        <v>1.32</v>
+      </c>
+      <c r="BH64">
+        <v>3.1</v>
+      </c>
+      <c r="BI64">
+        <v>1.51</v>
+      </c>
+      <c r="BJ64">
+        <v>2.37</v>
+      </c>
+      <c r="BK64">
+        <v>1.9</v>
+      </c>
+      <c r="BL64">
+        <v>1.8</v>
+      </c>
+      <c r="BM64">
+        <v>2.47</v>
+      </c>
+      <c r="BN64">
+        <v>1.48</v>
+      </c>
+      <c r="BO64">
+        <v>4</v>
+      </c>
+      <c r="BP64">
+        <v>1.2</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Chile Primera División_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Chile Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="163">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -395,6 +395,9 @@
   </si>
   <si>
     <t>['34', '55', '62']</t>
+  </si>
+  <si>
+    <t>['41', '45+4']</t>
   </si>
   <si>
     <t>['13', '18', '77']</t>
@@ -861,7 +864,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP64"/>
+  <dimension ref="A1:BP65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1326,7 +1329,7 @@
         <v>86</v>
       </c>
       <c r="P3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q3">
         <v>4.75</v>
@@ -1532,7 +1535,7 @@
         <v>87</v>
       </c>
       <c r="P4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q4">
         <v>3.1</v>
@@ -1738,7 +1741,7 @@
         <v>88</v>
       </c>
       <c r="P5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q5">
         <v>3.1</v>
@@ -1819,7 +1822,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ5">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -1944,7 +1947,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q6">
         <v>2.75</v>
@@ -2150,7 +2153,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2356,7 +2359,7 @@
         <v>90</v>
       </c>
       <c r="P8" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q8">
         <v>2.6</v>
@@ -2846,7 +2849,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ10">
         <v>1.5</v>
@@ -2974,7 +2977,7 @@
         <v>93</v>
       </c>
       <c r="P11" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q11">
         <v>3.6</v>
@@ -3180,7 +3183,7 @@
         <v>86</v>
       </c>
       <c r="P12" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q12">
         <v>2.5</v>
@@ -3592,7 +3595,7 @@
         <v>95</v>
       </c>
       <c r="P14" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q14">
         <v>2.5</v>
@@ -3798,7 +3801,7 @@
         <v>96</v>
       </c>
       <c r="P15" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -4004,7 +4007,7 @@
         <v>97</v>
       </c>
       <c r="P16" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q16">
         <v>3.75</v>
@@ -4210,7 +4213,7 @@
         <v>86</v>
       </c>
       <c r="P17" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q17">
         <v>2.54</v>
@@ -4288,7 +4291,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ17">
         <v>2</v>
@@ -4416,7 +4419,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q18">
         <v>2.6</v>
@@ -4909,7 +4912,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ20">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR20">
         <v>0</v>
@@ -5034,7 +5037,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q21">
         <v>2.65</v>
@@ -5240,7 +5243,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q22">
         <v>3.75</v>
@@ -5446,7 +5449,7 @@
         <v>103</v>
       </c>
       <c r="P23" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q23">
         <v>2.69</v>
@@ -5527,7 +5530,7 @@
         <v>1</v>
       </c>
       <c r="AQ23">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR23">
         <v>1.09</v>
@@ -6064,7 +6067,7 @@
         <v>105</v>
       </c>
       <c r="P26" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -6270,7 +6273,7 @@
         <v>86</v>
       </c>
       <c r="P27" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q27">
         <v>2.28</v>
@@ -6682,7 +6685,7 @@
         <v>107</v>
       </c>
       <c r="P29" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q29">
         <v>2.75</v>
@@ -6888,7 +6891,7 @@
         <v>86</v>
       </c>
       <c r="P30" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q30">
         <v>2.6</v>
@@ -7300,7 +7303,7 @@
         <v>108</v>
       </c>
       <c r="P32" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q32">
         <v>2.75</v>
@@ -8408,7 +8411,7 @@
         <v>3</v>
       </c>
       <c r="AP37">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ37">
         <v>1.25</v>
@@ -9154,7 +9157,7 @@
         <v>112</v>
       </c>
       <c r="P41" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q41">
         <v>2.5</v>
@@ -9360,7 +9363,7 @@
         <v>86</v>
       </c>
       <c r="P42" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9566,7 +9569,7 @@
         <v>86</v>
       </c>
       <c r="P43" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9772,7 +9775,7 @@
         <v>86</v>
       </c>
       <c r="P44" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q44">
         <v>2.95</v>
@@ -10184,7 +10187,7 @@
         <v>113</v>
       </c>
       <c r="P46" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q46">
         <v>2.3</v>
@@ -10596,7 +10599,7 @@
         <v>115</v>
       </c>
       <c r="P48" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q48">
         <v>3</v>
@@ -10802,7 +10805,7 @@
         <v>116</v>
       </c>
       <c r="P49" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -11832,7 +11835,7 @@
         <v>121</v>
       </c>
       <c r="P54" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q54">
         <v>3.1</v>
@@ -12038,7 +12041,7 @@
         <v>122</v>
       </c>
       <c r="P55" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q55">
         <v>3.1</v>
@@ -12244,7 +12247,7 @@
         <v>86</v>
       </c>
       <c r="P56" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q56">
         <v>3.4</v>
@@ -12450,7 +12453,7 @@
         <v>123</v>
       </c>
       <c r="P57" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q57">
         <v>3.25</v>
@@ -12656,7 +12659,7 @@
         <v>124</v>
       </c>
       <c r="P58" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q58">
         <v>2.75</v>
@@ -12943,7 +12946,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ59">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR59">
         <v>1.36</v>
@@ -13068,7 +13071,7 @@
         <v>87</v>
       </c>
       <c r="P60" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q60">
         <v>2.31</v>
@@ -13274,7 +13277,7 @@
         <v>86</v>
       </c>
       <c r="P61" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q61">
         <v>3.42</v>
@@ -13480,7 +13483,7 @@
         <v>125</v>
       </c>
       <c r="P62" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q62">
         <v>3</v>
@@ -13892,7 +13895,7 @@
         <v>86</v>
       </c>
       <c r="P64" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q64">
         <v>2.05</v>
@@ -14049,6 +14052,212 @@
       </c>
       <c r="BP64">
         <v>1.2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:68">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>7321668</v>
+      </c>
+      <c r="C65" t="s">
+        <v>68</v>
+      </c>
+      <c r="D65" t="s">
+        <v>69</v>
+      </c>
+      <c r="E65" s="2">
+        <v>45399.6875</v>
+      </c>
+      <c r="F65">
+        <v>7</v>
+      </c>
+      <c r="G65" t="s">
+        <v>78</v>
+      </c>
+      <c r="H65" t="s">
+        <v>80</v>
+      </c>
+      <c r="I65">
+        <v>2</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>2</v>
+      </c>
+      <c r="L65">
+        <v>2</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>2</v>
+      </c>
+      <c r="O65" t="s">
+        <v>127</v>
+      </c>
+      <c r="P65" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q65">
+        <v>2.7</v>
+      </c>
+      <c r="R65">
+        <v>2.1</v>
+      </c>
+      <c r="S65">
+        <v>3.65</v>
+      </c>
+      <c r="T65">
+        <v>1.38</v>
+      </c>
+      <c r="U65">
+        <v>2.8</v>
+      </c>
+      <c r="V65">
+        <v>2.75</v>
+      </c>
+      <c r="W65">
+        <v>1.4</v>
+      </c>
+      <c r="X65">
+        <v>6.8</v>
+      </c>
+      <c r="Y65">
+        <v>1.08</v>
+      </c>
+      <c r="Z65">
+        <v>2.29</v>
+      </c>
+      <c r="AA65">
+        <v>3.4</v>
+      </c>
+      <c r="AB65">
+        <v>2.96</v>
+      </c>
+      <c r="AC65">
+        <v>1.05</v>
+      </c>
+      <c r="AD65">
+        <v>8.5</v>
+      </c>
+      <c r="AE65">
+        <v>1.28</v>
+      </c>
+      <c r="AF65">
+        <v>3.45</v>
+      </c>
+      <c r="AG65">
+        <v>1.85</v>
+      </c>
+      <c r="AH65">
+        <v>1.85</v>
+      </c>
+      <c r="AI65">
+        <v>1.67</v>
+      </c>
+      <c r="AJ65">
+        <v>2</v>
+      </c>
+      <c r="AK65">
+        <v>1.33</v>
+      </c>
+      <c r="AL65">
+        <v>1.25</v>
+      </c>
+      <c r="AM65">
+        <v>1.67</v>
+      </c>
+      <c r="AN65">
+        <v>1.33</v>
+      </c>
+      <c r="AO65">
+        <v>1.25</v>
+      </c>
+      <c r="AP65">
+        <v>1.75</v>
+      </c>
+      <c r="AQ65">
+        <v>1</v>
+      </c>
+      <c r="AR65">
+        <v>1.38</v>
+      </c>
+      <c r="AS65">
+        <v>1.15</v>
+      </c>
+      <c r="AT65">
+        <v>2.53</v>
+      </c>
+      <c r="AU65">
+        <v>5</v>
+      </c>
+      <c r="AV65">
+        <v>8</v>
+      </c>
+      <c r="AW65">
+        <v>2</v>
+      </c>
+      <c r="AX65">
+        <v>5</v>
+      </c>
+      <c r="AY65">
+        <v>7</v>
+      </c>
+      <c r="AZ65">
+        <v>13</v>
+      </c>
+      <c r="BA65">
+        <v>5</v>
+      </c>
+      <c r="BB65">
+        <v>3</v>
+      </c>
+      <c r="BC65">
+        <v>8</v>
+      </c>
+      <c r="BD65">
+        <v>1.95</v>
+      </c>
+      <c r="BE65">
+        <v>8</v>
+      </c>
+      <c r="BF65">
+        <v>2.05</v>
+      </c>
+      <c r="BG65">
+        <v>1.25</v>
+      </c>
+      <c r="BH65">
+        <v>3.6</v>
+      </c>
+      <c r="BI65">
+        <v>1.36</v>
+      </c>
+      <c r="BJ65">
+        <v>2.9</v>
+      </c>
+      <c r="BK65">
+        <v>1.7</v>
+      </c>
+      <c r="BL65">
+        <v>2.03</v>
+      </c>
+      <c r="BM65">
+        <v>2.12</v>
+      </c>
+      <c r="BN65">
+        <v>1.64</v>
+      </c>
+      <c r="BO65">
+        <v>2.8</v>
+      </c>
+      <c r="BP65">
+        <v>1.38</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Chile Primera División_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Chile Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="164">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -503,6 +503,9 @@
   </si>
   <si>
     <t>['27', '66']</t>
+  </si>
+  <si>
+    <t>['71']</t>
   </si>
 </sst>
 </file>
@@ -864,7 +867,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP65"/>
+  <dimension ref="A1:BP66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3058,7 +3061,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ11">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -4088,7 +4091,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ16">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR16">
         <v>1.64</v>
@@ -5115,7 +5118,7 @@
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AQ21">
         <v>2.25</v>
@@ -6766,7 +6769,7 @@
         <v>1</v>
       </c>
       <c r="AQ29">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR29">
         <v>1.22</v>
@@ -6969,7 +6972,7 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AQ30">
         <v>1.5</v>
@@ -8823,7 +8826,7 @@
         <v>3</v>
       </c>
       <c r="AP39">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AQ39">
         <v>2</v>
@@ -10268,7 +10271,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ46">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR46">
         <v>1.53</v>
@@ -11913,7 +11916,7 @@
         <v>1.5</v>
       </c>
       <c r="AP54">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AQ54">
         <v>2</v>
@@ -12534,7 +12537,7 @@
         <v>2</v>
       </c>
       <c r="AQ57">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR57">
         <v>1.34</v>
@@ -14194,22 +14197,22 @@
         <v>2.53</v>
       </c>
       <c r="AU65">
+        <v>7</v>
+      </c>
+      <c r="AV65">
         <v>5</v>
       </c>
-      <c r="AV65">
-        <v>8</v>
-      </c>
       <c r="AW65">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AX65">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AY65">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AZ65">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BA65">
         <v>5</v>
@@ -14258,6 +14261,212 @@
       </c>
       <c r="BP65">
         <v>1.38</v>
+      </c>
+    </row>
+    <row r="66" spans="1:68">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>7321681</v>
+      </c>
+      <c r="C66" t="s">
+        <v>68</v>
+      </c>
+      <c r="D66" t="s">
+        <v>69</v>
+      </c>
+      <c r="E66" s="2">
+        <v>45401.89583333334</v>
+      </c>
+      <c r="F66">
+        <v>9</v>
+      </c>
+      <c r="G66" t="s">
+        <v>84</v>
+      </c>
+      <c r="H66" t="s">
+        <v>85</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>1</v>
+      </c>
+      <c r="N66">
+        <v>1</v>
+      </c>
+      <c r="O66" t="s">
+        <v>86</v>
+      </c>
+      <c r="P66" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q66">
+        <v>3.25</v>
+      </c>
+      <c r="R66">
+        <v>2</v>
+      </c>
+      <c r="S66">
+        <v>3.2</v>
+      </c>
+      <c r="T66">
+        <v>1.42</v>
+      </c>
+      <c r="U66">
+        <v>2.62</v>
+      </c>
+      <c r="V66">
+        <v>2.9</v>
+      </c>
+      <c r="W66">
+        <v>1.36</v>
+      </c>
+      <c r="X66">
+        <v>7.6</v>
+      </c>
+      <c r="Y66">
+        <v>1.07</v>
+      </c>
+      <c r="Z66">
+        <v>2.68</v>
+      </c>
+      <c r="AA66">
+        <v>3.2</v>
+      </c>
+      <c r="AB66">
+        <v>2.63</v>
+      </c>
+      <c r="AC66">
+        <v>1.06</v>
+      </c>
+      <c r="AD66">
+        <v>8</v>
+      </c>
+      <c r="AE66">
+        <v>1.35</v>
+      </c>
+      <c r="AF66">
+        <v>3</v>
+      </c>
+      <c r="AG66">
+        <v>2.05</v>
+      </c>
+      <c r="AH66">
+        <v>1.75</v>
+      </c>
+      <c r="AI66">
+        <v>1.73</v>
+      </c>
+      <c r="AJ66">
+        <v>1.93</v>
+      </c>
+      <c r="AK66">
+        <v>1.39</v>
+      </c>
+      <c r="AL66">
+        <v>1.29</v>
+      </c>
+      <c r="AM66">
+        <v>1.38</v>
+      </c>
+      <c r="AN66">
+        <v>0.25</v>
+      </c>
+      <c r="AO66">
+        <v>0.8</v>
+      </c>
+      <c r="AP66">
+        <v>0.2</v>
+      </c>
+      <c r="AQ66">
+        <v>1.17</v>
+      </c>
+      <c r="AR66">
+        <v>1.47</v>
+      </c>
+      <c r="AS66">
+        <v>1.19</v>
+      </c>
+      <c r="AT66">
+        <v>2.66</v>
+      </c>
+      <c r="AU66">
+        <v>4</v>
+      </c>
+      <c r="AV66">
+        <v>3</v>
+      </c>
+      <c r="AW66">
+        <v>5</v>
+      </c>
+      <c r="AX66">
+        <v>3</v>
+      </c>
+      <c r="AY66">
+        <v>9</v>
+      </c>
+      <c r="AZ66">
+        <v>6</v>
+      </c>
+      <c r="BA66">
+        <v>6</v>
+      </c>
+      <c r="BB66">
+        <v>2</v>
+      </c>
+      <c r="BC66">
+        <v>8</v>
+      </c>
+      <c r="BD66">
+        <v>2.1</v>
+      </c>
+      <c r="BE66">
+        <v>8</v>
+      </c>
+      <c r="BF66">
+        <v>1.91</v>
+      </c>
+      <c r="BG66">
+        <v>1.17</v>
+      </c>
+      <c r="BH66">
+        <v>4.2</v>
+      </c>
+      <c r="BI66">
+        <v>1.32</v>
+      </c>
+      <c r="BJ66">
+        <v>3.1</v>
+      </c>
+      <c r="BK66">
+        <v>1.54</v>
+      </c>
+      <c r="BL66">
+        <v>2.32</v>
+      </c>
+      <c r="BM66">
+        <v>1.99</v>
+      </c>
+      <c r="BN66">
+        <v>1.73</v>
+      </c>
+      <c r="BO66">
+        <v>2.55</v>
+      </c>
+      <c r="BP66">
+        <v>1.45</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Chile Primera División_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Chile Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="168">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -400,6 +400,12 @@
     <t>['41', '45+4']</t>
   </si>
   <si>
+    <t>['27', '85']</t>
+  </si>
+  <si>
+    <t>['14', '32']</t>
+  </si>
+  <si>
     <t>['13', '18', '77']</t>
   </si>
   <si>
@@ -506,6 +512,12 @@
   </si>
   <si>
     <t>['71']</t>
+  </si>
+  <si>
+    <t>['18', '24']</t>
+  </si>
+  <si>
+    <t>['23']</t>
   </si>
 </sst>
 </file>
@@ -867,7 +879,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP66"/>
+  <dimension ref="A1:BP69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1332,7 +1344,7 @@
         <v>86</v>
       </c>
       <c r="P3" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q3">
         <v>4.75</v>
@@ -1413,7 +1425,7 @@
         <v>2</v>
       </c>
       <c r="AQ3">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1538,7 +1550,7 @@
         <v>87</v>
       </c>
       <c r="P4" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q4">
         <v>3.1</v>
@@ -1619,7 +1631,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ4">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1744,7 +1756,7 @@
         <v>88</v>
       </c>
       <c r="P5" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q5">
         <v>3.1</v>
@@ -1950,7 +1962,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q6">
         <v>2.75</v>
@@ -2156,7 +2168,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2234,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ7">
         <v>1</v>
@@ -2362,7 +2374,7 @@
         <v>90</v>
       </c>
       <c r="P8" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q8">
         <v>2.6</v>
@@ -2440,7 +2452,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ8">
         <v>0</v>
@@ -2980,7 +2992,7 @@
         <v>93</v>
       </c>
       <c r="P11" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q11">
         <v>3.6</v>
@@ -3186,7 +3198,7 @@
         <v>86</v>
       </c>
       <c r="P12" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q12">
         <v>2.5</v>
@@ -3473,7 +3485,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ13">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3598,7 +3610,7 @@
         <v>95</v>
       </c>
       <c r="P14" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q14">
         <v>2.5</v>
@@ -3804,7 +3816,7 @@
         <v>96</v>
       </c>
       <c r="P15" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -4010,7 +4022,7 @@
         <v>97</v>
       </c>
       <c r="P16" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q16">
         <v>3.75</v>
@@ -4216,7 +4228,7 @@
         <v>86</v>
       </c>
       <c r="P17" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q17">
         <v>2.54</v>
@@ -4422,7 +4434,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q18">
         <v>2.6</v>
@@ -5040,7 +5052,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q21">
         <v>2.65</v>
@@ -5246,7 +5258,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q22">
         <v>3.75</v>
@@ -5452,7 +5464,7 @@
         <v>103</v>
       </c>
       <c r="P23" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q23">
         <v>2.69</v>
@@ -6070,7 +6082,7 @@
         <v>105</v>
       </c>
       <c r="P26" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -6276,7 +6288,7 @@
         <v>86</v>
       </c>
       <c r="P27" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q27">
         <v>2.28</v>
@@ -6688,7 +6700,7 @@
         <v>107</v>
       </c>
       <c r="P29" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q29">
         <v>2.75</v>
@@ -6766,7 +6778,7 @@
         <v>0.5</v>
       </c>
       <c r="AP29">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ29">
         <v>1.17</v>
@@ -6894,7 +6906,7 @@
         <v>86</v>
       </c>
       <c r="P30" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q30">
         <v>2.6</v>
@@ -7306,7 +7318,7 @@
         <v>108</v>
       </c>
       <c r="P32" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q32">
         <v>2.75</v>
@@ -7593,7 +7605,7 @@
         <v>2</v>
       </c>
       <c r="AQ33">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AR33">
         <v>0.72</v>
@@ -8002,10 +8014,10 @@
         <v>1.5</v>
       </c>
       <c r="AP35">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ35">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR35">
         <v>2.24</v>
@@ -8620,7 +8632,7 @@
         <v>1</v>
       </c>
       <c r="AP38">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ38">
         <v>0.8</v>
@@ -9160,7 +9172,7 @@
         <v>112</v>
       </c>
       <c r="P41" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q41">
         <v>2.5</v>
@@ -9366,7 +9378,7 @@
         <v>86</v>
       </c>
       <c r="P42" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9572,7 +9584,7 @@
         <v>86</v>
       </c>
       <c r="P43" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9778,7 +9790,7 @@
         <v>86</v>
       </c>
       <c r="P44" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q44">
         <v>2.95</v>
@@ -10190,7 +10202,7 @@
         <v>113</v>
       </c>
       <c r="P46" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q46">
         <v>2.3</v>
@@ -10602,7 +10614,7 @@
         <v>115</v>
       </c>
       <c r="P48" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q48">
         <v>3</v>
@@ -10808,7 +10820,7 @@
         <v>116</v>
       </c>
       <c r="P49" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -11301,7 +11313,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ51">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR51">
         <v>1.36</v>
@@ -11504,7 +11516,7 @@
         <v>0.33</v>
       </c>
       <c r="AP52">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ52">
         <v>0.25</v>
@@ -11838,7 +11850,7 @@
         <v>121</v>
       </c>
       <c r="P54" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q54">
         <v>3.1</v>
@@ -11919,7 +11931,7 @@
         <v>0.2</v>
       </c>
       <c r="AQ54">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AR54">
         <v>1.39</v>
@@ -12044,7 +12056,7 @@
         <v>122</v>
       </c>
       <c r="P55" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q55">
         <v>3.1</v>
@@ -12122,7 +12134,7 @@
         <v>1.5</v>
       </c>
       <c r="AP55">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ55">
         <v>1.5</v>
@@ -12250,7 +12262,7 @@
         <v>86</v>
       </c>
       <c r="P56" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q56">
         <v>3.4</v>
@@ -12456,7 +12468,7 @@
         <v>123</v>
       </c>
       <c r="P57" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q57">
         <v>3.25</v>
@@ -12662,7 +12674,7 @@
         <v>124</v>
       </c>
       <c r="P58" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q58">
         <v>2.75</v>
@@ -13074,7 +13086,7 @@
         <v>87</v>
       </c>
       <c r="P60" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q60">
         <v>2.31</v>
@@ -13280,7 +13292,7 @@
         <v>86</v>
       </c>
       <c r="P61" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q61">
         <v>3.42</v>
@@ -13486,7 +13498,7 @@
         <v>125</v>
       </c>
       <c r="P62" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q62">
         <v>3</v>
@@ -13898,7 +13910,7 @@
         <v>86</v>
       </c>
       <c r="P64" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q64">
         <v>2.05</v>
@@ -14310,7 +14322,7 @@
         <v>86</v>
       </c>
       <c r="P66" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q66">
         <v>3.25</v>
@@ -14467,6 +14479,624 @@
       </c>
       <c r="BP66">
         <v>1.45</v>
+      </c>
+    </row>
+    <row r="67" spans="1:68">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>7321684</v>
+      </c>
+      <c r="C67" t="s">
+        <v>68</v>
+      </c>
+      <c r="D67" t="s">
+        <v>69</v>
+      </c>
+      <c r="E67" s="2">
+        <v>45402.66666666666</v>
+      </c>
+      <c r="F67">
+        <v>9</v>
+      </c>
+      <c r="G67" t="s">
+        <v>82</v>
+      </c>
+      <c r="H67" t="s">
+        <v>70</v>
+      </c>
+      <c r="I67">
+        <v>1</v>
+      </c>
+      <c r="J67">
+        <v>2</v>
+      </c>
+      <c r="K67">
+        <v>3</v>
+      </c>
+      <c r="L67">
+        <v>2</v>
+      </c>
+      <c r="M67">
+        <v>2</v>
+      </c>
+      <c r="N67">
+        <v>4</v>
+      </c>
+      <c r="O67" t="s">
+        <v>128</v>
+      </c>
+      <c r="P67" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q67">
+        <v>3</v>
+      </c>
+      <c r="R67">
+        <v>2.2</v>
+      </c>
+      <c r="S67">
+        <v>3.5</v>
+      </c>
+      <c r="T67">
+        <v>1.37</v>
+      </c>
+      <c r="U67">
+        <v>2.95</v>
+      </c>
+      <c r="V67">
+        <v>2.74</v>
+      </c>
+      <c r="W67">
+        <v>1.42</v>
+      </c>
+      <c r="X67">
+        <v>6.8</v>
+      </c>
+      <c r="Y67">
+        <v>1.08</v>
+      </c>
+      <c r="Z67">
+        <v>2.3</v>
+      </c>
+      <c r="AA67">
+        <v>3.37</v>
+      </c>
+      <c r="AB67">
+        <v>2.99</v>
+      </c>
+      <c r="AC67">
+        <v>1.01</v>
+      </c>
+      <c r="AD67">
+        <v>9.4</v>
+      </c>
+      <c r="AE67">
+        <v>1.25</v>
+      </c>
+      <c r="AF67">
+        <v>3.42</v>
+      </c>
+      <c r="AG67">
+        <v>1.85</v>
+      </c>
+      <c r="AH67">
+        <v>1.93</v>
+      </c>
+      <c r="AI67">
+        <v>1.68</v>
+      </c>
+      <c r="AJ67">
+        <v>2.13</v>
+      </c>
+      <c r="AK67">
+        <v>1.38</v>
+      </c>
+      <c r="AL67">
+        <v>1.29</v>
+      </c>
+      <c r="AM67">
+        <v>1.59</v>
+      </c>
+      <c r="AN67">
+        <v>1</v>
+      </c>
+      <c r="AO67">
+        <v>1</v>
+      </c>
+      <c r="AP67">
+        <v>1</v>
+      </c>
+      <c r="AQ67">
+        <v>1</v>
+      </c>
+      <c r="AR67">
+        <v>1.37</v>
+      </c>
+      <c r="AS67">
+        <v>1.02</v>
+      </c>
+      <c r="AT67">
+        <v>2.39</v>
+      </c>
+      <c r="AU67">
+        <v>12</v>
+      </c>
+      <c r="AV67">
+        <v>10</v>
+      </c>
+      <c r="AW67">
+        <v>8</v>
+      </c>
+      <c r="AX67">
+        <v>5</v>
+      </c>
+      <c r="AY67">
+        <v>20</v>
+      </c>
+      <c r="AZ67">
+        <v>15</v>
+      </c>
+      <c r="BA67">
+        <v>3</v>
+      </c>
+      <c r="BB67">
+        <v>7</v>
+      </c>
+      <c r="BC67">
+        <v>10</v>
+      </c>
+      <c r="BD67">
+        <v>1.69</v>
+      </c>
+      <c r="BE67">
+        <v>8</v>
+      </c>
+      <c r="BF67">
+        <v>2.62</v>
+      </c>
+      <c r="BG67">
+        <v>1.27</v>
+      </c>
+      <c r="BH67">
+        <v>3.2</v>
+      </c>
+      <c r="BI67">
+        <v>1.5</v>
+      </c>
+      <c r="BJ67">
+        <v>2.3</v>
+      </c>
+      <c r="BK67">
+        <v>2</v>
+      </c>
+      <c r="BL67">
+        <v>1.8</v>
+      </c>
+      <c r="BM67">
+        <v>2.43</v>
+      </c>
+      <c r="BN67">
+        <v>1.46</v>
+      </c>
+      <c r="BO67">
+        <v>3.3</v>
+      </c>
+      <c r="BP67">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="68" spans="1:68">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>7321678</v>
+      </c>
+      <c r="C68" t="s">
+        <v>68</v>
+      </c>
+      <c r="D68" t="s">
+        <v>69</v>
+      </c>
+      <c r="E68" s="2">
+        <v>45402.77083333334</v>
+      </c>
+      <c r="F68">
+        <v>9</v>
+      </c>
+      <c r="G68" t="s">
+        <v>75</v>
+      </c>
+      <c r="H68" t="s">
+        <v>83</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>1</v>
+      </c>
+      <c r="K68">
+        <v>1</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>1</v>
+      </c>
+      <c r="N68">
+        <v>1</v>
+      </c>
+      <c r="O68" t="s">
+        <v>86</v>
+      </c>
+      <c r="P68" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q68">
+        <v>3.6</v>
+      </c>
+      <c r="R68">
+        <v>2.1</v>
+      </c>
+      <c r="S68">
+        <v>3</v>
+      </c>
+      <c r="T68">
+        <v>1.41</v>
+      </c>
+      <c r="U68">
+        <v>2.78</v>
+      </c>
+      <c r="V68">
+        <v>2.9</v>
+      </c>
+      <c r="W68">
+        <v>1.38</v>
+      </c>
+      <c r="X68">
+        <v>7.4</v>
+      </c>
+      <c r="Y68">
+        <v>1.07</v>
+      </c>
+      <c r="Z68">
+        <v>3.2</v>
+      </c>
+      <c r="AA68">
+        <v>3.27</v>
+      </c>
+      <c r="AB68">
+        <v>2.23</v>
+      </c>
+      <c r="AC68">
+        <v>1.02</v>
+      </c>
+      <c r="AD68">
+        <v>8.6</v>
+      </c>
+      <c r="AE68">
+        <v>1.29</v>
+      </c>
+      <c r="AF68">
+        <v>3.14</v>
+      </c>
+      <c r="AG68">
+        <v>2.01</v>
+      </c>
+      <c r="AH68">
+        <v>1.79</v>
+      </c>
+      <c r="AI68">
+        <v>1.77</v>
+      </c>
+      <c r="AJ68">
+        <v>1.94</v>
+      </c>
+      <c r="AK68">
+        <v>1.49</v>
+      </c>
+      <c r="AL68">
+        <v>1.27</v>
+      </c>
+      <c r="AM68">
+        <v>1.31</v>
+      </c>
+      <c r="AN68">
+        <v>1</v>
+      </c>
+      <c r="AO68">
+        <v>1</v>
+      </c>
+      <c r="AP68">
+        <v>0.8</v>
+      </c>
+      <c r="AQ68">
+        <v>1.4</v>
+      </c>
+      <c r="AR68">
+        <v>1.6</v>
+      </c>
+      <c r="AS68">
+        <v>1.17</v>
+      </c>
+      <c r="AT68">
+        <v>2.77</v>
+      </c>
+      <c r="AU68">
+        <v>4</v>
+      </c>
+      <c r="AV68">
+        <v>5</v>
+      </c>
+      <c r="AW68">
+        <v>8</v>
+      </c>
+      <c r="AX68">
+        <v>5</v>
+      </c>
+      <c r="AY68">
+        <v>12</v>
+      </c>
+      <c r="AZ68">
+        <v>10</v>
+      </c>
+      <c r="BA68">
+        <v>5</v>
+      </c>
+      <c r="BB68">
+        <v>11</v>
+      </c>
+      <c r="BC68">
+        <v>16</v>
+      </c>
+      <c r="BD68">
+        <v>2.44</v>
+      </c>
+      <c r="BE68">
+        <v>8</v>
+      </c>
+      <c r="BF68">
+        <v>1.75</v>
+      </c>
+      <c r="BG68">
+        <v>1.25</v>
+      </c>
+      <c r="BH68">
+        <v>3.3</v>
+      </c>
+      <c r="BI68">
+        <v>1.48</v>
+      </c>
+      <c r="BJ68">
+        <v>2.38</v>
+      </c>
+      <c r="BK68">
+        <v>1.95</v>
+      </c>
+      <c r="BL68">
+        <v>1.85</v>
+      </c>
+      <c r="BM68">
+        <v>2.35</v>
+      </c>
+      <c r="BN68">
+        <v>1.49</v>
+      </c>
+      <c r="BO68">
+        <v>3.15</v>
+      </c>
+      <c r="BP68">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="69" spans="1:68">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>7321683</v>
+      </c>
+      <c r="C69" t="s">
+        <v>68</v>
+      </c>
+      <c r="D69" t="s">
+        <v>69</v>
+      </c>
+      <c r="E69" s="2">
+        <v>45402.89583333334</v>
+      </c>
+      <c r="F69">
+        <v>9</v>
+      </c>
+      <c r="G69" t="s">
+        <v>76</v>
+      </c>
+      <c r="H69" t="s">
+        <v>81</v>
+      </c>
+      <c r="I69">
+        <v>2</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>2</v>
+      </c>
+      <c r="L69">
+        <v>2</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>2</v>
+      </c>
+      <c r="O69" t="s">
+        <v>129</v>
+      </c>
+      <c r="P69" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q69">
+        <v>3</v>
+      </c>
+      <c r="R69">
+        <v>2.1</v>
+      </c>
+      <c r="S69">
+        <v>3.75</v>
+      </c>
+      <c r="T69">
+        <v>1.4</v>
+      </c>
+      <c r="U69">
+        <v>2.75</v>
+      </c>
+      <c r="V69">
+        <v>2.95</v>
+      </c>
+      <c r="W69">
+        <v>1.35</v>
+      </c>
+      <c r="X69">
+        <v>7.4</v>
+      </c>
+      <c r="Y69">
+        <v>1.06</v>
+      </c>
+      <c r="Z69">
+        <v>2.33</v>
+      </c>
+      <c r="AA69">
+        <v>3.19</v>
+      </c>
+      <c r="AB69">
+        <v>3.05</v>
+      </c>
+      <c r="AC69">
+        <v>1.05</v>
+      </c>
+      <c r="AD69">
+        <v>10</v>
+      </c>
+      <c r="AE69">
+        <v>1.33</v>
+      </c>
+      <c r="AF69">
+        <v>3.25</v>
+      </c>
+      <c r="AG69">
+        <v>2</v>
+      </c>
+      <c r="AH69">
+        <v>1.73</v>
+      </c>
+      <c r="AI69">
+        <v>1.8</v>
+      </c>
+      <c r="AJ69">
+        <v>1.95</v>
+      </c>
+      <c r="AK69">
+        <v>1.38</v>
+      </c>
+      <c r="AL69">
+        <v>1.28</v>
+      </c>
+      <c r="AM69">
+        <v>1.62</v>
+      </c>
+      <c r="AN69">
+        <v>2.33</v>
+      </c>
+      <c r="AO69">
+        <v>2</v>
+      </c>
+      <c r="AP69">
+        <v>2.5</v>
+      </c>
+      <c r="AQ69">
+        <v>1.5</v>
+      </c>
+      <c r="AR69">
+        <v>1.51</v>
+      </c>
+      <c r="AS69">
+        <v>1.41</v>
+      </c>
+      <c r="AT69">
+        <v>2.92</v>
+      </c>
+      <c r="AU69">
+        <v>5</v>
+      </c>
+      <c r="AV69">
+        <v>3</v>
+      </c>
+      <c r="AW69">
+        <v>4</v>
+      </c>
+      <c r="AX69">
+        <v>6</v>
+      </c>
+      <c r="AY69">
+        <v>9</v>
+      </c>
+      <c r="AZ69">
+        <v>9</v>
+      </c>
+      <c r="BA69">
+        <v>3</v>
+      </c>
+      <c r="BB69">
+        <v>7</v>
+      </c>
+      <c r="BC69">
+        <v>10</v>
+      </c>
+      <c r="BD69">
+        <v>1.59</v>
+      </c>
+      <c r="BE69">
+        <v>8.5</v>
+      </c>
+      <c r="BF69">
+        <v>2.89</v>
+      </c>
+      <c r="BG69">
+        <v>1.19</v>
+      </c>
+      <c r="BH69">
+        <v>3.9</v>
+      </c>
+      <c r="BI69">
+        <v>1.34</v>
+      </c>
+      <c r="BJ69">
+        <v>3</v>
+      </c>
+      <c r="BK69">
+        <v>1.6</v>
+      </c>
+      <c r="BL69">
+        <v>2.2</v>
+      </c>
+      <c r="BM69">
+        <v>2.07</v>
+      </c>
+      <c r="BN69">
+        <v>1.67</v>
+      </c>
+      <c r="BO69">
+        <v>2.7</v>
+      </c>
+      <c r="BP69">
+        <v>1.41</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Chile Primera División_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Chile Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="174">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -406,6 +406,15 @@
     <t>['14', '32']</t>
   </si>
   <si>
+    <t>['33', '57']</t>
+  </si>
+  <si>
+    <t>['45+4', '80']</t>
+  </si>
+  <si>
+    <t>['21', '28', '35', '56', '65']</t>
+  </si>
+  <si>
     <t>['13', '18', '77']</t>
   </si>
   <si>
@@ -518,6 +527,15 @@
   </si>
   <si>
     <t>['23']</t>
+  </si>
+  <si>
+    <t>['2', '59']</t>
+  </si>
+  <si>
+    <t>['18', '55', '84']</t>
+  </si>
+  <si>
+    <t>['37', '45+2', '68']</t>
   </si>
 </sst>
 </file>
@@ -879,7 +897,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP69"/>
+  <dimension ref="A1:BP73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1344,7 +1362,7 @@
         <v>86</v>
       </c>
       <c r="P3" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="Q3">
         <v>4.75</v>
@@ -1422,7 +1440,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ3">
         <v>1.4</v>
@@ -1550,7 +1568,7 @@
         <v>87</v>
       </c>
       <c r="P4" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="Q4">
         <v>3.1</v>
@@ -1756,7 +1774,7 @@
         <v>88</v>
       </c>
       <c r="P5" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="Q5">
         <v>3.1</v>
@@ -1834,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ5">
         <v>1</v>
@@ -1962,7 +1980,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="Q6">
         <v>2.75</v>
@@ -2043,7 +2061,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ6">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2168,7 +2186,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2374,7 +2392,7 @@
         <v>90</v>
       </c>
       <c r="P8" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="Q8">
         <v>2.6</v>
@@ -2661,7 +2679,7 @@
         <v>2</v>
       </c>
       <c r="AQ9">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2864,7 +2882,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AQ10">
         <v>1.5</v>
@@ -2992,7 +3010,7 @@
         <v>93</v>
       </c>
       <c r="P11" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="Q11">
         <v>3.6</v>
@@ -3198,7 +3216,7 @@
         <v>86</v>
       </c>
       <c r="P12" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="Q12">
         <v>2.5</v>
@@ -3276,7 +3294,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ12">
         <v>1.25</v>
@@ -3610,7 +3628,7 @@
         <v>95</v>
       </c>
       <c r="P14" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="Q14">
         <v>2.5</v>
@@ -3816,7 +3834,7 @@
         <v>96</v>
       </c>
       <c r="P15" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -3894,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ15">
         <v>0.25</v>
@@ -4022,7 +4040,7 @@
         <v>97</v>
       </c>
       <c r="P16" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="Q16">
         <v>3.75</v>
@@ -4228,7 +4246,7 @@
         <v>86</v>
       </c>
       <c r="P17" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="Q17">
         <v>2.54</v>
@@ -4306,7 +4324,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AQ17">
         <v>2</v>
@@ -4434,7 +4452,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Q18">
         <v>2.6</v>
@@ -4515,7 +4533,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ18">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR18">
         <v>1.33</v>
@@ -4718,7 +4736,7 @@
         <v>1</v>
       </c>
       <c r="AP19">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ19">
         <v>1</v>
@@ -5052,7 +5070,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="Q21">
         <v>2.65</v>
@@ -5133,7 +5151,7 @@
         <v>0.2</v>
       </c>
       <c r="AQ21">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AR21">
         <v>0</v>
@@ -5258,7 +5276,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Q22">
         <v>3.75</v>
@@ -5339,7 +5357,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ22">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="AR22">
         <v>1.29</v>
@@ -5464,7 +5482,7 @@
         <v>103</v>
       </c>
       <c r="P23" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="Q23">
         <v>2.69</v>
@@ -5748,10 +5766,10 @@
         <v>1.5</v>
       </c>
       <c r="AP24">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ24">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR24">
         <v>0.9</v>
@@ -6082,7 +6100,7 @@
         <v>105</v>
       </c>
       <c r="P26" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -6288,7 +6306,7 @@
         <v>86</v>
       </c>
       <c r="P27" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Q27">
         <v>2.28</v>
@@ -6369,7 +6387,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ27">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="AR27">
         <v>1.22</v>
@@ -6700,7 +6718,7 @@
         <v>107</v>
       </c>
       <c r="P29" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q29">
         <v>2.75</v>
@@ -6906,7 +6924,7 @@
         <v>86</v>
       </c>
       <c r="P30" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="Q30">
         <v>2.6</v>
@@ -7318,7 +7336,7 @@
         <v>108</v>
       </c>
       <c r="P32" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="Q32">
         <v>2.75</v>
@@ -7808,7 +7826,7 @@
         <v>1</v>
       </c>
       <c r="AP34">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ34">
         <v>0.5</v>
@@ -8220,7 +8238,7 @@
         <v>0</v>
       </c>
       <c r="AP36">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ36">
         <v>0</v>
@@ -8426,7 +8444,7 @@
         <v>3</v>
       </c>
       <c r="AP37">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AQ37">
         <v>1.25</v>
@@ -8635,7 +8653,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ38">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR38">
         <v>1.39</v>
@@ -9172,7 +9190,7 @@
         <v>112</v>
       </c>
       <c r="P41" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="Q41">
         <v>2.5</v>
@@ -9378,7 +9396,7 @@
         <v>86</v>
       </c>
       <c r="P42" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9584,7 +9602,7 @@
         <v>86</v>
       </c>
       <c r="P43" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9665,7 +9683,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ43">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AR43">
         <v>1.5</v>
@@ -9790,7 +9808,7 @@
         <v>86</v>
       </c>
       <c r="P44" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="Q44">
         <v>2.95</v>
@@ -10074,7 +10092,7 @@
         <v>2</v>
       </c>
       <c r="AP45">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ45">
         <v>2</v>
@@ -10202,7 +10220,7 @@
         <v>113</v>
       </c>
       <c r="P46" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="Q46">
         <v>2.3</v>
@@ -10614,7 +10632,7 @@
         <v>115</v>
       </c>
       <c r="P48" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q48">
         <v>3</v>
@@ -10692,10 +10710,10 @@
         <v>3</v>
       </c>
       <c r="AP48">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ48">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="AR48">
         <v>1.89</v>
@@ -10820,7 +10838,7 @@
         <v>116</v>
       </c>
       <c r="P49" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -10898,7 +10916,7 @@
         <v>1.5</v>
       </c>
       <c r="AP49">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ49">
         <v>1</v>
@@ -11107,7 +11125,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ50">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AR50">
         <v>1.39</v>
@@ -11725,7 +11743,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ53">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR53">
         <v>1.66</v>
@@ -11850,7 +11868,7 @@
         <v>121</v>
       </c>
       <c r="P54" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q54">
         <v>3.1</v>
@@ -12056,7 +12074,7 @@
         <v>122</v>
       </c>
       <c r="P55" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q55">
         <v>3.1</v>
@@ -12262,7 +12280,7 @@
         <v>86</v>
       </c>
       <c r="P56" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q56">
         <v>3.4</v>
@@ -12340,10 +12358,10 @@
         <v>3</v>
       </c>
       <c r="AP56">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ56">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="AR56">
         <v>1.34</v>
@@ -12468,7 +12486,7 @@
         <v>123</v>
       </c>
       <c r="P57" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q57">
         <v>3.25</v>
@@ -12546,7 +12564,7 @@
         <v>1</v>
       </c>
       <c r="AP57">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ57">
         <v>1.17</v>
@@ -12674,7 +12692,7 @@
         <v>124</v>
       </c>
       <c r="P58" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q58">
         <v>2.75</v>
@@ -13086,7 +13104,7 @@
         <v>87</v>
       </c>
       <c r="P60" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q60">
         <v>2.31</v>
@@ -13292,7 +13310,7 @@
         <v>86</v>
       </c>
       <c r="P61" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Q61">
         <v>3.42</v>
@@ -13498,7 +13516,7 @@
         <v>125</v>
       </c>
       <c r="P62" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q62">
         <v>3</v>
@@ -13910,7 +13928,7 @@
         <v>86</v>
       </c>
       <c r="P64" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q64">
         <v>2.05</v>
@@ -14194,7 +14212,7 @@
         <v>1.25</v>
       </c>
       <c r="AP65">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AQ65">
         <v>1</v>
@@ -14322,7 +14340,7 @@
         <v>86</v>
       </c>
       <c r="P66" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q66">
         <v>3.25</v>
@@ -14528,7 +14546,7 @@
         <v>128</v>
       </c>
       <c r="P67" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q67">
         <v>3</v>
@@ -14734,7 +14752,7 @@
         <v>86</v>
       </c>
       <c r="P68" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q68">
         <v>3.6</v>
@@ -15097,6 +15115,830 @@
       </c>
       <c r="BP69">
         <v>1.41</v>
+      </c>
+    </row>
+    <row r="70" spans="1:68">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>7321679</v>
+      </c>
+      <c r="C70" t="s">
+        <v>68</v>
+      </c>
+      <c r="D70" t="s">
+        <v>69</v>
+      </c>
+      <c r="E70" s="2">
+        <v>45403.5625</v>
+      </c>
+      <c r="F70">
+        <v>9</v>
+      </c>
+      <c r="G70" t="s">
+        <v>80</v>
+      </c>
+      <c r="H70" t="s">
+        <v>79</v>
+      </c>
+      <c r="I70">
+        <v>1</v>
+      </c>
+      <c r="J70">
+        <v>1</v>
+      </c>
+      <c r="K70">
+        <v>2</v>
+      </c>
+      <c r="L70">
+        <v>2</v>
+      </c>
+      <c r="M70">
+        <v>1</v>
+      </c>
+      <c r="N70">
+        <v>3</v>
+      </c>
+      <c r="O70" t="s">
+        <v>130</v>
+      </c>
+      <c r="P70" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q70">
+        <v>2.75</v>
+      </c>
+      <c r="R70">
+        <v>2.2</v>
+      </c>
+      <c r="S70">
+        <v>3.75</v>
+      </c>
+      <c r="T70">
+        <v>1.4</v>
+      </c>
+      <c r="U70">
+        <v>2.82</v>
+      </c>
+      <c r="V70">
+        <v>2.86</v>
+      </c>
+      <c r="W70">
+        <v>1.39</v>
+      </c>
+      <c r="X70">
+        <v>7.2</v>
+      </c>
+      <c r="Y70">
+        <v>1.08</v>
+      </c>
+      <c r="Z70">
+        <v>2.1</v>
+      </c>
+      <c r="AA70">
+        <v>3.3</v>
+      </c>
+      <c r="AB70">
+        <v>3.1</v>
+      </c>
+      <c r="AC70">
+        <v>1.01</v>
+      </c>
+      <c r="AD70">
+        <v>9.6</v>
+      </c>
+      <c r="AE70">
+        <v>1.28</v>
+      </c>
+      <c r="AF70">
+        <v>3.2</v>
+      </c>
+      <c r="AG70">
+        <v>1.92</v>
+      </c>
+      <c r="AH70">
+        <v>1.73</v>
+      </c>
+      <c r="AI70">
+        <v>1.69</v>
+      </c>
+      <c r="AJ70">
+        <v>2.04</v>
+      </c>
+      <c r="AK70">
+        <v>1.31</v>
+      </c>
+      <c r="AL70">
+        <v>1.26</v>
+      </c>
+      <c r="AM70">
+        <v>1.5</v>
+      </c>
+      <c r="AN70">
+        <v>1.33</v>
+      </c>
+      <c r="AO70">
+        <v>2.25</v>
+      </c>
+      <c r="AP70">
+        <v>1.75</v>
+      </c>
+      <c r="AQ70">
+        <v>1.8</v>
+      </c>
+      <c r="AR70">
+        <v>1.62</v>
+      </c>
+      <c r="AS70">
+        <v>1.77</v>
+      </c>
+      <c r="AT70">
+        <v>3.39</v>
+      </c>
+      <c r="AU70">
+        <v>6</v>
+      </c>
+      <c r="AV70">
+        <v>5</v>
+      </c>
+      <c r="AW70">
+        <v>6</v>
+      </c>
+      <c r="AX70">
+        <v>3</v>
+      </c>
+      <c r="AY70">
+        <v>12</v>
+      </c>
+      <c r="AZ70">
+        <v>8</v>
+      </c>
+      <c r="BA70">
+        <v>7</v>
+      </c>
+      <c r="BB70">
+        <v>3</v>
+      </c>
+      <c r="BC70">
+        <v>10</v>
+      </c>
+      <c r="BD70">
+        <v>1.51</v>
+      </c>
+      <c r="BE70">
+        <v>8.5</v>
+      </c>
+      <c r="BF70">
+        <v>3.07</v>
+      </c>
+      <c r="BG70">
+        <v>1.21</v>
+      </c>
+      <c r="BH70">
+        <v>3.7</v>
+      </c>
+      <c r="BI70">
+        <v>1.4</v>
+      </c>
+      <c r="BJ70">
+        <v>2.6</v>
+      </c>
+      <c r="BK70">
+        <v>1.7</v>
+      </c>
+      <c r="BL70">
+        <v>1.96</v>
+      </c>
+      <c r="BM70">
+        <v>2.15</v>
+      </c>
+      <c r="BN70">
+        <v>1.58</v>
+      </c>
+      <c r="BO70">
+        <v>2.85</v>
+      </c>
+      <c r="BP70">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="71" spans="1:68">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>7321677</v>
+      </c>
+      <c r="C71" t="s">
+        <v>68</v>
+      </c>
+      <c r="D71" t="s">
+        <v>69</v>
+      </c>
+      <c r="E71" s="2">
+        <v>45403.66666666666</v>
+      </c>
+      <c r="F71">
+        <v>9</v>
+      </c>
+      <c r="G71" t="s">
+        <v>78</v>
+      </c>
+      <c r="H71" t="s">
+        <v>77</v>
+      </c>
+      <c r="I71">
+        <v>1</v>
+      </c>
+      <c r="J71">
+        <v>1</v>
+      </c>
+      <c r="K71">
+        <v>2</v>
+      </c>
+      <c r="L71">
+        <v>2</v>
+      </c>
+      <c r="M71">
+        <v>2</v>
+      </c>
+      <c r="N71">
+        <v>4</v>
+      </c>
+      <c r="O71" t="s">
+        <v>131</v>
+      </c>
+      <c r="P71" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q71">
+        <v>3.4</v>
+      </c>
+      <c r="R71">
+        <v>2.1</v>
+      </c>
+      <c r="S71">
+        <v>3.25</v>
+      </c>
+      <c r="T71">
+        <v>1.42</v>
+      </c>
+      <c r="U71">
+        <v>2.74</v>
+      </c>
+      <c r="V71">
+        <v>2.94</v>
+      </c>
+      <c r="W71">
+        <v>1.37</v>
+      </c>
+      <c r="X71">
+        <v>7.5</v>
+      </c>
+      <c r="Y71">
+        <v>1.07</v>
+      </c>
+      <c r="Z71">
+        <v>2.6</v>
+      </c>
+      <c r="AA71">
+        <v>3.13</v>
+      </c>
+      <c r="AB71">
+        <v>2.4</v>
+      </c>
+      <c r="AC71">
+        <v>1.02</v>
+      </c>
+      <c r="AD71">
+        <v>8.6</v>
+      </c>
+      <c r="AE71">
+        <v>1.3</v>
+      </c>
+      <c r="AF71">
+        <v>3.08</v>
+      </c>
+      <c r="AG71">
+        <v>2</v>
+      </c>
+      <c r="AH71">
+        <v>1.75</v>
+      </c>
+      <c r="AI71">
+        <v>1.76</v>
+      </c>
+      <c r="AJ71">
+        <v>1.95</v>
+      </c>
+      <c r="AK71">
+        <v>1.43</v>
+      </c>
+      <c r="AL71">
+        <v>1.27</v>
+      </c>
+      <c r="AM71">
+        <v>1.37</v>
+      </c>
+      <c r="AN71">
+        <v>1.75</v>
+      </c>
+      <c r="AO71">
+        <v>3</v>
+      </c>
+      <c r="AP71">
+        <v>1.6</v>
+      </c>
+      <c r="AQ71">
+        <v>2.6</v>
+      </c>
+      <c r="AR71">
+        <v>1.4</v>
+      </c>
+      <c r="AS71">
+        <v>1.78</v>
+      </c>
+      <c r="AT71">
+        <v>3.18</v>
+      </c>
+      <c r="AU71">
+        <v>5</v>
+      </c>
+      <c r="AV71">
+        <v>6</v>
+      </c>
+      <c r="AW71">
+        <v>3</v>
+      </c>
+      <c r="AX71">
+        <v>6</v>
+      </c>
+      <c r="AY71">
+        <v>8</v>
+      </c>
+      <c r="AZ71">
+        <v>12</v>
+      </c>
+      <c r="BA71">
+        <v>5</v>
+      </c>
+      <c r="BB71">
+        <v>3</v>
+      </c>
+      <c r="BC71">
+        <v>8</v>
+      </c>
+      <c r="BD71">
+        <v>2.44</v>
+      </c>
+      <c r="BE71">
+        <v>8</v>
+      </c>
+      <c r="BF71">
+        <v>1.75</v>
+      </c>
+      <c r="BG71">
+        <v>1.35</v>
+      </c>
+      <c r="BH71">
+        <v>2.8</v>
+      </c>
+      <c r="BI71">
+        <v>1.64</v>
+      </c>
+      <c r="BJ71">
+        <v>2.05</v>
+      </c>
+      <c r="BK71">
+        <v>2.08</v>
+      </c>
+      <c r="BL71">
+        <v>1.62</v>
+      </c>
+      <c r="BM71">
+        <v>2.75</v>
+      </c>
+      <c r="BN71">
+        <v>1.36</v>
+      </c>
+      <c r="BO71">
+        <v>3.8</v>
+      </c>
+      <c r="BP71">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="72" spans="1:68">
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>7321680</v>
+      </c>
+      <c r="C72" t="s">
+        <v>68</v>
+      </c>
+      <c r="D72" t="s">
+        <v>69</v>
+      </c>
+      <c r="E72" s="2">
+        <v>45403.77083333334</v>
+      </c>
+      <c r="F72">
+        <v>9</v>
+      </c>
+      <c r="G72" t="s">
+        <v>71</v>
+      </c>
+      <c r="H72" t="s">
+        <v>72</v>
+      </c>
+      <c r="I72">
+        <v>3</v>
+      </c>
+      <c r="J72">
+        <v>1</v>
+      </c>
+      <c r="K72">
+        <v>4</v>
+      </c>
+      <c r="L72">
+        <v>5</v>
+      </c>
+      <c r="M72">
+        <v>3</v>
+      </c>
+      <c r="N72">
+        <v>8</v>
+      </c>
+      <c r="O72" t="s">
+        <v>132</v>
+      </c>
+      <c r="P72" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q72">
+        <v>2.25</v>
+      </c>
+      <c r="R72">
+        <v>2.3</v>
+      </c>
+      <c r="S72">
+        <v>5</v>
+      </c>
+      <c r="T72">
+        <v>1.33</v>
+      </c>
+      <c r="U72">
+        <v>3.15</v>
+      </c>
+      <c r="V72">
+        <v>2.54</v>
+      </c>
+      <c r="W72">
+        <v>1.48</v>
+      </c>
+      <c r="X72">
+        <v>6.1</v>
+      </c>
+      <c r="Y72">
+        <v>1.1</v>
+      </c>
+      <c r="Z72">
+        <v>1.67</v>
+      </c>
+      <c r="AA72">
+        <v>3.6</v>
+      </c>
+      <c r="AB72">
+        <v>4.1</v>
+      </c>
+      <c r="AC72">
+        <v>1.01</v>
+      </c>
+      <c r="AD72">
+        <v>10.5</v>
+      </c>
+      <c r="AE72">
+        <v>1.21</v>
+      </c>
+      <c r="AF72">
+        <v>3.74</v>
+      </c>
+      <c r="AG72">
+        <v>1.7</v>
+      </c>
+      <c r="AH72">
+        <v>2.05</v>
+      </c>
+      <c r="AI72">
+        <v>1.71</v>
+      </c>
+      <c r="AJ72">
+        <v>2.02</v>
+      </c>
+      <c r="AK72">
+        <v>1.16</v>
+      </c>
+      <c r="AL72">
+        <v>1.21</v>
+      </c>
+      <c r="AM72">
+        <v>1.88</v>
+      </c>
+      <c r="AN72">
+        <v>2</v>
+      </c>
+      <c r="AO72">
+        <v>0</v>
+      </c>
+      <c r="AP72">
+        <v>2.14</v>
+      </c>
+      <c r="AQ72">
+        <v>0</v>
+      </c>
+      <c r="AR72">
+        <v>1.48</v>
+      </c>
+      <c r="AS72">
+        <v>0.91</v>
+      </c>
+      <c r="AT72">
+        <v>2.39</v>
+      </c>
+      <c r="AU72">
+        <v>7</v>
+      </c>
+      <c r="AV72">
+        <v>5</v>
+      </c>
+      <c r="AW72">
+        <v>7</v>
+      </c>
+      <c r="AX72">
+        <v>7</v>
+      </c>
+      <c r="AY72">
+        <v>14</v>
+      </c>
+      <c r="AZ72">
+        <v>12</v>
+      </c>
+      <c r="BA72">
+        <v>6</v>
+      </c>
+      <c r="BB72">
+        <v>5</v>
+      </c>
+      <c r="BC72">
+        <v>11</v>
+      </c>
+      <c r="BD72">
+        <v>1.59</v>
+      </c>
+      <c r="BE72">
+        <v>8.5</v>
+      </c>
+      <c r="BF72">
+        <v>2.89</v>
+      </c>
+      <c r="BG72">
+        <v>1.25</v>
+      </c>
+      <c r="BH72">
+        <v>3.3</v>
+      </c>
+      <c r="BI72">
+        <v>1.48</v>
+      </c>
+      <c r="BJ72">
+        <v>2.38</v>
+      </c>
+      <c r="BK72">
+        <v>1.88</v>
+      </c>
+      <c r="BL72">
+        <v>1.92</v>
+      </c>
+      <c r="BM72">
+        <v>2.35</v>
+      </c>
+      <c r="BN72">
+        <v>1.49</v>
+      </c>
+      <c r="BO72">
+        <v>3.15</v>
+      </c>
+      <c r="BP72">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="73" spans="1:68">
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>7321682</v>
+      </c>
+      <c r="C73" t="s">
+        <v>68</v>
+      </c>
+      <c r="D73" t="s">
+        <v>69</v>
+      </c>
+      <c r="E73" s="2">
+        <v>45403.875</v>
+      </c>
+      <c r="F73">
+        <v>9</v>
+      </c>
+      <c r="G73" t="s">
+        <v>73</v>
+      </c>
+      <c r="H73" t="s">
+        <v>74</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>2</v>
+      </c>
+      <c r="K73">
+        <v>2</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>3</v>
+      </c>
+      <c r="N73">
+        <v>3</v>
+      </c>
+      <c r="O73" t="s">
+        <v>86</v>
+      </c>
+      <c r="P73" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q73">
+        <v>2.88</v>
+      </c>
+      <c r="R73">
+        <v>2.1</v>
+      </c>
+      <c r="S73">
+        <v>4</v>
+      </c>
+      <c r="T73">
+        <v>1.43</v>
+      </c>
+      <c r="U73">
+        <v>2.7</v>
+      </c>
+      <c r="V73">
+        <v>2.99</v>
+      </c>
+      <c r="W73">
+        <v>1.36</v>
+      </c>
+      <c r="X73">
+        <v>7.8</v>
+      </c>
+      <c r="Y73">
+        <v>1.06</v>
+      </c>
+      <c r="Z73">
+        <v>2.25</v>
+      </c>
+      <c r="AA73">
+        <v>3.1</v>
+      </c>
+      <c r="AB73">
+        <v>2.8</v>
+      </c>
+      <c r="AC73">
+        <v>1.03</v>
+      </c>
+      <c r="AD73">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AE73">
+        <v>1.31</v>
+      </c>
+      <c r="AF73">
+        <v>3.04</v>
+      </c>
+      <c r="AG73">
+        <v>2.05</v>
+      </c>
+      <c r="AH73">
+        <v>1.7</v>
+      </c>
+      <c r="AI73">
+        <v>1.82</v>
+      </c>
+      <c r="AJ73">
+        <v>1.88</v>
+      </c>
+      <c r="AK73">
+        <v>1.31</v>
+      </c>
+      <c r="AL73">
+        <v>1.3</v>
+      </c>
+      <c r="AM73">
+        <v>1.67</v>
+      </c>
+      <c r="AN73">
+        <v>1.75</v>
+      </c>
+      <c r="AO73">
+        <v>0.8</v>
+      </c>
+      <c r="AP73">
+        <v>1.4</v>
+      </c>
+      <c r="AQ73">
+        <v>1.17</v>
+      </c>
+      <c r="AR73">
+        <v>1.87</v>
+      </c>
+      <c r="AS73">
+        <v>1.08</v>
+      </c>
+      <c r="AT73">
+        <v>2.95</v>
+      </c>
+      <c r="AU73">
+        <v>7</v>
+      </c>
+      <c r="AV73">
+        <v>9</v>
+      </c>
+      <c r="AW73">
+        <v>9</v>
+      </c>
+      <c r="AX73">
+        <v>9</v>
+      </c>
+      <c r="AY73">
+        <v>16</v>
+      </c>
+      <c r="AZ73">
+        <v>18</v>
+      </c>
+      <c r="BA73">
+        <v>4</v>
+      </c>
+      <c r="BB73">
+        <v>1</v>
+      </c>
+      <c r="BC73">
+        <v>5</v>
+      </c>
+      <c r="BD73">
+        <v>1.59</v>
+      </c>
+      <c r="BE73">
+        <v>8</v>
+      </c>
+      <c r="BF73">
+        <v>2.9</v>
+      </c>
+      <c r="BG73">
+        <v>1.25</v>
+      </c>
+      <c r="BH73">
+        <v>3.3</v>
+      </c>
+      <c r="BI73">
+        <v>1.48</v>
+      </c>
+      <c r="BJ73">
+        <v>2.38</v>
+      </c>
+      <c r="BK73">
+        <v>1.92</v>
+      </c>
+      <c r="BL73">
+        <v>1.88</v>
+      </c>
+      <c r="BM73">
+        <v>2.35</v>
+      </c>
+      <c r="BN73">
+        <v>1.49</v>
+      </c>
+      <c r="BO73">
+        <v>3.15</v>
+      </c>
+      <c r="BP73">
+        <v>1.28</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Chile Primera División_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Chile Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="178">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -415,6 +415,12 @@
     <t>['21', '28', '35', '56', '65']</t>
   </si>
   <si>
+    <t>['41', '87']</t>
+  </si>
+  <si>
+    <t>['2', '22', '34', '45+1', '45+4', '48']</t>
+  </si>
+  <si>
     <t>['13', '18', '77']</t>
   </si>
   <si>
@@ -536,6 +542,12 @@
   </si>
   <si>
     <t>['37', '45+2', '68']</t>
+  </si>
+  <si>
+    <t>['8', '65']</t>
+  </si>
+  <si>
+    <t>['76']</t>
   </si>
 </sst>
 </file>
@@ -897,7 +909,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP73"/>
+  <dimension ref="A1:BP76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1234,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ2">
         <v>1</v>
@@ -1362,7 +1374,7 @@
         <v>86</v>
       </c>
       <c r="P3" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q3">
         <v>4.75</v>
@@ -1568,7 +1580,7 @@
         <v>87</v>
       </c>
       <c r="P4" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q4">
         <v>3.1</v>
@@ -1646,7 +1658,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ4">
         <v>1.5</v>
@@ -1774,7 +1786,7 @@
         <v>88</v>
       </c>
       <c r="P5" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q5">
         <v>3.1</v>
@@ -1980,7 +1992,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q6">
         <v>2.75</v>
@@ -2186,7 +2198,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2392,7 +2404,7 @@
         <v>90</v>
       </c>
       <c r="P8" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q8">
         <v>2.6</v>
@@ -2885,7 +2897,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ10">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3010,7 +3022,7 @@
         <v>93</v>
       </c>
       <c r="P11" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q11">
         <v>3.6</v>
@@ -3216,7 +3228,7 @@
         <v>86</v>
       </c>
       <c r="P12" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q12">
         <v>2.5</v>
@@ -3500,7 +3512,7 @@
         <v>3</v>
       </c>
       <c r="AP13">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ13">
         <v>1.4</v>
@@ -3628,7 +3640,7 @@
         <v>95</v>
       </c>
       <c r="P14" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q14">
         <v>2.5</v>
@@ -3709,7 +3721,7 @@
         <v>1</v>
       </c>
       <c r="AQ14">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -3834,7 +3846,7 @@
         <v>96</v>
       </c>
       <c r="P15" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -4040,7 +4052,7 @@
         <v>97</v>
       </c>
       <c r="P16" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q16">
         <v>3.75</v>
@@ -4118,7 +4130,7 @@
         <v>1</v>
       </c>
       <c r="AP16">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ16">
         <v>1.17</v>
@@ -4246,7 +4258,7 @@
         <v>86</v>
       </c>
       <c r="P17" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q17">
         <v>2.54</v>
@@ -4327,7 +4339,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ17">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AR17">
         <v>1.44</v>
@@ -4452,7 +4464,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q18">
         <v>2.6</v>
@@ -4530,7 +4542,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ18">
         <v>1.17</v>
@@ -5070,7 +5082,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q21">
         <v>2.65</v>
@@ -5276,7 +5288,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q22">
         <v>3.75</v>
@@ -5354,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ22">
         <v>2.6</v>
@@ -5482,7 +5494,7 @@
         <v>103</v>
       </c>
       <c r="P23" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q23">
         <v>2.69</v>
@@ -5972,7 +5984,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ25">
         <v>2.5</v>
@@ -6100,7 +6112,7 @@
         <v>105</v>
       </c>
       <c r="P26" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -6306,7 +6318,7 @@
         <v>86</v>
       </c>
       <c r="P27" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q27">
         <v>2.28</v>
@@ -6590,7 +6602,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ28">
         <v>0</v>
@@ -6718,7 +6730,7 @@
         <v>107</v>
       </c>
       <c r="P29" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q29">
         <v>2.75</v>
@@ -6924,7 +6936,7 @@
         <v>86</v>
       </c>
       <c r="P30" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q30">
         <v>2.6</v>
@@ -7005,7 +7017,7 @@
         <v>0.2</v>
       </c>
       <c r="AQ30">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AR30">
         <v>1.72</v>
@@ -7336,7 +7348,7 @@
         <v>108</v>
       </c>
       <c r="P32" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q32">
         <v>2.75</v>
@@ -7829,7 +7841,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ34">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AR34">
         <v>1.73</v>
@@ -8859,7 +8871,7 @@
         <v>0.2</v>
       </c>
       <c r="AQ39">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AR39">
         <v>1.45</v>
@@ -9190,7 +9202,7 @@
         <v>112</v>
       </c>
       <c r="P41" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q41">
         <v>2.5</v>
@@ -9396,7 +9408,7 @@
         <v>86</v>
       </c>
       <c r="P42" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9602,7 +9614,7 @@
         <v>86</v>
       </c>
       <c r="P43" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9680,7 +9692,7 @@
         <v>3</v>
       </c>
       <c r="AP43">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ43">
         <v>1.8</v>
@@ -9808,7 +9820,7 @@
         <v>86</v>
       </c>
       <c r="P44" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q44">
         <v>2.95</v>
@@ -10095,7 +10107,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ45">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AR45">
         <v>1.64</v>
@@ -10220,7 +10232,7 @@
         <v>113</v>
       </c>
       <c r="P46" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q46">
         <v>2.3</v>
@@ -10504,7 +10516,7 @@
         <v>2</v>
       </c>
       <c r="AP47">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ47">
         <v>1.25</v>
@@ -10632,7 +10644,7 @@
         <v>115</v>
       </c>
       <c r="P48" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q48">
         <v>3</v>
@@ -10838,7 +10850,7 @@
         <v>116</v>
       </c>
       <c r="P49" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -11122,7 +11134,7 @@
         <v>3</v>
       </c>
       <c r="AP50">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ50">
         <v>1.8</v>
@@ -11328,7 +11340,7 @@
         <v>1.33</v>
       </c>
       <c r="AP51">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ51">
         <v>1.4</v>
@@ -11868,7 +11880,7 @@
         <v>121</v>
       </c>
       <c r="P54" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q54">
         <v>3.1</v>
@@ -12074,7 +12086,7 @@
         <v>122</v>
       </c>
       <c r="P55" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q55">
         <v>3.1</v>
@@ -12155,7 +12167,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ55">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AR55">
         <v>1.44</v>
@@ -12280,7 +12292,7 @@
         <v>86</v>
       </c>
       <c r="P56" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q56">
         <v>3.4</v>
@@ -12486,7 +12498,7 @@
         <v>123</v>
       </c>
       <c r="P57" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q57">
         <v>3.25</v>
@@ -12692,7 +12704,7 @@
         <v>124</v>
       </c>
       <c r="P58" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q58">
         <v>2.75</v>
@@ -12773,7 +12785,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ58">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AR58">
         <v>1.99</v>
@@ -12976,7 +12988,7 @@
         <v>1.33</v>
       </c>
       <c r="AP59">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ59">
         <v>1</v>
@@ -13104,7 +13116,7 @@
         <v>87</v>
       </c>
       <c r="P60" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q60">
         <v>2.31</v>
@@ -13310,7 +13322,7 @@
         <v>86</v>
       </c>
       <c r="P61" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q61">
         <v>3.42</v>
@@ -13388,7 +13400,7 @@
         <v>2.33</v>
       </c>
       <c r="AP61">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ61">
         <v>2.5</v>
@@ -13516,7 +13528,7 @@
         <v>125</v>
       </c>
       <c r="P62" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q62">
         <v>3</v>
@@ -13928,7 +13940,7 @@
         <v>86</v>
       </c>
       <c r="P64" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q64">
         <v>2.05</v>
@@ -14009,7 +14021,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ64">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AR64">
         <v>1.82</v>
@@ -14340,7 +14352,7 @@
         <v>86</v>
       </c>
       <c r="P66" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q66">
         <v>3.25</v>
@@ -14546,7 +14558,7 @@
         <v>128</v>
       </c>
       <c r="P67" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q67">
         <v>3</v>
@@ -14752,7 +14764,7 @@
         <v>86</v>
       </c>
       <c r="P68" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q68">
         <v>3.6</v>
@@ -15370,7 +15382,7 @@
         <v>131</v>
       </c>
       <c r="P71" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q71">
         <v>3.4</v>
@@ -15576,7 +15588,7 @@
         <v>132</v>
       </c>
       <c r="P72" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q72">
         <v>2.25</v>
@@ -15782,7 +15794,7 @@
         <v>86</v>
       </c>
       <c r="P73" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q73">
         <v>2.88</v>
@@ -15939,6 +15951,624 @@
       </c>
       <c r="BP73">
         <v>1.28</v>
+      </c>
+    </row>
+    <row r="74" spans="1:68">
+      <c r="A74" s="1">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>7321691</v>
+      </c>
+      <c r="C74" t="s">
+        <v>68</v>
+      </c>
+      <c r="D74" t="s">
+        <v>69</v>
+      </c>
+      <c r="E74" s="2">
+        <v>45408.83333333334</v>
+      </c>
+      <c r="F74">
+        <v>10</v>
+      </c>
+      <c r="G74" t="s">
+        <v>81</v>
+      </c>
+      <c r="H74" t="s">
+        <v>71</v>
+      </c>
+      <c r="I74">
+        <v>1</v>
+      </c>
+      <c r="J74">
+        <v>1</v>
+      </c>
+      <c r="K74">
+        <v>2</v>
+      </c>
+      <c r="L74">
+        <v>2</v>
+      </c>
+      <c r="M74">
+        <v>2</v>
+      </c>
+      <c r="N74">
+        <v>4</v>
+      </c>
+      <c r="O74" t="s">
+        <v>133</v>
+      </c>
+      <c r="P74" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q74">
+        <v>2.52</v>
+      </c>
+      <c r="R74">
+        <v>2.13</v>
+      </c>
+      <c r="S74">
+        <v>4.2</v>
+      </c>
+      <c r="T74">
+        <v>1.39</v>
+      </c>
+      <c r="U74">
+        <v>2.86</v>
+      </c>
+      <c r="V74">
+        <v>2.82</v>
+      </c>
+      <c r="W74">
+        <v>1.4</v>
+      </c>
+      <c r="X74">
+        <v>7.1</v>
+      </c>
+      <c r="Y74">
+        <v>1.08</v>
+      </c>
+      <c r="Z74">
+        <v>2.16</v>
+      </c>
+      <c r="AA74">
+        <v>3.4</v>
+      </c>
+      <c r="AB74">
+        <v>3.2</v>
+      </c>
+      <c r="AC74">
+        <v>1.02</v>
+      </c>
+      <c r="AD74">
+        <v>9.1</v>
+      </c>
+      <c r="AE74">
+        <v>1.27</v>
+      </c>
+      <c r="AF74">
+        <v>3.28</v>
+      </c>
+      <c r="AG74">
+        <v>1.91</v>
+      </c>
+      <c r="AH74">
+        <v>1.8</v>
+      </c>
+      <c r="AI74">
+        <v>1.76</v>
+      </c>
+      <c r="AJ74">
+        <v>1.95</v>
+      </c>
+      <c r="AK74">
+        <v>1.27</v>
+      </c>
+      <c r="AL74">
+        <v>1.28</v>
+      </c>
+      <c r="AM74">
+        <v>1.79</v>
+      </c>
+      <c r="AN74">
+        <v>1.4</v>
+      </c>
+      <c r="AO74">
+        <v>0.5</v>
+      </c>
+      <c r="AP74">
+        <v>1.33</v>
+      </c>
+      <c r="AQ74">
+        <v>0.67</v>
+      </c>
+      <c r="AR74">
+        <v>1.38</v>
+      </c>
+      <c r="AS74">
+        <v>1.18</v>
+      </c>
+      <c r="AT74">
+        <v>2.56</v>
+      </c>
+      <c r="AU74">
+        <v>6</v>
+      </c>
+      <c r="AV74">
+        <v>6</v>
+      </c>
+      <c r="AW74">
+        <v>8</v>
+      </c>
+      <c r="AX74">
+        <v>5</v>
+      </c>
+      <c r="AY74">
+        <v>14</v>
+      </c>
+      <c r="AZ74">
+        <v>11</v>
+      </c>
+      <c r="BA74">
+        <v>3</v>
+      </c>
+      <c r="BB74">
+        <v>6</v>
+      </c>
+      <c r="BC74">
+        <v>9</v>
+      </c>
+      <c r="BD74">
+        <v>1.75</v>
+      </c>
+      <c r="BE74">
+        <v>8</v>
+      </c>
+      <c r="BF74">
+        <v>2.44</v>
+      </c>
+      <c r="BG74">
+        <v>1.21</v>
+      </c>
+      <c r="BH74">
+        <v>3.7</v>
+      </c>
+      <c r="BI74">
+        <v>1.4</v>
+      </c>
+      <c r="BJ74">
+        <v>2.6</v>
+      </c>
+      <c r="BK74">
+        <v>1.7</v>
+      </c>
+      <c r="BL74">
+        <v>1.96</v>
+      </c>
+      <c r="BM74">
+        <v>2.16</v>
+      </c>
+      <c r="BN74">
+        <v>1.58</v>
+      </c>
+      <c r="BO74">
+        <v>2.85</v>
+      </c>
+      <c r="BP74">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="75" spans="1:68">
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>7321686</v>
+      </c>
+      <c r="C75" t="s">
+        <v>68</v>
+      </c>
+      <c r="D75" t="s">
+        <v>69</v>
+      </c>
+      <c r="E75" s="2">
+        <v>45409.66666666666</v>
+      </c>
+      <c r="F75">
+        <v>10</v>
+      </c>
+      <c r="G75" t="s">
+        <v>72</v>
+      </c>
+      <c r="H75" t="s">
+        <v>75</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>1</v>
+      </c>
+      <c r="N75">
+        <v>1</v>
+      </c>
+      <c r="O75" t="s">
+        <v>86</v>
+      </c>
+      <c r="P75" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q75">
+        <v>3.58</v>
+      </c>
+      <c r="R75">
+        <v>2.16</v>
+      </c>
+      <c r="S75">
+        <v>2.76</v>
+      </c>
+      <c r="T75">
+        <v>1.36</v>
+      </c>
+      <c r="U75">
+        <v>2.98</v>
+      </c>
+      <c r="V75">
+        <v>2.7</v>
+      </c>
+      <c r="W75">
+        <v>1.43</v>
+      </c>
+      <c r="X75">
+        <v>6.65</v>
+      </c>
+      <c r="Y75">
+        <v>1.09</v>
+      </c>
+      <c r="Z75">
+        <v>2.62</v>
+      </c>
+      <c r="AA75">
+        <v>3.25</v>
+      </c>
+      <c r="AB75">
+        <v>2.3</v>
+      </c>
+      <c r="AC75">
+        <v>1.01</v>
+      </c>
+      <c r="AD75">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AE75">
+        <v>1.24</v>
+      </c>
+      <c r="AF75">
+        <v>3.48</v>
+      </c>
+      <c r="AG75">
+        <v>1.8</v>
+      </c>
+      <c r="AH75">
+        <v>1.91</v>
+      </c>
+      <c r="AI75">
+        <v>1.67</v>
+      </c>
+      <c r="AJ75">
+        <v>2.08</v>
+      </c>
+      <c r="AK75">
+        <v>1.52</v>
+      </c>
+      <c r="AL75">
+        <v>1.26</v>
+      </c>
+      <c r="AM75">
+        <v>1.3</v>
+      </c>
+      <c r="AN75">
+        <v>1.5</v>
+      </c>
+      <c r="AO75">
+        <v>2</v>
+      </c>
+      <c r="AP75">
+        <v>1.2</v>
+      </c>
+      <c r="AQ75">
+        <v>2.2</v>
+      </c>
+      <c r="AR75">
+        <v>1.53</v>
+      </c>
+      <c r="AS75">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AT75">
+        <v>2.47</v>
+      </c>
+      <c r="AU75">
+        <v>4</v>
+      </c>
+      <c r="AV75">
+        <v>4</v>
+      </c>
+      <c r="AW75">
+        <v>10</v>
+      </c>
+      <c r="AX75">
+        <v>7</v>
+      </c>
+      <c r="AY75">
+        <v>14</v>
+      </c>
+      <c r="AZ75">
+        <v>11</v>
+      </c>
+      <c r="BA75">
+        <v>8</v>
+      </c>
+      <c r="BB75">
+        <v>2</v>
+      </c>
+      <c r="BC75">
+        <v>10</v>
+      </c>
+      <c r="BD75">
+        <v>1.92</v>
+      </c>
+      <c r="BE75">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BF75">
+        <v>2.13</v>
+      </c>
+      <c r="BG75">
+        <v>1.24</v>
+      </c>
+      <c r="BH75">
+        <v>3.45</v>
+      </c>
+      <c r="BI75">
+        <v>1.45</v>
+      </c>
+      <c r="BJ75">
+        <v>2.45</v>
+      </c>
+      <c r="BK75">
+        <v>1.85</v>
+      </c>
+      <c r="BL75">
+        <v>1.95</v>
+      </c>
+      <c r="BM75">
+        <v>2.28</v>
+      </c>
+      <c r="BN75">
+        <v>1.52</v>
+      </c>
+      <c r="BO75">
+        <v>3.05</v>
+      </c>
+      <c r="BP75">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:68">
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>7321687</v>
+      </c>
+      <c r="C76" t="s">
+        <v>68</v>
+      </c>
+      <c r="D76" t="s">
+        <v>69</v>
+      </c>
+      <c r="E76" s="2">
+        <v>45409.77083333334</v>
+      </c>
+      <c r="F76">
+        <v>10</v>
+      </c>
+      <c r="G76" t="s">
+        <v>70</v>
+      </c>
+      <c r="H76" t="s">
+        <v>73</v>
+      </c>
+      <c r="I76">
+        <v>5</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>5</v>
+      </c>
+      <c r="L76">
+        <v>6</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>6</v>
+      </c>
+      <c r="O76" t="s">
+        <v>134</v>
+      </c>
+      <c r="P76" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q76">
+        <v>3.1</v>
+      </c>
+      <c r="R76">
+        <v>2.05</v>
+      </c>
+      <c r="S76">
+        <v>3.75</v>
+      </c>
+      <c r="T76">
+        <v>1.42</v>
+      </c>
+      <c r="U76">
+        <v>2.65</v>
+      </c>
+      <c r="V76">
+        <v>2.9</v>
+      </c>
+      <c r="W76">
+        <v>1.35</v>
+      </c>
+      <c r="X76">
+        <v>7.7</v>
+      </c>
+      <c r="Y76">
+        <v>1.05</v>
+      </c>
+      <c r="Z76">
+        <v>2.2</v>
+      </c>
+      <c r="AA76">
+        <v>3.2</v>
+      </c>
+      <c r="AB76">
+        <v>2.87</v>
+      </c>
+      <c r="AC76">
+        <v>1.06</v>
+      </c>
+      <c r="AD76">
+        <v>8</v>
+      </c>
+      <c r="AE76">
+        <v>1.36</v>
+      </c>
+      <c r="AF76">
+        <v>2.95</v>
+      </c>
+      <c r="AG76">
+        <v>2.1</v>
+      </c>
+      <c r="AH76">
+        <v>1.65</v>
+      </c>
+      <c r="AI76">
+        <v>1.87</v>
+      </c>
+      <c r="AJ76">
+        <v>1.89</v>
+      </c>
+      <c r="AK76">
+        <v>1.32</v>
+      </c>
+      <c r="AL76">
+        <v>1.27</v>
+      </c>
+      <c r="AM76">
+        <v>1.49</v>
+      </c>
+      <c r="AN76">
+        <v>1.4</v>
+      </c>
+      <c r="AO76">
+        <v>1.5</v>
+      </c>
+      <c r="AP76">
+        <v>1.67</v>
+      </c>
+      <c r="AQ76">
+        <v>1.2</v>
+      </c>
+      <c r="AR76">
+        <v>1.51</v>
+      </c>
+      <c r="AS76">
+        <v>0.84</v>
+      </c>
+      <c r="AT76">
+        <v>2.35</v>
+      </c>
+      <c r="AU76">
+        <v>9</v>
+      </c>
+      <c r="AV76">
+        <v>4</v>
+      </c>
+      <c r="AW76">
+        <v>5</v>
+      </c>
+      <c r="AX76">
+        <v>8</v>
+      </c>
+      <c r="AY76">
+        <v>14</v>
+      </c>
+      <c r="AZ76">
+        <v>12</v>
+      </c>
+      <c r="BA76">
+        <v>3</v>
+      </c>
+      <c r="BB76">
+        <v>3</v>
+      </c>
+      <c r="BC76">
+        <v>6</v>
+      </c>
+      <c r="BD76">
+        <v>1.85</v>
+      </c>
+      <c r="BE76">
+        <v>8</v>
+      </c>
+      <c r="BF76">
+        <v>2.28</v>
+      </c>
+      <c r="BG76">
+        <v>1.23</v>
+      </c>
+      <c r="BH76">
+        <v>3.5</v>
+      </c>
+      <c r="BI76">
+        <v>1.43</v>
+      </c>
+      <c r="BJ76">
+        <v>2.48</v>
+      </c>
+      <c r="BK76">
+        <v>1.82</v>
+      </c>
+      <c r="BL76">
+        <v>1.98</v>
+      </c>
+      <c r="BM76">
+        <v>2.25</v>
+      </c>
+      <c r="BN76">
+        <v>1.53</v>
+      </c>
+      <c r="BO76">
+        <v>3</v>
+      </c>
+      <c r="BP76">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Chile Primera División_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Chile Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="184">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -421,6 +421,15 @@
     <t>['2', '22', '34', '45+1', '45+4', '48']</t>
   </si>
   <si>
+    <t>['81']</t>
+  </si>
+  <si>
+    <t>['1', '52', '87']</t>
+  </si>
+  <si>
+    <t>['42', '66']</t>
+  </si>
+  <si>
     <t>['13', '18', '77']</t>
   </si>
   <si>
@@ -548,6 +557,15 @@
   </si>
   <si>
     <t>['76']</t>
+  </si>
+  <si>
+    <t>['51', '85']</t>
+  </si>
+  <si>
+    <t>['26', '36', '60', '88']</t>
+  </si>
+  <si>
+    <t>['37']</t>
   </si>
 </sst>
 </file>
@@ -909,7 +927,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP76"/>
+  <dimension ref="A1:BP80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1249,7 +1267,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ2">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1374,7 +1392,7 @@
         <v>86</v>
       </c>
       <c r="P3" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="Q3">
         <v>4.75</v>
@@ -1580,7 +1598,7 @@
         <v>87</v>
       </c>
       <c r="P4" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="Q4">
         <v>3.1</v>
@@ -1786,7 +1804,7 @@
         <v>88</v>
       </c>
       <c r="P5" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="Q5">
         <v>3.1</v>
@@ -1992,7 +2010,7 @@
         <v>89</v>
       </c>
       <c r="P6" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="Q6">
         <v>2.75</v>
@@ -2198,7 +2216,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="Q7">
         <v>2.75</v>
@@ -2404,7 +2422,7 @@
         <v>90</v>
       </c>
       <c r="P8" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="Q8">
         <v>2.6</v>
@@ -3022,7 +3040,7 @@
         <v>93</v>
       </c>
       <c r="P11" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Q11">
         <v>3.6</v>
@@ -3100,7 +3118,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ11">
         <v>1.17</v>
@@ -3228,7 +3246,7 @@
         <v>86</v>
       </c>
       <c r="P12" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="Q12">
         <v>2.5</v>
@@ -3306,10 +3324,10 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ12">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3640,7 +3658,7 @@
         <v>95</v>
       </c>
       <c r="P14" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Q14">
         <v>2.5</v>
@@ -3846,7 +3864,7 @@
         <v>96</v>
       </c>
       <c r="P15" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="Q15">
         <v>3</v>
@@ -4052,7 +4070,7 @@
         <v>97</v>
       </c>
       <c r="P16" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="Q16">
         <v>3.75</v>
@@ -4258,7 +4276,7 @@
         <v>86</v>
       </c>
       <c r="P17" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Q17">
         <v>2.54</v>
@@ -4464,7 +4482,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Q18">
         <v>2.6</v>
@@ -4751,7 +4769,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ19">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR19">
         <v>0.64</v>
@@ -4954,7 +4972,7 @@
         <v>1</v>
       </c>
       <c r="AP20">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ20">
         <v>1</v>
@@ -5082,7 +5100,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q21">
         <v>2.65</v>
@@ -5288,7 +5306,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="Q22">
         <v>3.75</v>
@@ -5369,7 +5387,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ22">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AR22">
         <v>1.29</v>
@@ -5494,7 +5512,7 @@
         <v>103</v>
       </c>
       <c r="P23" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="Q23">
         <v>2.69</v>
@@ -5987,7 +6005,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ25">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AR25">
         <v>1.54</v>
@@ -6112,7 +6130,7 @@
         <v>105</v>
       </c>
       <c r="P26" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="Q26">
         <v>2.75</v>
@@ -6190,10 +6208,10 @@
         <v>0.5</v>
       </c>
       <c r="AP26">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ26">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR26">
         <v>1.63</v>
@@ -6318,7 +6336,7 @@
         <v>86</v>
       </c>
       <c r="P27" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="Q27">
         <v>2.28</v>
@@ -6396,10 +6414,10 @@
         <v>3</v>
       </c>
       <c r="AP27">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ27">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AR27">
         <v>1.22</v>
@@ -6730,7 +6748,7 @@
         <v>107</v>
       </c>
       <c r="P29" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="Q29">
         <v>2.75</v>
@@ -6936,7 +6954,7 @@
         <v>86</v>
       </c>
       <c r="P30" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="Q30">
         <v>2.6</v>
@@ -7220,7 +7238,7 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ31">
         <v>0.25</v>
@@ -7348,7 +7366,7 @@
         <v>108</v>
       </c>
       <c r="P32" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q32">
         <v>2.75</v>
@@ -7426,7 +7444,7 @@
         <v>3</v>
       </c>
       <c r="AP32">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ32">
         <v>1</v>
@@ -8250,7 +8268,7 @@
         <v>0</v>
       </c>
       <c r="AP36">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ36">
         <v>0</v>
@@ -8459,7 +8477,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ37">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR37">
         <v>1.39</v>
@@ -9074,10 +9092,10 @@
         <v>3</v>
       </c>
       <c r="AP40">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ40">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AR40">
         <v>2.2</v>
@@ -9202,7 +9220,7 @@
         <v>112</v>
       </c>
       <c r="P41" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q41">
         <v>2.5</v>
@@ -9408,7 +9426,7 @@
         <v>86</v>
       </c>
       <c r="P42" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9489,7 +9507,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ42">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR42">
         <v>1.17</v>
@@ -9614,7 +9632,7 @@
         <v>86</v>
       </c>
       <c r="P43" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9820,7 +9838,7 @@
         <v>86</v>
       </c>
       <c r="P44" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q44">
         <v>2.95</v>
@@ -9901,7 +9919,7 @@
         <v>1</v>
       </c>
       <c r="AQ44">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AR44">
         <v>1.55</v>
@@ -10104,7 +10122,7 @@
         <v>2</v>
       </c>
       <c r="AP45">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ45">
         <v>2.2</v>
@@ -10232,7 +10250,7 @@
         <v>113</v>
       </c>
       <c r="P46" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q46">
         <v>2.3</v>
@@ -10310,7 +10328,7 @@
         <v>1.33</v>
       </c>
       <c r="AP46">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ46">
         <v>1.17</v>
@@ -10519,7 +10537,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ47">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR47">
         <v>1.29</v>
@@ -10644,7 +10662,7 @@
         <v>115</v>
       </c>
       <c r="P48" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q48">
         <v>3</v>
@@ -10725,7 +10743,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ48">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AR48">
         <v>1.89</v>
@@ -10850,7 +10868,7 @@
         <v>116</v>
       </c>
       <c r="P49" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -11752,7 +11770,7 @@
         <v>1</v>
       </c>
       <c r="AP53">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ53">
         <v>1.17</v>
@@ -11880,7 +11898,7 @@
         <v>121</v>
       </c>
       <c r="P54" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q54">
         <v>3.1</v>
@@ -12086,7 +12104,7 @@
         <v>122</v>
       </c>
       <c r="P55" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Q55">
         <v>3.1</v>
@@ -12292,7 +12310,7 @@
         <v>86</v>
       </c>
       <c r="P56" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q56">
         <v>3.4</v>
@@ -12373,7 +12391,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ56">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AR56">
         <v>1.34</v>
@@ -12498,7 +12516,7 @@
         <v>123</v>
       </c>
       <c r="P57" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q57">
         <v>3.25</v>
@@ -12704,7 +12722,7 @@
         <v>124</v>
       </c>
       <c r="P58" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q58">
         <v>2.75</v>
@@ -12782,7 +12800,7 @@
         <v>1.67</v>
       </c>
       <c r="AP58">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ58">
         <v>2.2</v>
@@ -13116,7 +13134,7 @@
         <v>87</v>
       </c>
       <c r="P60" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q60">
         <v>2.31</v>
@@ -13197,7 +13215,7 @@
         <v>2</v>
       </c>
       <c r="AQ60">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR60">
         <v>1.44</v>
@@ -13322,7 +13340,7 @@
         <v>86</v>
       </c>
       <c r="P61" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q61">
         <v>3.42</v>
@@ -13403,7 +13421,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ61">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AR61">
         <v>1.37</v>
@@ -13528,7 +13546,7 @@
         <v>125</v>
       </c>
       <c r="P62" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q62">
         <v>3</v>
@@ -13609,7 +13627,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ62">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR62">
         <v>1.6</v>
@@ -13940,7 +13958,7 @@
         <v>86</v>
       </c>
       <c r="P64" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q64">
         <v>2.05</v>
@@ -14018,7 +14036,7 @@
         <v>1</v>
       </c>
       <c r="AP64">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ64">
         <v>1.2</v>
@@ -14352,7 +14370,7 @@
         <v>86</v>
       </c>
       <c r="P66" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q66">
         <v>3.25</v>
@@ -14558,7 +14576,7 @@
         <v>128</v>
       </c>
       <c r="P67" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q67">
         <v>3</v>
@@ -14764,7 +14782,7 @@
         <v>86</v>
       </c>
       <c r="P68" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q68">
         <v>3.6</v>
@@ -15254,7 +15272,7 @@
         <v>2.25</v>
       </c>
       <c r="AP70">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ70">
         <v>1.8</v>
@@ -15382,7 +15400,7 @@
         <v>131</v>
       </c>
       <c r="P71" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q71">
         <v>3.4</v>
@@ -15463,7 +15481,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ71">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AR71">
         <v>1.4</v>
@@ -15588,7 +15606,7 @@
         <v>132</v>
       </c>
       <c r="P72" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q72">
         <v>2.25</v>
@@ -15794,7 +15812,7 @@
         <v>86</v>
       </c>
       <c r="P73" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q73">
         <v>2.88</v>
@@ -16000,7 +16018,7 @@
         <v>133</v>
       </c>
       <c r="P74" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q74">
         <v>2.52</v>
@@ -16206,7 +16224,7 @@
         <v>86</v>
       </c>
       <c r="P75" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q75">
         <v>3.58</v>
@@ -16568,6 +16586,830 @@
         <v>3</v>
       </c>
       <c r="BP76">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:68">
+      <c r="A77" s="1">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>7321689</v>
+      </c>
+      <c r="C77" t="s">
+        <v>68</v>
+      </c>
+      <c r="D77" t="s">
+        <v>69</v>
+      </c>
+      <c r="E77" s="2">
+        <v>45410.5625</v>
+      </c>
+      <c r="F77">
+        <v>10</v>
+      </c>
+      <c r="G77" t="s">
+        <v>85</v>
+      </c>
+      <c r="H77" t="s">
+        <v>76</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>1</v>
+      </c>
+      <c r="M77">
+        <v>2</v>
+      </c>
+      <c r="N77">
+        <v>3</v>
+      </c>
+      <c r="O77" t="s">
+        <v>135</v>
+      </c>
+      <c r="P77" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q77">
+        <v>2.78</v>
+      </c>
+      <c r="R77">
+        <v>2.11</v>
+      </c>
+      <c r="S77">
+        <v>3.68</v>
+      </c>
+      <c r="T77">
+        <v>1.39</v>
+      </c>
+      <c r="U77">
+        <v>2.86</v>
+      </c>
+      <c r="V77">
+        <v>2.82</v>
+      </c>
+      <c r="W77">
+        <v>1.4</v>
+      </c>
+      <c r="X77">
+        <v>7.1</v>
+      </c>
+      <c r="Y77">
+        <v>1.08</v>
+      </c>
+      <c r="Z77">
+        <v>2.03</v>
+      </c>
+      <c r="AA77">
+        <v>3.2</v>
+      </c>
+      <c r="AB77">
+        <v>3.05</v>
+      </c>
+      <c r="AC77">
+        <v>1.02</v>
+      </c>
+      <c r="AD77">
+        <v>9</v>
+      </c>
+      <c r="AE77">
+        <v>1.27</v>
+      </c>
+      <c r="AF77">
+        <v>3.28</v>
+      </c>
+      <c r="AG77">
+        <v>1.86</v>
+      </c>
+      <c r="AH77">
+        <v>1.84</v>
+      </c>
+      <c r="AI77">
+        <v>1.73</v>
+      </c>
+      <c r="AJ77">
+        <v>1.99</v>
+      </c>
+      <c r="AK77">
+        <v>1.35</v>
+      </c>
+      <c r="AL77">
+        <v>1.3</v>
+      </c>
+      <c r="AM77">
+        <v>1.62</v>
+      </c>
+      <c r="AN77">
+        <v>2.33</v>
+      </c>
+      <c r="AO77">
+        <v>1</v>
+      </c>
+      <c r="AP77">
+        <v>1.75</v>
+      </c>
+      <c r="AQ77">
+        <v>1.33</v>
+      </c>
+      <c r="AR77">
+        <v>1.8</v>
+      </c>
+      <c r="AS77">
+        <v>1.22</v>
+      </c>
+      <c r="AT77">
+        <v>3.02</v>
+      </c>
+      <c r="AU77">
+        <v>7</v>
+      </c>
+      <c r="AV77">
+        <v>6</v>
+      </c>
+      <c r="AW77">
+        <v>6</v>
+      </c>
+      <c r="AX77">
+        <v>4</v>
+      </c>
+      <c r="AY77">
+        <v>13</v>
+      </c>
+      <c r="AZ77">
+        <v>10</v>
+      </c>
+      <c r="BA77">
+        <v>7</v>
+      </c>
+      <c r="BB77">
+        <v>5</v>
+      </c>
+      <c r="BC77">
+        <v>12</v>
+      </c>
+      <c r="BD77">
+        <v>1.98</v>
+      </c>
+      <c r="BE77">
+        <v>9.1</v>
+      </c>
+      <c r="BF77">
+        <v>2.04</v>
+      </c>
+      <c r="BG77">
+        <v>1.15</v>
+      </c>
+      <c r="BH77">
+        <v>4.3</v>
+      </c>
+      <c r="BI77">
+        <v>1.31</v>
+      </c>
+      <c r="BJ77">
+        <v>3.04</v>
+      </c>
+      <c r="BK77">
+        <v>1.56</v>
+      </c>
+      <c r="BL77">
+        <v>2.21</v>
+      </c>
+      <c r="BM77">
+        <v>1.95</v>
+      </c>
+      <c r="BN77">
+        <v>1.76</v>
+      </c>
+      <c r="BO77">
+        <v>2.51</v>
+      </c>
+      <c r="BP77">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="78" spans="1:68">
+      <c r="A78" s="1">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>7321685</v>
+      </c>
+      <c r="C78" t="s">
+        <v>68</v>
+      </c>
+      <c r="D78" t="s">
+        <v>69</v>
+      </c>
+      <c r="E78" s="2">
+        <v>45410.66666666666</v>
+      </c>
+      <c r="F78">
+        <v>10</v>
+      </c>
+      <c r="G78" t="s">
+        <v>80</v>
+      </c>
+      <c r="H78" t="s">
+        <v>77</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>2</v>
+      </c>
+      <c r="K78">
+        <v>2</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>4</v>
+      </c>
+      <c r="N78">
+        <v>4</v>
+      </c>
+      <c r="O78" t="s">
+        <v>86</v>
+      </c>
+      <c r="P78" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q78">
+        <v>3.12</v>
+      </c>
+      <c r="R78">
+        <v>2.05</v>
+      </c>
+      <c r="S78">
+        <v>3.38</v>
+      </c>
+      <c r="T78">
+        <v>1.42</v>
+      </c>
+      <c r="U78">
+        <v>2.74</v>
+      </c>
+      <c r="V78">
+        <v>2.9</v>
+      </c>
+      <c r="W78">
+        <v>1.38</v>
+      </c>
+      <c r="X78">
+        <v>7.5</v>
+      </c>
+      <c r="Y78">
+        <v>1.07</v>
+      </c>
+      <c r="Z78">
+        <v>2.3</v>
+      </c>
+      <c r="AA78">
+        <v>3.1</v>
+      </c>
+      <c r="AB78">
+        <v>2.7</v>
+      </c>
+      <c r="AC78">
+        <v>1.03</v>
+      </c>
+      <c r="AD78">
+        <v>8.4</v>
+      </c>
+      <c r="AE78">
+        <v>1.29</v>
+      </c>
+      <c r="AF78">
+        <v>3.14</v>
+      </c>
+      <c r="AG78">
+        <v>1.95</v>
+      </c>
+      <c r="AH78">
+        <v>1.75</v>
+      </c>
+      <c r="AI78">
+        <v>1.75</v>
+      </c>
+      <c r="AJ78">
+        <v>1.96</v>
+      </c>
+      <c r="AK78">
+        <v>1.37</v>
+      </c>
+      <c r="AL78">
+        <v>1.28</v>
+      </c>
+      <c r="AM78">
+        <v>1.41</v>
+      </c>
+      <c r="AN78">
+        <v>1.75</v>
+      </c>
+      <c r="AO78">
+        <v>2.6</v>
+      </c>
+      <c r="AP78">
+        <v>1.4</v>
+      </c>
+      <c r="AQ78">
+        <v>2.67</v>
+      </c>
+      <c r="AR78">
+        <v>1.59</v>
+      </c>
+      <c r="AS78">
+        <v>1.7</v>
+      </c>
+      <c r="AT78">
+        <v>3.29</v>
+      </c>
+      <c r="AU78">
+        <v>3</v>
+      </c>
+      <c r="AV78">
+        <v>6</v>
+      </c>
+      <c r="AW78">
+        <v>8</v>
+      </c>
+      <c r="AX78">
+        <v>7</v>
+      </c>
+      <c r="AY78">
+        <v>11</v>
+      </c>
+      <c r="AZ78">
+        <v>13</v>
+      </c>
+      <c r="BA78">
+        <v>5</v>
+      </c>
+      <c r="BB78">
+        <v>5</v>
+      </c>
+      <c r="BC78">
+        <v>10</v>
+      </c>
+      <c r="BD78">
+        <v>1.91</v>
+      </c>
+      <c r="BE78">
+        <v>8</v>
+      </c>
+      <c r="BF78">
+        <v>2.2</v>
+      </c>
+      <c r="BG78">
+        <v>1.26</v>
+      </c>
+      <c r="BH78">
+        <v>3.25</v>
+      </c>
+      <c r="BI78">
+        <v>1.49</v>
+      </c>
+      <c r="BJ78">
+        <v>2.33</v>
+      </c>
+      <c r="BK78">
+        <v>1.92</v>
+      </c>
+      <c r="BL78">
+        <v>1.88</v>
+      </c>
+      <c r="BM78">
+        <v>2.38</v>
+      </c>
+      <c r="BN78">
+        <v>1.47</v>
+      </c>
+      <c r="BO78">
+        <v>3.2</v>
+      </c>
+      <c r="BP78">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="79" spans="1:68">
+      <c r="A79" s="1">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>7321690</v>
+      </c>
+      <c r="C79" t="s">
+        <v>68</v>
+      </c>
+      <c r="D79" t="s">
+        <v>69</v>
+      </c>
+      <c r="E79" s="2">
+        <v>45410.79166666666</v>
+      </c>
+      <c r="F79">
+        <v>10</v>
+      </c>
+      <c r="G79" t="s">
+        <v>83</v>
+      </c>
+      <c r="H79" t="s">
+        <v>84</v>
+      </c>
+      <c r="I79">
+        <v>1</v>
+      </c>
+      <c r="J79">
+        <v>1</v>
+      </c>
+      <c r="K79">
+        <v>2</v>
+      </c>
+      <c r="L79">
+        <v>3</v>
+      </c>
+      <c r="M79">
+        <v>1</v>
+      </c>
+      <c r="N79">
+        <v>4</v>
+      </c>
+      <c r="O79" t="s">
+        <v>136</v>
+      </c>
+      <c r="P79" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q79">
+        <v>1.91</v>
+      </c>
+      <c r="R79">
+        <v>2.52</v>
+      </c>
+      <c r="S79">
+        <v>7.21</v>
+      </c>
+      <c r="T79">
+        <v>1.32</v>
+      </c>
+      <c r="U79">
+        <v>2.92</v>
+      </c>
+      <c r="V79">
+        <v>2.6</v>
+      </c>
+      <c r="W79">
+        <v>1.46</v>
+      </c>
+      <c r="X79">
+        <v>6.25</v>
+      </c>
+      <c r="Y79">
+        <v>1.1</v>
+      </c>
+      <c r="Z79">
+        <v>1.4</v>
+      </c>
+      <c r="AA79">
+        <v>4.2</v>
+      </c>
+      <c r="AB79">
+        <v>6.5</v>
+      </c>
+      <c r="AC79">
+        <v>1.04</v>
+      </c>
+      <c r="AD79">
+        <v>8.5</v>
+      </c>
+      <c r="AE79">
+        <v>1.2</v>
+      </c>
+      <c r="AF79">
+        <v>3.9</v>
+      </c>
+      <c r="AG79">
+        <v>1.75</v>
+      </c>
+      <c r="AH79">
+        <v>2</v>
+      </c>
+      <c r="AI79">
+        <v>1.94</v>
+      </c>
+      <c r="AJ79">
+        <v>1.82</v>
+      </c>
+      <c r="AK79">
+        <v>1.08</v>
+      </c>
+      <c r="AL79">
+        <v>1.18</v>
+      </c>
+      <c r="AM79">
+        <v>2.75</v>
+      </c>
+      <c r="AN79">
+        <v>1.5</v>
+      </c>
+      <c r="AO79">
+        <v>1.25</v>
+      </c>
+      <c r="AP79">
+        <v>1.8</v>
+      </c>
+      <c r="AQ79">
+        <v>1</v>
+      </c>
+      <c r="AR79">
+        <v>2.15</v>
+      </c>
+      <c r="AS79">
+        <v>1.2</v>
+      </c>
+      <c r="AT79">
+        <v>3.35</v>
+      </c>
+      <c r="AU79">
+        <v>11</v>
+      </c>
+      <c r="AV79">
+        <v>6</v>
+      </c>
+      <c r="AW79">
+        <v>6</v>
+      </c>
+      <c r="AX79">
+        <v>7</v>
+      </c>
+      <c r="AY79">
+        <v>17</v>
+      </c>
+      <c r="AZ79">
+        <v>13</v>
+      </c>
+      <c r="BA79">
+        <v>8</v>
+      </c>
+      <c r="BB79">
+        <v>2</v>
+      </c>
+      <c r="BC79">
+        <v>10</v>
+      </c>
+      <c r="BD79">
+        <v>1.23</v>
+      </c>
+      <c r="BE79">
+        <v>10</v>
+      </c>
+      <c r="BF79">
+        <v>5.15</v>
+      </c>
+      <c r="BG79">
+        <v>1.24</v>
+      </c>
+      <c r="BH79">
+        <v>3.45</v>
+      </c>
+      <c r="BI79">
+        <v>1.45</v>
+      </c>
+      <c r="BJ79">
+        <v>2.45</v>
+      </c>
+      <c r="BK79">
+        <v>1.85</v>
+      </c>
+      <c r="BL79">
+        <v>1.95</v>
+      </c>
+      <c r="BM79">
+        <v>2.28</v>
+      </c>
+      <c r="BN79">
+        <v>1.52</v>
+      </c>
+      <c r="BO79">
+        <v>3.05</v>
+      </c>
+      <c r="BP79">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:68">
+      <c r="A80" s="1">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>7321692</v>
+      </c>
+      <c r="C80" t="s">
+        <v>68</v>
+      </c>
+      <c r="D80" t="s">
+        <v>69</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45410.89583333334</v>
+      </c>
+      <c r="F80">
+        <v>10</v>
+      </c>
+      <c r="G80" t="s">
+        <v>79</v>
+      </c>
+      <c r="H80" t="s">
+        <v>78</v>
+      </c>
+      <c r="I80">
+        <v>1</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <v>1</v>
+      </c>
+      <c r="L80">
+        <v>2</v>
+      </c>
+      <c r="M80">
+        <v>1</v>
+      </c>
+      <c r="N80">
+        <v>3</v>
+      </c>
+      <c r="O80" t="s">
+        <v>137</v>
+      </c>
+      <c r="P80" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q80">
+        <v>3.25</v>
+      </c>
+      <c r="R80">
+        <v>2.05</v>
+      </c>
+      <c r="S80">
+        <v>3.5</v>
+      </c>
+      <c r="T80">
+        <v>1.44</v>
+      </c>
+      <c r="U80">
+        <v>2.67</v>
+      </c>
+      <c r="V80">
+        <v>3.04</v>
+      </c>
+      <c r="W80">
+        <v>1.35</v>
+      </c>
+      <c r="X80">
+        <v>8</v>
+      </c>
+      <c r="Y80">
+        <v>1.06</v>
+      </c>
+      <c r="Z80">
+        <v>2.4</v>
+      </c>
+      <c r="AA80">
+        <v>3.2</v>
+      </c>
+      <c r="AB80">
+        <v>2.6</v>
+      </c>
+      <c r="AC80">
+        <v>1.03</v>
+      </c>
+      <c r="AD80">
+        <v>8</v>
+      </c>
+      <c r="AE80">
+        <v>1.33</v>
+      </c>
+      <c r="AF80">
+        <v>2.93</v>
+      </c>
+      <c r="AG80">
+        <v>2.05</v>
+      </c>
+      <c r="AH80">
+        <v>1.67</v>
+      </c>
+      <c r="AI80">
+        <v>1.82</v>
+      </c>
+      <c r="AJ80">
+        <v>1.94</v>
+      </c>
+      <c r="AK80">
+        <v>1.44</v>
+      </c>
+      <c r="AL80">
+        <v>1.32</v>
+      </c>
+      <c r="AM80">
+        <v>1.48</v>
+      </c>
+      <c r="AN80">
+        <v>1.75</v>
+      </c>
+      <c r="AO80">
+        <v>2.5</v>
+      </c>
+      <c r="AP80">
+        <v>2</v>
+      </c>
+      <c r="AQ80">
+        <v>2</v>
+      </c>
+      <c r="AR80">
+        <v>1.94</v>
+      </c>
+      <c r="AS80">
+        <v>1.49</v>
+      </c>
+      <c r="AT80">
+        <v>3.43</v>
+      </c>
+      <c r="AU80">
+        <v>7</v>
+      </c>
+      <c r="AV80">
+        <v>5</v>
+      </c>
+      <c r="AW80">
+        <v>6</v>
+      </c>
+      <c r="AX80">
+        <v>2</v>
+      </c>
+      <c r="AY80">
+        <v>13</v>
+      </c>
+      <c r="AZ80">
+        <v>7</v>
+      </c>
+      <c r="BA80">
+        <v>0</v>
+      </c>
+      <c r="BB80">
+        <v>7</v>
+      </c>
+      <c r="BC80">
+        <v>7</v>
+      </c>
+      <c r="BD80">
+        <v>1.95</v>
+      </c>
+      <c r="BE80">
+        <v>8</v>
+      </c>
+      <c r="BF80">
+        <v>2.1</v>
+      </c>
+      <c r="BG80">
+        <v>1.23</v>
+      </c>
+      <c r="BH80">
+        <v>3.5</v>
+      </c>
+      <c r="BI80">
+        <v>1.43</v>
+      </c>
+      <c r="BJ80">
+        <v>2.48</v>
+      </c>
+      <c r="BK80">
+        <v>1.82</v>
+      </c>
+      <c r="BL80">
+        <v>1.98</v>
+      </c>
+      <c r="BM80">
+        <v>2.25</v>
+      </c>
+      <c r="BN80">
+        <v>1.53</v>
+      </c>
+      <c r="BO80">
+        <v>3</v>
+      </c>
+      <c r="BP80">
         <v>1.3</v>
       </c>
     </row>
